--- a/output/supplementary tables.xlsx
+++ b/output/supplementary tables.xlsx
@@ -8,14 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cmantegna/Documents/GitHub/WDFWmussels/output/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91E63D18-846C-FF48-AECA-EA3378093EF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7F48409-F078-614A-AE80-999920BC1E65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1840" yWindow="1540" windowWidth="27540" windowHeight="16940" activeTab="1" xr2:uid="{BE86B9F0-78FD-C044-9247-4161F6BEB5F3}"/>
+    <workbookView xWindow="31080" yWindow="2840" windowWidth="35600" windowHeight="16940" activeTab="4" xr2:uid="{BE86B9F0-78FD-C044-9247-4161F6BEB5F3}"/>
   </bookViews>
   <sheets>
     <sheet name="analytes" sheetId="1" r:id="rId1"/>
     <sheet name="site-level data" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="kw pairwise comparisons" sheetId="3" r:id="rId3"/>
+    <sheet name="spearman &amp; kendalls corr" sheetId="4" r:id="rId4"/>
+    <sheet name="morans spatial autocorrelation" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -38,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="789" uniqueCount="261">
   <si>
     <t>Class</t>
   </si>
@@ -455,13 +457,379 @@
   </si>
   <si>
     <t>ALL</t>
+  </si>
+  <si>
+    <t>reporting_area_1</t>
+  </si>
+  <si>
+    <t>reporting_area_2</t>
+  </si>
+  <si>
+    <t>p_value</t>
+  </si>
+  <si>
+    <t>group_1</t>
+  </si>
+  <si>
+    <t>group_2</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>ab</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>KW + Dunns</t>
+  </si>
+  <si>
+    <t>Note - no SOD significant results</t>
+  </si>
+  <si>
+    <t>Condition Index 1</t>
+  </si>
+  <si>
+    <t>site_1</t>
+  </si>
+  <si>
+    <t>site_2</t>
+  </si>
+  <si>
+    <t>Eagle Harbor Dr</t>
+  </si>
+  <si>
+    <t>Lions Park</t>
+  </si>
+  <si>
+    <t>Edmonds Ferry</t>
+  </si>
+  <si>
+    <t>IBR biomarkers</t>
+  </si>
+  <si>
+    <t>IBR morphology</t>
+  </si>
+  <si>
+    <t>Eastsound, Fishing Bay</t>
+  </si>
+  <si>
+    <t>Chambers Bay Park</t>
+  </si>
+  <si>
+    <t>g</t>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t>Suquamish, Stormwater Outfall</t>
+  </si>
+  <si>
+    <t>de</t>
+  </si>
+  <si>
+    <t>Des Moines Marina</t>
+  </si>
+  <si>
+    <t>ade</t>
+  </si>
+  <si>
+    <t>Jamestown</t>
+  </si>
+  <si>
+    <t>fg</t>
+  </si>
+  <si>
+    <t>Gig Harbor Boat Launch</t>
+  </si>
+  <si>
+    <t>abde</t>
+  </si>
+  <si>
+    <t>Shilshole Bay</t>
+  </si>
+  <si>
+    <t>Skiff Point</t>
+  </si>
+  <si>
+    <t>Thea Foss Waterway</t>
+  </si>
+  <si>
+    <t>abcde</t>
+  </si>
+  <si>
+    <t>Minter Bay</t>
+  </si>
+  <si>
+    <t>Penn Cove Reference</t>
+  </si>
+  <si>
+    <t>cfg</t>
+  </si>
+  <si>
+    <t>Manchester, Stormwater Outfall</t>
+  </si>
+  <si>
+    <t>Purdy, Burley Lagoon</t>
+  </si>
+  <si>
+    <t>Tulalip Bay</t>
+  </si>
+  <si>
+    <t>Arroyo Beach</t>
+  </si>
+  <si>
+    <t>Chimacum Creek delta</t>
+  </si>
+  <si>
+    <t>Hood Canal Holly</t>
+  </si>
+  <si>
+    <t>bcfg</t>
+  </si>
+  <si>
+    <t>Cherry Point Aquatic Reserve, Conoco Phillips</t>
+  </si>
+  <si>
+    <t>abcdef</t>
+  </si>
+  <si>
+    <t>Raft Island Park</t>
+  </si>
+  <si>
+    <t>Broad Spit</t>
+  </si>
+  <si>
+    <t>abcdefg</t>
+  </si>
+  <si>
+    <t>Salmon Beach</t>
+  </si>
+  <si>
+    <t>Blair Waterway Two</t>
+  </si>
+  <si>
+    <t>Penrose Point State Park</t>
+  </si>
+  <si>
+    <t>Filucy Bay</t>
+  </si>
+  <si>
+    <t>Squaxin Island</t>
+  </si>
+  <si>
+    <t>Elliott Bay, Harbor Island, Pier 17</t>
+  </si>
+  <si>
+    <t>Maristone Island</t>
+  </si>
+  <si>
+    <t>abcfg</t>
+  </si>
+  <si>
+    <t>Williams Olson Park</t>
+  </si>
+  <si>
+    <t>Brackenwood Lane</t>
+  </si>
+  <si>
+    <t>Browns Point Lighthouse</t>
+  </si>
+  <si>
+    <t>Purdy, Dexters</t>
+  </si>
+  <si>
+    <t>Elliot Bay Myrtle Edwards</t>
+  </si>
+  <si>
+    <t>Seattle Aquarium, Pier 59</t>
+  </si>
+  <si>
+    <t>Commencement Bay, Milwaukee Waterway</t>
+  </si>
+  <si>
+    <t>Blair Waterway</t>
+  </si>
+  <si>
+    <t>Point Defiance Ferry</t>
+  </si>
+  <si>
+    <t>Locust Beach</t>
+  </si>
+  <si>
+    <t>Silverdale, Dyes Inlet</t>
+  </si>
+  <si>
+    <t>Port Angeles Yacht Club</t>
+  </si>
+  <si>
+    <t>Kitsap St Boat Launch</t>
+  </si>
+  <si>
+    <t>Commencement Bay, Dick Gilmur Launch</t>
+  </si>
+  <si>
+    <t>Rocky Point</t>
+  </si>
+  <si>
+    <t>N Avenue Park</t>
+  </si>
+  <si>
+    <t>Miller Creek</t>
+  </si>
+  <si>
+    <t>Eld Inlet</t>
+  </si>
+  <si>
+    <t>abcefg</t>
+  </si>
+  <si>
+    <t>Salmon Bay, Commodore Park</t>
+  </si>
+  <si>
+    <t>Three Tree Point</t>
+  </si>
+  <si>
+    <t>Aiston Preserve</t>
+  </si>
+  <si>
+    <t>Kingston Marina</t>
+  </si>
+  <si>
+    <t>Rich Passage</t>
+  </si>
+  <si>
+    <t>Madrona Pont</t>
+  </si>
+  <si>
+    <t>Discovery Bay</t>
+  </si>
+  <si>
+    <t>Chuckanut, Clark's Point</t>
+  </si>
+  <si>
+    <t>Mukilteo</t>
+  </si>
+  <si>
+    <t>IBR combined</t>
+  </si>
+  <si>
+    <t>bc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ANOVA + Tukeys </t>
+  </si>
+  <si>
+    <t>ANOVA + Tukeys</t>
+  </si>
+  <si>
+    <t>geo_cluster_1</t>
+  </si>
+  <si>
+    <t>geo_cluster_2</t>
+  </si>
+  <si>
+    <t>Global Moran's I Summary</t>
+  </si>
+  <si>
+    <t>Analyte Class</t>
+  </si>
+  <si>
+    <t>class</t>
+  </si>
+  <si>
+    <t>moran_i</t>
+  </si>
+  <si>
+    <t>expected_i</t>
+  </si>
+  <si>
+    <t>chlordane</t>
+  </si>
+  <si>
+    <t>ddt</t>
+  </si>
+  <si>
+    <t>hch</t>
+  </si>
+  <si>
+    <t>hmw</t>
+  </si>
+  <si>
+    <t>lmw</t>
+  </si>
+  <si>
+    <t>pbde</t>
+  </si>
+  <si>
+    <t>pbde_congener</t>
+  </si>
+  <si>
+    <t>pcb</t>
+  </si>
+  <si>
+    <t>pesticide</t>
+  </si>
+  <si>
+    <t>Measurements</t>
+  </si>
+  <si>
+    <t>metric</t>
+  </si>
+  <si>
+    <t>ibr1overall</t>
+  </si>
+  <si>
+    <t>ibr1bio</t>
+  </si>
+  <si>
+    <t>p450</t>
+  </si>
+  <si>
+    <t>ibr1morph</t>
+  </si>
+  <si>
+    <t>shell</t>
+  </si>
+  <si>
+    <t>ci1</t>
+  </si>
+  <si>
+    <t>ci2</t>
+  </si>
+  <si>
+    <t>ci3</t>
+  </si>
+  <si>
+    <t>sod</t>
+  </si>
+  <si>
+    <t>Metals</t>
+  </si>
+  <si>
+    <t xml:space="preserve">metal </t>
+  </si>
+  <si>
+    <t xml:space="preserve">mercury </t>
+  </si>
+  <si>
+    <t>corr_long</t>
+  </si>
+  <si>
+    <t>Note the longitudinal correlation versus global corr</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -481,6 +849,20 @@
       <color rgb="FF000000"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -516,11 +898,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="11" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1429,7 +1819,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DC38454-BABA-6748-BCE4-7657067C7BC4}">
   <dimension ref="A1:R3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
@@ -1529,6 +1919,2836 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1164540B-E78A-5C4C-B904-DC87BC623030}">
+  <dimension ref="A1:AC107"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="6" max="6" width="2.1640625" customWidth="1"/>
+    <col min="12" max="12" width="1.83203125" customWidth="1"/>
+    <col min="18" max="18" width="2" customWidth="1"/>
+    <col min="24" max="24" width="2" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B1" t="s">
+        <v>149</v>
+      </c>
+      <c r="G1" t="s">
+        <v>148</v>
+      </c>
+      <c r="M1" t="s">
+        <v>148</v>
+      </c>
+      <c r="S1" t="s">
+        <v>227</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="2" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="G2" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="M2" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2"/>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="2"/>
+      <c r="S2" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="T2" s="2"/>
+      <c r="U2" s="2"/>
+      <c r="V2" s="2"/>
+      <c r="W2" s="2"/>
+      <c r="Y2" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="Z2" s="2"/>
+      <c r="AA2" s="2"/>
+      <c r="AB2" s="2"/>
+      <c r="AC2" s="2"/>
+    </row>
+    <row r="3" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A3" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="J3" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="K3" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="M3" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="N3" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="O3" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="P3" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="Q3" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="S3" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="T3" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="U3" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="V3" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="W3" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="Y3" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="Z3" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="AA3" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="AB3" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="AC3" s="8" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>12</v>
+      </c>
+      <c r="B4">
+        <v>13</v>
+      </c>
+      <c r="C4" s="4">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="D4" t="s">
+        <v>144</v>
+      </c>
+      <c r="E4" t="s">
+        <v>145</v>
+      </c>
+      <c r="G4" t="s">
+        <v>153</v>
+      </c>
+      <c r="H4" t="s">
+        <v>154</v>
+      </c>
+      <c r="I4">
+        <v>3.1800000000000002E-2</v>
+      </c>
+      <c r="M4">
+        <v>12</v>
+      </c>
+      <c r="N4">
+        <v>13</v>
+      </c>
+      <c r="O4" s="4">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="P4" t="s">
+        <v>144</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>145</v>
+      </c>
+      <c r="S4" t="s">
+        <v>158</v>
+      </c>
+      <c r="T4" t="s">
+        <v>159</v>
+      </c>
+      <c r="U4" s="4">
+        <v>1.11170284089468E-9</v>
+      </c>
+      <c r="V4" t="s">
+        <v>160</v>
+      </c>
+      <c r="W4" t="s">
+        <v>161</v>
+      </c>
+      <c r="Y4" s="3">
+        <v>11</v>
+      </c>
+      <c r="Z4" s="3">
+        <v>10</v>
+      </c>
+      <c r="AA4" s="3">
+        <v>1.08759E-3</v>
+      </c>
+      <c r="AB4" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="AC4" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>12</v>
+      </c>
+      <c r="B5">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="C5" s="4">
+        <v>5.9999999999999995E-4</v>
+      </c>
+      <c r="D5" t="s">
+        <v>144</v>
+      </c>
+      <c r="E5" t="s">
+        <v>145</v>
+      </c>
+      <c r="G5" t="s">
+        <v>155</v>
+      </c>
+      <c r="H5" t="s">
+        <v>154</v>
+      </c>
+      <c r="I5">
+        <v>4.9000000000000002E-2</v>
+      </c>
+      <c r="M5">
+        <v>12</v>
+      </c>
+      <c r="N5">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="O5">
+        <v>1.1000000000000001E-3</v>
+      </c>
+      <c r="P5" t="s">
+        <v>144</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>146</v>
+      </c>
+      <c r="S5" t="s">
+        <v>162</v>
+      </c>
+      <c r="T5" t="s">
+        <v>158</v>
+      </c>
+      <c r="U5" s="4">
+        <v>1.8098114451525799E-8</v>
+      </c>
+      <c r="V5" t="s">
+        <v>163</v>
+      </c>
+      <c r="W5" t="s">
+        <v>160</v>
+      </c>
+      <c r="Y5" s="3">
+        <v>12</v>
+      </c>
+      <c r="Z5" s="3">
+        <v>11</v>
+      </c>
+      <c r="AA5" s="3">
+        <v>3.3052799999999999E-3</v>
+      </c>
+      <c r="AB5" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="AC5" s="3" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>11</v>
+      </c>
+      <c r="B6">
+        <v>12</v>
+      </c>
+      <c r="C6">
+        <v>2.2000000000000001E-3</v>
+      </c>
+      <c r="D6" t="s">
+        <v>146</v>
+      </c>
+      <c r="E6" t="s">
+        <v>144</v>
+      </c>
+      <c r="M6">
+        <v>11</v>
+      </c>
+      <c r="N6">
+        <v>12</v>
+      </c>
+      <c r="O6">
+        <v>1.5E-3</v>
+      </c>
+      <c r="P6" t="s">
+        <v>146</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>144</v>
+      </c>
+      <c r="S6" t="s">
+        <v>158</v>
+      </c>
+      <c r="T6" t="s">
+        <v>164</v>
+      </c>
+      <c r="U6" s="4">
+        <v>1.3669200882304701E-7</v>
+      </c>
+      <c r="V6" t="s">
+        <v>160</v>
+      </c>
+      <c r="W6" t="s">
+        <v>165</v>
+      </c>
+      <c r="Y6" s="3">
+        <v>11</v>
+      </c>
+      <c r="Z6" s="3">
+        <v>7</v>
+      </c>
+      <c r="AA6" s="3">
+        <v>3.79701E-3</v>
+      </c>
+      <c r="AB6" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="AC6" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>10</v>
+      </c>
+      <c r="B7">
+        <v>13</v>
+      </c>
+      <c r="C7">
+        <v>2.7000000000000001E-3</v>
+      </c>
+      <c r="D7" t="s">
+        <v>147</v>
+      </c>
+      <c r="E7" t="s">
+        <v>145</v>
+      </c>
+      <c r="M7">
+        <v>10</v>
+      </c>
+      <c r="N7">
+        <v>13</v>
+      </c>
+      <c r="O7">
+        <v>1.67E-2</v>
+      </c>
+      <c r="P7" t="s">
+        <v>147</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>145</v>
+      </c>
+      <c r="S7" t="s">
+        <v>166</v>
+      </c>
+      <c r="T7" t="s">
+        <v>159</v>
+      </c>
+      <c r="U7" s="4">
+        <v>1.4735145625888201E-7</v>
+      </c>
+      <c r="V7" t="s">
+        <v>167</v>
+      </c>
+      <c r="W7" t="s">
+        <v>161</v>
+      </c>
+      <c r="Y7" s="3">
+        <v>11</v>
+      </c>
+      <c r="Z7" s="3">
+        <v>6</v>
+      </c>
+      <c r="AA7" s="3">
+        <v>9.0221999999999993E-3</v>
+      </c>
+      <c r="AB7" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="AC7" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>13</v>
+      </c>
+      <c r="B8">
+        <v>7</v>
+      </c>
+      <c r="C8">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="D8" t="s">
+        <v>145</v>
+      </c>
+      <c r="E8" t="s">
+        <v>147</v>
+      </c>
+      <c r="M8">
+        <v>10</v>
+      </c>
+      <c r="N8">
+        <v>12</v>
+      </c>
+      <c r="O8">
+        <v>1.6799999999999999E-2</v>
+      </c>
+      <c r="P8" t="s">
+        <v>147</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>144</v>
+      </c>
+      <c r="S8" t="s">
+        <v>168</v>
+      </c>
+      <c r="T8" t="s">
+        <v>158</v>
+      </c>
+      <c r="U8" s="4">
+        <v>1.27025597673747E-6</v>
+      </c>
+      <c r="V8" t="s">
+        <v>169</v>
+      </c>
+      <c r="W8" t="s">
+        <v>160</v>
+      </c>
+      <c r="Y8" s="3">
+        <v>13</v>
+      </c>
+      <c r="Z8" s="3">
+        <v>12</v>
+      </c>
+      <c r="AA8" s="3">
+        <v>2.7012109999999999E-2</v>
+      </c>
+      <c r="AB8" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="AC8" s="3" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>10</v>
+      </c>
+      <c r="B9">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="C9">
+        <v>2.7400000000000001E-2</v>
+      </c>
+      <c r="D9" t="s">
+        <v>147</v>
+      </c>
+      <c r="E9" t="s">
+        <v>145</v>
+      </c>
+      <c r="M9">
+        <v>12</v>
+      </c>
+      <c r="N9">
+        <v>7</v>
+      </c>
+      <c r="O9">
+        <v>2.7400000000000001E-2</v>
+      </c>
+      <c r="P9" t="s">
+        <v>144</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>147</v>
+      </c>
+      <c r="S9" t="s">
+        <v>170</v>
+      </c>
+      <c r="T9" t="s">
+        <v>159</v>
+      </c>
+      <c r="U9" s="4">
+        <v>1.2702559769595099E-6</v>
+      </c>
+      <c r="V9" t="s">
+        <v>167</v>
+      </c>
+      <c r="W9" t="s">
+        <v>161</v>
+      </c>
+      <c r="Y9" s="3">
+        <v>11</v>
+      </c>
+      <c r="Z9" s="3">
+        <v>8.1</v>
+      </c>
+      <c r="AA9" s="3">
+        <v>3.3340689999999999E-2</v>
+      </c>
+      <c r="AB9" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="AC9" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>12</v>
+      </c>
+      <c r="B10">
+        <v>9</v>
+      </c>
+      <c r="C10">
+        <v>3.1399999999999997E-2</v>
+      </c>
+      <c r="D10" t="s">
+        <v>144</v>
+      </c>
+      <c r="E10" t="s">
+        <v>146</v>
+      </c>
+      <c r="M10">
+        <v>13</v>
+      </c>
+      <c r="N10">
+        <v>7</v>
+      </c>
+      <c r="O10">
+        <v>2.92E-2</v>
+      </c>
+      <c r="P10" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>147</v>
+      </c>
+      <c r="S10" t="s">
+        <v>171</v>
+      </c>
+      <c r="T10" t="s">
+        <v>159</v>
+      </c>
+      <c r="U10" s="4">
+        <v>1.5231958298000901E-6</v>
+      </c>
+      <c r="V10" t="s">
+        <v>167</v>
+      </c>
+      <c r="W10" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>12</v>
+      </c>
+      <c r="C11">
+        <v>3.3099999999999997E-2</v>
+      </c>
+      <c r="D11" t="s">
+        <v>147</v>
+      </c>
+      <c r="E11" t="s">
+        <v>144</v>
+      </c>
+      <c r="M11">
+        <v>12</v>
+      </c>
+      <c r="N11">
+        <v>9</v>
+      </c>
+      <c r="O11">
+        <v>2.9899999999999999E-2</v>
+      </c>
+      <c r="P11" t="s">
+        <v>144</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>146</v>
+      </c>
+      <c r="S11" t="s">
+        <v>162</v>
+      </c>
+      <c r="T11" t="s">
+        <v>166</v>
+      </c>
+      <c r="U11" s="4">
+        <v>2.4933619541256399E-6</v>
+      </c>
+      <c r="V11" t="s">
+        <v>163</v>
+      </c>
+      <c r="W11" t="s">
+        <v>167</v>
+      </c>
+      <c r="Y11" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="Z11" s="8" t="s">
+        <v>230</v>
+      </c>
+      <c r="AA11" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="AB11" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="AC11" s="8" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>12</v>
+      </c>
+      <c r="B12">
+        <v>7</v>
+      </c>
+      <c r="C12">
+        <v>4.02E-2</v>
+      </c>
+      <c r="D12" t="s">
+        <v>144</v>
+      </c>
+      <c r="E12" t="s">
+        <v>147</v>
+      </c>
+      <c r="M12">
+        <v>12</v>
+      </c>
+      <c r="N12">
+        <v>6</v>
+      </c>
+      <c r="O12">
+        <v>3.7400000000000003E-2</v>
+      </c>
+      <c r="P12" t="s">
+        <v>144</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>146</v>
+      </c>
+      <c r="S12" t="s">
+        <v>162</v>
+      </c>
+      <c r="T12" t="s">
+        <v>170</v>
+      </c>
+      <c r="U12" s="4">
+        <v>1.51575491591505E-5</v>
+      </c>
+      <c r="V12" t="s">
+        <v>163</v>
+      </c>
+      <c r="W12" t="s">
+        <v>167</v>
+      </c>
+      <c r="Y12">
+        <v>4</v>
+      </c>
+      <c r="Z12">
+        <v>1</v>
+      </c>
+      <c r="AA12" s="4">
+        <v>5.6344151406762E-6</v>
+      </c>
+      <c r="AB12" t="s">
+        <v>147</v>
+      </c>
+      <c r="AC12" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>6</v>
+      </c>
+      <c r="C13">
+        <v>4.1799999999999997E-2</v>
+      </c>
+      <c r="D13" t="s">
+        <v>144</v>
+      </c>
+      <c r="E13" t="s">
+        <v>146</v>
+      </c>
+      <c r="S13" t="s">
+        <v>162</v>
+      </c>
+      <c r="T13" t="s">
+        <v>171</v>
+      </c>
+      <c r="U13" s="4">
+        <v>1.7996393042785101E-5</v>
+      </c>
+      <c r="V13" t="s">
+        <v>163</v>
+      </c>
+      <c r="W13" t="s">
+        <v>167</v>
+      </c>
+      <c r="Y13">
+        <v>5</v>
+      </c>
+      <c r="Z13">
+        <v>1</v>
+      </c>
+      <c r="AA13" s="4">
+        <v>9.2330487887703997E-5</v>
+      </c>
+      <c r="AB13" t="s">
+        <v>147</v>
+      </c>
+      <c r="AC13" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>7</v>
+      </c>
+      <c r="B14">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="C14">
+        <v>4.2900000000000001E-2</v>
+      </c>
+      <c r="D14" t="s">
+        <v>147</v>
+      </c>
+      <c r="E14" t="s">
+        <v>145</v>
+      </c>
+      <c r="M14" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="N14" s="8" t="s">
+        <v>230</v>
+      </c>
+      <c r="O14" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="P14" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="Q14" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="S14" t="s">
+        <v>166</v>
+      </c>
+      <c r="T14" t="s">
+        <v>164</v>
+      </c>
+      <c r="U14" s="4">
+        <v>1.87349634145351E-5</v>
+      </c>
+      <c r="V14" t="s">
+        <v>167</v>
+      </c>
+      <c r="W14" t="s">
+        <v>165</v>
+      </c>
+      <c r="Y14">
+        <v>6</v>
+      </c>
+      <c r="Z14">
+        <v>1</v>
+      </c>
+      <c r="AA14">
+        <v>1.9981706250138401E-4</v>
+      </c>
+      <c r="AB14" t="s">
+        <v>147</v>
+      </c>
+      <c r="AC14" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="M15">
+        <v>3</v>
+      </c>
+      <c r="N15">
+        <v>4</v>
+      </c>
+      <c r="O15">
+        <v>1.26E-2</v>
+      </c>
+      <c r="P15" t="s">
+        <v>147</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>144</v>
+      </c>
+      <c r="S15" t="s">
+        <v>172</v>
+      </c>
+      <c r="T15" t="s">
+        <v>158</v>
+      </c>
+      <c r="U15" s="4">
+        <v>2.92453696609796E-5</v>
+      </c>
+      <c r="V15" t="s">
+        <v>173</v>
+      </c>
+      <c r="W15" t="s">
+        <v>160</v>
+      </c>
+      <c r="Y15">
+        <v>2</v>
+      </c>
+      <c r="Z15">
+        <v>1</v>
+      </c>
+      <c r="AA15">
+        <v>1.06200416421028E-2</v>
+      </c>
+      <c r="AB15" t="s">
+        <v>147</v>
+      </c>
+      <c r="AC15" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A16" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>230</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="M16">
+        <v>2</v>
+      </c>
+      <c r="N16">
+        <v>4</v>
+      </c>
+      <c r="O16">
+        <v>1.9099999999999999E-2</v>
+      </c>
+      <c r="P16" t="s">
+        <v>146</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>144</v>
+      </c>
+      <c r="S16" t="s">
+        <v>174</v>
+      </c>
+      <c r="T16" t="s">
+        <v>158</v>
+      </c>
+      <c r="U16" s="4">
+        <v>3.5487911469234101E-5</v>
+      </c>
+      <c r="V16" t="s">
+        <v>173</v>
+      </c>
+      <c r="W16" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>3</v>
+      </c>
+      <c r="B17">
+        <v>4</v>
+      </c>
+      <c r="C17" s="4">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="D17" t="s">
+        <v>147</v>
+      </c>
+      <c r="E17" t="s">
+        <v>144</v>
+      </c>
+      <c r="M17">
+        <v>1</v>
+      </c>
+      <c r="N17">
+        <v>4</v>
+      </c>
+      <c r="O17">
+        <v>3.0499999999999999E-2</v>
+      </c>
+      <c r="P17" t="s">
+        <v>146</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>144</v>
+      </c>
+      <c r="S17" t="s">
+        <v>175</v>
+      </c>
+      <c r="T17" t="s">
+        <v>159</v>
+      </c>
+      <c r="U17" s="4">
+        <v>4.1971514050498398E-5</v>
+      </c>
+      <c r="V17" t="s">
+        <v>176</v>
+      </c>
+      <c r="W17" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>3</v>
+      </c>
+      <c r="B18">
+        <v>5</v>
+      </c>
+      <c r="C18">
+        <v>1.6000000000000001E-3</v>
+      </c>
+      <c r="D18" t="s">
+        <v>147</v>
+      </c>
+      <c r="E18" t="s">
+        <v>226</v>
+      </c>
+      <c r="M18">
+        <v>3</v>
+      </c>
+      <c r="N18">
+        <v>5</v>
+      </c>
+      <c r="O18">
+        <v>3.09E-2</v>
+      </c>
+      <c r="P18" t="s">
+        <v>147</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>226</v>
+      </c>
+      <c r="S18" t="s">
+        <v>177</v>
+      </c>
+      <c r="T18" t="s">
+        <v>159</v>
+      </c>
+      <c r="U18" s="4">
+        <v>4.1971514050720402E-5</v>
+      </c>
+      <c r="V18" t="s">
+        <v>176</v>
+      </c>
+      <c r="W18" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>2</v>
+      </c>
+      <c r="B19">
+        <v>4</v>
+      </c>
+      <c r="C19">
+        <v>4.7999999999999996E-3</v>
+      </c>
+      <c r="D19" t="s">
+        <v>147</v>
+      </c>
+      <c r="E19" t="s">
+        <v>144</v>
+      </c>
+      <c r="M19">
+        <v>3</v>
+      </c>
+      <c r="N19">
+        <v>6</v>
+      </c>
+      <c r="O19">
+        <v>4.0500000000000001E-2</v>
+      </c>
+      <c r="P19" t="s">
+        <v>147</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>226</v>
+      </c>
+      <c r="S19" t="s">
+        <v>178</v>
+      </c>
+      <c r="T19" t="s">
+        <v>158</v>
+      </c>
+      <c r="U19" s="4">
+        <v>4.1971514178063003E-5</v>
+      </c>
+      <c r="V19" t="s">
+        <v>173</v>
+      </c>
+      <c r="W19" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>3</v>
+      </c>
+      <c r="B20">
+        <v>6</v>
+      </c>
+      <c r="C20">
+        <v>4.7999999999999996E-3</v>
+      </c>
+      <c r="D20" t="s">
+        <v>147</v>
+      </c>
+      <c r="E20" t="s">
+        <v>226</v>
+      </c>
+      <c r="S20" t="s">
+        <v>179</v>
+      </c>
+      <c r="T20" t="s">
+        <v>158</v>
+      </c>
+      <c r="U20" s="4">
+        <v>4.72760023618735E-5</v>
+      </c>
+      <c r="V20" t="s">
+        <v>173</v>
+      </c>
+      <c r="W20" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>1</v>
+      </c>
+      <c r="B21">
+        <v>4</v>
+      </c>
+      <c r="C21">
+        <v>1.34E-2</v>
+      </c>
+      <c r="D21" t="s">
+        <v>146</v>
+      </c>
+      <c r="E21" t="s">
+        <v>144</v>
+      </c>
+      <c r="M21" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="N21" s="2"/>
+      <c r="O21" s="2"/>
+      <c r="P21" s="2"/>
+      <c r="Q21" s="2"/>
+      <c r="S21" t="s">
+        <v>158</v>
+      </c>
+      <c r="T21" t="s">
+        <v>180</v>
+      </c>
+      <c r="U21" s="4">
+        <v>6.4023026579040896E-5</v>
+      </c>
+      <c r="V21" t="s">
+        <v>160</v>
+      </c>
+      <c r="W21" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>2</v>
+      </c>
+      <c r="B22">
+        <v>5</v>
+      </c>
+      <c r="C22">
+        <v>1.4800000000000001E-2</v>
+      </c>
+      <c r="D22" t="s">
+        <v>147</v>
+      </c>
+      <c r="E22" t="s">
+        <v>226</v>
+      </c>
+      <c r="M22" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="N22" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="O22" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="P22" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="Q22" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="S22" t="s">
+        <v>170</v>
+      </c>
+      <c r="T22" t="s">
+        <v>164</v>
+      </c>
+      <c r="U22" s="4">
+        <v>8.8418687683500306E-5</v>
+      </c>
+      <c r="V22" t="s">
+        <v>167</v>
+      </c>
+      <c r="W22" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>2</v>
+      </c>
+      <c r="B23">
+        <v>6</v>
+      </c>
+      <c r="C23">
+        <v>4.8399999999999999E-2</v>
+      </c>
+      <c r="D23" t="s">
+        <v>147</v>
+      </c>
+      <c r="E23" t="s">
+        <v>226</v>
+      </c>
+      <c r="M23">
+        <v>11</v>
+      </c>
+      <c r="N23">
+        <v>7</v>
+      </c>
+      <c r="O23">
+        <v>2.5899999999999999E-2</v>
+      </c>
+      <c r="P23" t="s">
+        <v>147</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>145</v>
+      </c>
+      <c r="S23" t="s">
+        <v>158</v>
+      </c>
+      <c r="T23" t="s">
+        <v>181</v>
+      </c>
+      <c r="U23" s="4">
+        <v>8.8418688075964105E-5</v>
+      </c>
+      <c r="V23" t="s">
+        <v>160</v>
+      </c>
+      <c r="W23" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="M24">
+        <v>13</v>
+      </c>
+      <c r="N24">
+        <v>7</v>
+      </c>
+      <c r="O24">
+        <v>2.6700000000000002E-2</v>
+      </c>
+      <c r="P24" t="s">
+        <v>147</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>145</v>
+      </c>
+      <c r="S24" t="s">
+        <v>171</v>
+      </c>
+      <c r="T24" t="s">
+        <v>164</v>
+      </c>
+      <c r="U24">
+        <v>1.04103425343727E-4</v>
+      </c>
+      <c r="V24" t="s">
+        <v>167</v>
+      </c>
+      <c r="W24" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="S25" t="s">
+        <v>166</v>
+      </c>
+      <c r="T25" t="s">
+        <v>168</v>
+      </c>
+      <c r="U25">
+        <v>1.65831566107499E-4</v>
+      </c>
+      <c r="V25" t="s">
+        <v>167</v>
+      </c>
+      <c r="W25" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="M26" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="N26" s="8" t="s">
+        <v>230</v>
+      </c>
+      <c r="O26" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="P26" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="Q26" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="S26" t="s">
+        <v>158</v>
+      </c>
+      <c r="T26" t="s">
+        <v>153</v>
+      </c>
+      <c r="U26">
+        <v>1.83132698287181E-4</v>
+      </c>
+      <c r="V26" t="s">
+        <v>160</v>
+      </c>
+      <c r="W26" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="M27">
+        <v>1</v>
+      </c>
+      <c r="N27">
+        <v>6</v>
+      </c>
+      <c r="O27">
+        <v>9.4999999999999998E-3</v>
+      </c>
+      <c r="P27" t="s">
+        <v>147</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>145</v>
+      </c>
+      <c r="S27" t="s">
+        <v>182</v>
+      </c>
+      <c r="T27" t="s">
+        <v>159</v>
+      </c>
+      <c r="U27">
+        <v>3.8288649192885798E-4</v>
+      </c>
+      <c r="V27" t="s">
+        <v>183</v>
+      </c>
+      <c r="W27" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="M28">
+        <v>2</v>
+      </c>
+      <c r="N28">
+        <v>6</v>
+      </c>
+      <c r="O28">
+        <v>1.2699999999999999E-2</v>
+      </c>
+      <c r="P28" t="s">
+        <v>147</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>145</v>
+      </c>
+      <c r="S28" t="s">
+        <v>162</v>
+      </c>
+      <c r="T28" t="s">
+        <v>175</v>
+      </c>
+      <c r="U28">
+        <v>4.02736125371006E-4</v>
+      </c>
+      <c r="V28" t="s">
+        <v>163</v>
+      </c>
+      <c r="W28" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="M29">
+        <v>5</v>
+      </c>
+      <c r="N29">
+        <v>6</v>
+      </c>
+      <c r="O29">
+        <v>4.9299999999999997E-2</v>
+      </c>
+      <c r="P29" t="s">
+        <v>147</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>145</v>
+      </c>
+      <c r="S29" t="s">
+        <v>162</v>
+      </c>
+      <c r="T29" t="s">
+        <v>177</v>
+      </c>
+      <c r="U29">
+        <v>4.0273612537111703E-4</v>
+      </c>
+      <c r="V29" t="s">
+        <v>163</v>
+      </c>
+      <c r="W29" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="S30" t="s">
+        <v>170</v>
+      </c>
+      <c r="T30" t="s">
+        <v>168</v>
+      </c>
+      <c r="U30">
+        <v>5.9208322503467902E-4</v>
+      </c>
+      <c r="V30" t="s">
+        <v>167</v>
+      </c>
+      <c r="W30" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="31" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="M31" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="N31" s="2"/>
+      <c r="O31" s="2"/>
+      <c r="P31" s="2"/>
+      <c r="Q31" s="2"/>
+      <c r="S31" t="s">
+        <v>171</v>
+      </c>
+      <c r="T31" t="s">
+        <v>168</v>
+      </c>
+      <c r="U31">
+        <v>6.8960471787038501E-4</v>
+      </c>
+      <c r="V31" t="s">
+        <v>167</v>
+      </c>
+      <c r="W31" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="32" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="M32" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="N32" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="O32" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="P32" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="Q32" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="S32" t="s">
+        <v>158</v>
+      </c>
+      <c r="T32" t="s">
+        <v>184</v>
+      </c>
+      <c r="U32">
+        <v>8.0240597463954199E-4</v>
+      </c>
+      <c r="V32" t="s">
+        <v>160</v>
+      </c>
+      <c r="W32" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="33" spans="13:23" x14ac:dyDescent="0.2">
+      <c r="M33">
+        <v>13</v>
+      </c>
+      <c r="N33">
+        <v>7</v>
+      </c>
+      <c r="O33">
+        <v>1.2999999999999999E-3</v>
+      </c>
+      <c r="P33" t="s">
+        <v>147</v>
+      </c>
+      <c r="Q33" t="s">
+        <v>145</v>
+      </c>
+      <c r="S33" t="s">
+        <v>186</v>
+      </c>
+      <c r="T33" t="s">
+        <v>159</v>
+      </c>
+      <c r="U33">
+        <v>8.6522806239064398E-4</v>
+      </c>
+      <c r="V33" t="s">
+        <v>183</v>
+      </c>
+      <c r="W33" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="34" spans="13:23" x14ac:dyDescent="0.2">
+      <c r="M34">
+        <v>11</v>
+      </c>
+      <c r="N34">
+        <v>7</v>
+      </c>
+      <c r="O34">
+        <v>1.5699999999999999E-2</v>
+      </c>
+      <c r="P34" t="s">
+        <v>147</v>
+      </c>
+      <c r="Q34" t="s">
+        <v>145</v>
+      </c>
+      <c r="S34" t="s">
+        <v>159</v>
+      </c>
+      <c r="T34" t="s">
+        <v>187</v>
+      </c>
+      <c r="U34">
+        <v>8.7328633276906298E-4</v>
+      </c>
+      <c r="V34" t="s">
+        <v>161</v>
+      </c>
+      <c r="W34" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="35" spans="13:23" x14ac:dyDescent="0.2">
+      <c r="S35" t="s">
+        <v>189</v>
+      </c>
+      <c r="T35" t="s">
+        <v>158</v>
+      </c>
+      <c r="U35">
+        <v>1.0831522205368999E-3</v>
+      </c>
+      <c r="V35" t="s">
+        <v>185</v>
+      </c>
+      <c r="W35" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="36" spans="13:23" x14ac:dyDescent="0.2">
+      <c r="M36" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="N36" s="8" t="s">
+        <v>230</v>
+      </c>
+      <c r="O36" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="P36" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="Q36" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="S36" t="s">
+        <v>158</v>
+      </c>
+      <c r="T36" t="s">
+        <v>190</v>
+      </c>
+      <c r="U36">
+        <v>1.56702634865014E-3</v>
+      </c>
+      <c r="V36" t="s">
+        <v>160</v>
+      </c>
+      <c r="W36" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="37" spans="13:23" x14ac:dyDescent="0.2">
+      <c r="M37">
+        <v>2</v>
+      </c>
+      <c r="N37">
+        <v>6</v>
+      </c>
+      <c r="O37">
+        <v>4.4999999999999997E-3</v>
+      </c>
+      <c r="P37" t="s">
+        <v>147</v>
+      </c>
+      <c r="Q37" t="s">
+        <v>145</v>
+      </c>
+      <c r="S37" t="s">
+        <v>191</v>
+      </c>
+      <c r="T37" t="s">
+        <v>158</v>
+      </c>
+      <c r="U37">
+        <v>1.56702634968864E-3</v>
+      </c>
+      <c r="V37" t="s">
+        <v>185</v>
+      </c>
+      <c r="W37" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="38" spans="13:23" x14ac:dyDescent="0.2">
+      <c r="M38">
+        <v>1</v>
+      </c>
+      <c r="N38">
+        <v>6</v>
+      </c>
+      <c r="O38">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="P38" t="s">
+        <v>147</v>
+      </c>
+      <c r="Q38" t="s">
+        <v>145</v>
+      </c>
+      <c r="S38" t="s">
+        <v>192</v>
+      </c>
+      <c r="T38" t="s">
+        <v>158</v>
+      </c>
+      <c r="U38">
+        <v>1.68583571024561E-3</v>
+      </c>
+      <c r="V38" t="s">
+        <v>185</v>
+      </c>
+      <c r="W38" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="39" spans="13:23" x14ac:dyDescent="0.2">
+      <c r="M39" s="5"/>
+      <c r="N39" s="5"/>
+      <c r="O39" s="5"/>
+      <c r="P39" s="5"/>
+      <c r="Q39" s="5"/>
+      <c r="S39" t="s">
+        <v>193</v>
+      </c>
+      <c r="T39" t="s">
+        <v>158</v>
+      </c>
+      <c r="U39">
+        <v>1.6858357113544999E-3</v>
+      </c>
+      <c r="V39" t="s">
+        <v>185</v>
+      </c>
+      <c r="W39" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="40" spans="13:23" x14ac:dyDescent="0.2">
+      <c r="S40" t="s">
+        <v>194</v>
+      </c>
+      <c r="T40" t="s">
+        <v>158</v>
+      </c>
+      <c r="U40">
+        <v>1.6858357124656101E-3</v>
+      </c>
+      <c r="V40" t="s">
+        <v>185</v>
+      </c>
+      <c r="W40" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="41" spans="13:23" x14ac:dyDescent="0.2">
+      <c r="S41" t="s">
+        <v>195</v>
+      </c>
+      <c r="T41" t="s">
+        <v>159</v>
+      </c>
+      <c r="U41">
+        <v>1.69419911751811E-3</v>
+      </c>
+      <c r="V41" t="s">
+        <v>196</v>
+      </c>
+      <c r="W41" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="42" spans="13:23" x14ac:dyDescent="0.2">
+      <c r="S42" t="s">
+        <v>177</v>
+      </c>
+      <c r="T42" t="s">
+        <v>164</v>
+      </c>
+      <c r="U42">
+        <v>1.9496136349282901E-3</v>
+      </c>
+      <c r="V42" t="s">
+        <v>176</v>
+      </c>
+      <c r="W42" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="43" spans="13:23" x14ac:dyDescent="0.2">
+      <c r="S43" t="s">
+        <v>175</v>
+      </c>
+      <c r="T43" t="s">
+        <v>164</v>
+      </c>
+      <c r="U43">
+        <v>1.9496136349296299E-3</v>
+      </c>
+      <c r="V43" t="s">
+        <v>176</v>
+      </c>
+      <c r="W43" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="44" spans="13:23" x14ac:dyDescent="0.2">
+      <c r="S44" t="s">
+        <v>197</v>
+      </c>
+      <c r="T44" t="s">
+        <v>159</v>
+      </c>
+      <c r="U44">
+        <v>2.4197750131560399E-3</v>
+      </c>
+      <c r="V44" t="s">
+        <v>196</v>
+      </c>
+      <c r="W44" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="45" spans="13:23" x14ac:dyDescent="0.2">
+      <c r="S45" t="s">
+        <v>159</v>
+      </c>
+      <c r="T45" t="s">
+        <v>198</v>
+      </c>
+      <c r="U45">
+        <v>2.41977501315738E-3</v>
+      </c>
+      <c r="V45" t="s">
+        <v>161</v>
+      </c>
+      <c r="W45" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="46" spans="13:23" x14ac:dyDescent="0.2">
+      <c r="S46" t="s">
+        <v>158</v>
+      </c>
+      <c r="T46" t="s">
+        <v>199</v>
+      </c>
+      <c r="U46">
+        <v>2.59904762547436E-3</v>
+      </c>
+      <c r="V46" t="s">
+        <v>160</v>
+      </c>
+      <c r="W46" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="47" spans="13:23" x14ac:dyDescent="0.2">
+      <c r="S47" t="s">
+        <v>200</v>
+      </c>
+      <c r="T47" t="s">
+        <v>158</v>
+      </c>
+      <c r="U47">
+        <v>3.4495893648821599E-3</v>
+      </c>
+      <c r="V47" t="s">
+        <v>185</v>
+      </c>
+      <c r="W47" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="48" spans="13:23" x14ac:dyDescent="0.2">
+      <c r="S48" t="s">
+        <v>201</v>
+      </c>
+      <c r="T48" t="s">
+        <v>158</v>
+      </c>
+      <c r="U48">
+        <v>3.51424901660913E-3</v>
+      </c>
+      <c r="V48" t="s">
+        <v>185</v>
+      </c>
+      <c r="W48" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="49" spans="19:23" x14ac:dyDescent="0.2">
+      <c r="S49" t="s">
+        <v>172</v>
+      </c>
+      <c r="T49" t="s">
+        <v>166</v>
+      </c>
+      <c r="U49">
+        <v>3.6056641560834302E-3</v>
+      </c>
+      <c r="V49" t="s">
+        <v>173</v>
+      </c>
+      <c r="W49" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="50" spans="19:23" x14ac:dyDescent="0.2">
+      <c r="S50" t="s">
+        <v>202</v>
+      </c>
+      <c r="T50" t="s">
+        <v>158</v>
+      </c>
+      <c r="U50">
+        <v>3.6999882041188802E-3</v>
+      </c>
+      <c r="V50" t="s">
+        <v>185</v>
+      </c>
+      <c r="W50" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="51" spans="19:23" x14ac:dyDescent="0.2">
+      <c r="S51" t="s">
+        <v>162</v>
+      </c>
+      <c r="T51" t="s">
+        <v>182</v>
+      </c>
+      <c r="U51">
+        <v>3.70576165320902E-3</v>
+      </c>
+      <c r="V51" t="s">
+        <v>163</v>
+      </c>
+      <c r="W51" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="52" spans="19:23" x14ac:dyDescent="0.2">
+      <c r="S52" t="s">
+        <v>174</v>
+      </c>
+      <c r="T52" t="s">
+        <v>166</v>
+      </c>
+      <c r="U52">
+        <v>3.8015277646730201E-3</v>
+      </c>
+      <c r="V52" t="s">
+        <v>173</v>
+      </c>
+      <c r="W52" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="53" spans="19:23" x14ac:dyDescent="0.2">
+      <c r="S53" t="s">
+        <v>158</v>
+      </c>
+      <c r="T53" t="s">
+        <v>203</v>
+      </c>
+      <c r="U53">
+        <v>4.1927511450138297E-3</v>
+      </c>
+      <c r="V53" t="s">
+        <v>160</v>
+      </c>
+      <c r="W53" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="54" spans="19:23" x14ac:dyDescent="0.2">
+      <c r="S54" t="s">
+        <v>178</v>
+      </c>
+      <c r="T54" t="s">
+        <v>166</v>
+      </c>
+      <c r="U54">
+        <v>4.4268281728420096E-3</v>
+      </c>
+      <c r="V54" t="s">
+        <v>173</v>
+      </c>
+      <c r="W54" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="55" spans="19:23" x14ac:dyDescent="0.2">
+      <c r="S55" t="s">
+        <v>158</v>
+      </c>
+      <c r="T55" t="s">
+        <v>204</v>
+      </c>
+      <c r="U55">
+        <v>4.5577636859716001E-3</v>
+      </c>
+      <c r="V55" t="s">
+        <v>160</v>
+      </c>
+      <c r="W55" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="56" spans="19:23" x14ac:dyDescent="0.2">
+      <c r="S56" t="s">
+        <v>205</v>
+      </c>
+      <c r="T56" t="s">
+        <v>158</v>
+      </c>
+      <c r="U56">
+        <v>4.5577636916573896E-3</v>
+      </c>
+      <c r="V56" t="s">
+        <v>185</v>
+      </c>
+      <c r="W56" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="57" spans="19:23" x14ac:dyDescent="0.2">
+      <c r="S57" t="s">
+        <v>162</v>
+      </c>
+      <c r="T57" t="s">
+        <v>187</v>
+      </c>
+      <c r="U57">
+        <v>5.61732492768241E-3</v>
+      </c>
+      <c r="V57" t="s">
+        <v>163</v>
+      </c>
+      <c r="W57" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="58" spans="19:23" x14ac:dyDescent="0.2">
+      <c r="S58" t="s">
+        <v>206</v>
+      </c>
+      <c r="T58" t="s">
+        <v>159</v>
+      </c>
+      <c r="U58">
+        <v>5.9938782066703E-3</v>
+      </c>
+      <c r="V58" t="s">
+        <v>196</v>
+      </c>
+      <c r="W58" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="59" spans="19:23" x14ac:dyDescent="0.2">
+      <c r="S59" t="s">
+        <v>207</v>
+      </c>
+      <c r="T59" t="s">
+        <v>159</v>
+      </c>
+      <c r="U59">
+        <v>5.9938782103459197E-3</v>
+      </c>
+      <c r="V59" t="s">
+        <v>196</v>
+      </c>
+      <c r="W59" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="60" spans="19:23" x14ac:dyDescent="0.2">
+      <c r="S60" t="s">
+        <v>179</v>
+      </c>
+      <c r="T60" t="s">
+        <v>166</v>
+      </c>
+      <c r="U60">
+        <v>6.0942299975218503E-3</v>
+      </c>
+      <c r="V60" t="s">
+        <v>173</v>
+      </c>
+      <c r="W60" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="61" spans="19:23" x14ac:dyDescent="0.2">
+      <c r="S61" t="s">
+        <v>208</v>
+      </c>
+      <c r="T61" t="s">
+        <v>158</v>
+      </c>
+      <c r="U61">
+        <v>6.2810215492624701E-3</v>
+      </c>
+      <c r="V61" t="s">
+        <v>185</v>
+      </c>
+      <c r="W61" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="62" spans="19:23" x14ac:dyDescent="0.2">
+      <c r="S62" t="s">
+        <v>209</v>
+      </c>
+      <c r="T62" t="s">
+        <v>158</v>
+      </c>
+      <c r="U62">
+        <v>6.4139077573951396E-3</v>
+      </c>
+      <c r="V62" t="s">
+        <v>185</v>
+      </c>
+      <c r="W62" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="63" spans="19:23" x14ac:dyDescent="0.2">
+      <c r="S63" t="s">
+        <v>158</v>
+      </c>
+      <c r="T63" t="s">
+        <v>210</v>
+      </c>
+      <c r="U63">
+        <v>6.4139077573956999E-3</v>
+      </c>
+      <c r="V63" t="s">
+        <v>160</v>
+      </c>
+      <c r="W63" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="64" spans="19:23" x14ac:dyDescent="0.2">
+      <c r="S64" t="s">
+        <v>211</v>
+      </c>
+      <c r="T64" t="s">
+        <v>159</v>
+      </c>
+      <c r="U64">
+        <v>6.4139077613091199E-3</v>
+      </c>
+      <c r="V64" t="s">
+        <v>196</v>
+      </c>
+      <c r="W64" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="65" spans="19:23" x14ac:dyDescent="0.2">
+      <c r="S65" t="s">
+        <v>162</v>
+      </c>
+      <c r="T65" t="s">
+        <v>186</v>
+      </c>
+      <c r="U65">
+        <v>6.41390776914408E-3</v>
+      </c>
+      <c r="V65" t="s">
+        <v>163</v>
+      </c>
+      <c r="W65" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="66" spans="19:23" x14ac:dyDescent="0.2">
+      <c r="S66" t="s">
+        <v>155</v>
+      </c>
+      <c r="T66" t="s">
+        <v>159</v>
+      </c>
+      <c r="U66">
+        <v>6.8612902456063303E-3</v>
+      </c>
+      <c r="V66" t="s">
+        <v>196</v>
+      </c>
+      <c r="W66" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="67" spans="19:23" x14ac:dyDescent="0.2">
+      <c r="S67" t="s">
+        <v>166</v>
+      </c>
+      <c r="T67" t="s">
+        <v>180</v>
+      </c>
+      <c r="U67">
+        <v>8.0174843222197093E-3</v>
+      </c>
+      <c r="V67" t="s">
+        <v>167</v>
+      </c>
+      <c r="W67" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="68" spans="19:23" x14ac:dyDescent="0.2">
+      <c r="S68" t="s">
+        <v>166</v>
+      </c>
+      <c r="T68" t="s">
+        <v>181</v>
+      </c>
+      <c r="U68">
+        <v>8.6306354695675509E-3</v>
+      </c>
+      <c r="V68" t="s">
+        <v>167</v>
+      </c>
+      <c r="W68" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="69" spans="19:23" x14ac:dyDescent="0.2">
+      <c r="S69" t="s">
+        <v>170</v>
+      </c>
+      <c r="T69" t="s">
+        <v>174</v>
+      </c>
+      <c r="U69">
+        <v>8.9577718896062305E-3</v>
+      </c>
+      <c r="V69" t="s">
+        <v>167</v>
+      </c>
+      <c r="W69" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="70" spans="19:23" x14ac:dyDescent="0.2">
+      <c r="S70" t="s">
+        <v>172</v>
+      </c>
+      <c r="T70" t="s">
+        <v>170</v>
+      </c>
+      <c r="U70">
+        <v>9.9874485832181E-3</v>
+      </c>
+      <c r="V70" t="s">
+        <v>173</v>
+      </c>
+      <c r="W70" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="71" spans="19:23" x14ac:dyDescent="0.2">
+      <c r="S71" t="s">
+        <v>175</v>
+      </c>
+      <c r="T71" t="s">
+        <v>168</v>
+      </c>
+      <c r="U71">
+        <v>1.02159582639959E-2</v>
+      </c>
+      <c r="V71" t="s">
+        <v>176</v>
+      </c>
+      <c r="W71" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="72" spans="19:23" x14ac:dyDescent="0.2">
+      <c r="S72" t="s">
+        <v>177</v>
+      </c>
+      <c r="T72" t="s">
+        <v>168</v>
+      </c>
+      <c r="U72">
+        <v>1.0215958263995999E-2</v>
+      </c>
+      <c r="V72" t="s">
+        <v>176</v>
+      </c>
+      <c r="W72" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="73" spans="19:23" x14ac:dyDescent="0.2">
+      <c r="S73" t="s">
+        <v>171</v>
+      </c>
+      <c r="T73" t="s">
+        <v>174</v>
+      </c>
+      <c r="U73">
+        <v>1.02159582700281E-2</v>
+      </c>
+      <c r="V73" t="s">
+        <v>167</v>
+      </c>
+      <c r="W73" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="74" spans="19:23" x14ac:dyDescent="0.2">
+      <c r="S74" t="s">
+        <v>170</v>
+      </c>
+      <c r="T74" t="s">
+        <v>178</v>
+      </c>
+      <c r="U74">
+        <v>1.0215958300202501E-2</v>
+      </c>
+      <c r="V74" t="s">
+        <v>167</v>
+      </c>
+      <c r="W74" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="75" spans="19:23" x14ac:dyDescent="0.2">
+      <c r="S75" t="s">
+        <v>212</v>
+      </c>
+      <c r="T75" t="s">
+        <v>158</v>
+      </c>
+      <c r="U75">
+        <v>1.09046134067058E-2</v>
+      </c>
+      <c r="V75" t="s">
+        <v>185</v>
+      </c>
+      <c r="W75" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="76" spans="19:23" x14ac:dyDescent="0.2">
+      <c r="S76" t="s">
+        <v>172</v>
+      </c>
+      <c r="T76" t="s">
+        <v>171</v>
+      </c>
+      <c r="U76">
+        <v>1.1458295439051899E-2</v>
+      </c>
+      <c r="V76" t="s">
+        <v>173</v>
+      </c>
+      <c r="W76" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="77" spans="19:23" x14ac:dyDescent="0.2">
+      <c r="S77" t="s">
+        <v>213</v>
+      </c>
+      <c r="T77" t="s">
+        <v>158</v>
+      </c>
+      <c r="U77">
+        <v>1.1635926752725401E-2</v>
+      </c>
+      <c r="V77" t="s">
+        <v>185</v>
+      </c>
+      <c r="W77" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="78" spans="19:23" x14ac:dyDescent="0.2">
+      <c r="S78" t="s">
+        <v>171</v>
+      </c>
+      <c r="T78" t="s">
+        <v>178</v>
+      </c>
+      <c r="U78">
+        <v>1.16359267731418E-2</v>
+      </c>
+      <c r="V78" t="s">
+        <v>167</v>
+      </c>
+      <c r="W78" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="79" spans="19:23" x14ac:dyDescent="0.2">
+      <c r="S79" t="s">
+        <v>162</v>
+      </c>
+      <c r="T79" t="s">
+        <v>195</v>
+      </c>
+      <c r="U79">
+        <v>1.3877872065973899E-2</v>
+      </c>
+      <c r="V79" t="s">
+        <v>163</v>
+      </c>
+      <c r="W79" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="80" spans="19:23" x14ac:dyDescent="0.2">
+      <c r="S80" t="s">
+        <v>162</v>
+      </c>
+      <c r="T80" t="s">
+        <v>198</v>
+      </c>
+      <c r="U80">
+        <v>1.60179211041763E-2</v>
+      </c>
+      <c r="V80" t="s">
+        <v>163</v>
+      </c>
+      <c r="W80" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="81" spans="19:23" x14ac:dyDescent="0.2">
+      <c r="S81" t="s">
+        <v>197</v>
+      </c>
+      <c r="T81" t="s">
+        <v>162</v>
+      </c>
+      <c r="U81">
+        <v>1.60179211041773E-2</v>
+      </c>
+      <c r="V81" t="s">
+        <v>196</v>
+      </c>
+      <c r="W81" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="82" spans="19:23" x14ac:dyDescent="0.2">
+      <c r="S82" t="s">
+        <v>166</v>
+      </c>
+      <c r="T82" t="s">
+        <v>153</v>
+      </c>
+      <c r="U82">
+        <v>1.63199435226308E-2</v>
+      </c>
+      <c r="V82" t="s">
+        <v>167</v>
+      </c>
+      <c r="W82" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="83" spans="19:23" x14ac:dyDescent="0.2">
+      <c r="S83" t="s">
+        <v>214</v>
+      </c>
+      <c r="T83" t="s">
+        <v>159</v>
+      </c>
+      <c r="U83">
+        <v>1.7058033441290199E-2</v>
+      </c>
+      <c r="V83" t="s">
+        <v>215</v>
+      </c>
+      <c r="W83" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="84" spans="19:23" x14ac:dyDescent="0.2">
+      <c r="S84" t="s">
+        <v>216</v>
+      </c>
+      <c r="T84" t="s">
+        <v>159</v>
+      </c>
+      <c r="U84">
+        <v>1.7058033441293401E-2</v>
+      </c>
+      <c r="V84" t="s">
+        <v>215</v>
+      </c>
+      <c r="W84" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="85" spans="19:23" x14ac:dyDescent="0.2">
+      <c r="S85" t="s">
+        <v>182</v>
+      </c>
+      <c r="T85" t="s">
+        <v>164</v>
+      </c>
+      <c r="U85">
+        <v>1.7086571105509301E-2</v>
+      </c>
+      <c r="V85" t="s">
+        <v>183</v>
+      </c>
+      <c r="W85" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="86" spans="19:23" x14ac:dyDescent="0.2">
+      <c r="S86" t="s">
+        <v>179</v>
+      </c>
+      <c r="T86" t="s">
+        <v>170</v>
+      </c>
+      <c r="U86">
+        <v>1.74820869320499E-2</v>
+      </c>
+      <c r="V86" t="s">
+        <v>173</v>
+      </c>
+      <c r="W86" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="87" spans="19:23" x14ac:dyDescent="0.2">
+      <c r="S87" t="s">
+        <v>170</v>
+      </c>
+      <c r="T87" t="s">
+        <v>181</v>
+      </c>
+      <c r="U87">
+        <v>1.8159452973116399E-2</v>
+      </c>
+      <c r="V87" t="s">
+        <v>167</v>
+      </c>
+      <c r="W87" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="88" spans="19:23" x14ac:dyDescent="0.2">
+      <c r="S88" t="s">
+        <v>217</v>
+      </c>
+      <c r="T88" t="s">
+        <v>158</v>
+      </c>
+      <c r="U88">
+        <v>1.8159452993586699E-2</v>
+      </c>
+      <c r="V88" t="s">
+        <v>185</v>
+      </c>
+      <c r="W88" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="89" spans="19:23" x14ac:dyDescent="0.2">
+      <c r="S89" t="s">
+        <v>158</v>
+      </c>
+      <c r="T89" t="s">
+        <v>218</v>
+      </c>
+      <c r="U89">
+        <v>1.9325300460549599E-2</v>
+      </c>
+      <c r="V89" t="s">
+        <v>160</v>
+      </c>
+      <c r="W89" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="90" spans="19:23" x14ac:dyDescent="0.2">
+      <c r="S90" t="s">
+        <v>219</v>
+      </c>
+      <c r="T90" t="s">
+        <v>158</v>
+      </c>
+      <c r="U90">
+        <v>1.9325300471382499E-2</v>
+      </c>
+      <c r="V90" t="s">
+        <v>185</v>
+      </c>
+      <c r="W90" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="91" spans="19:23" x14ac:dyDescent="0.2">
+      <c r="S91" t="s">
+        <v>164</v>
+      </c>
+      <c r="T91" t="s">
+        <v>187</v>
+      </c>
+      <c r="U91">
+        <v>1.9919086416145902E-2</v>
+      </c>
+      <c r="V91" t="s">
+        <v>165</v>
+      </c>
+      <c r="W91" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="92" spans="19:23" x14ac:dyDescent="0.2">
+      <c r="S92" t="s">
+        <v>179</v>
+      </c>
+      <c r="T92" t="s">
+        <v>171</v>
+      </c>
+      <c r="U92">
+        <v>2.0035608959591798E-2</v>
+      </c>
+      <c r="V92" t="s">
+        <v>173</v>
+      </c>
+      <c r="W92" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="93" spans="19:23" x14ac:dyDescent="0.2">
+      <c r="S93" t="s">
+        <v>171</v>
+      </c>
+      <c r="T93" t="s">
+        <v>181</v>
+      </c>
+      <c r="U93">
+        <v>2.0558817165552499E-2</v>
+      </c>
+      <c r="V93" t="s">
+        <v>167</v>
+      </c>
+      <c r="W93" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="94" spans="19:23" x14ac:dyDescent="0.2">
+      <c r="S94" t="s">
+        <v>220</v>
+      </c>
+      <c r="T94" t="s">
+        <v>158</v>
+      </c>
+      <c r="U94">
+        <v>2.055881717701E-2</v>
+      </c>
+      <c r="V94" t="s">
+        <v>185</v>
+      </c>
+      <c r="W94" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="95" spans="19:23" x14ac:dyDescent="0.2">
+      <c r="S95" t="s">
+        <v>170</v>
+      </c>
+      <c r="T95" t="s">
+        <v>180</v>
+      </c>
+      <c r="U95">
+        <v>2.1921478951254299E-2</v>
+      </c>
+      <c r="V95" t="s">
+        <v>167</v>
+      </c>
+      <c r="W95" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="96" spans="19:23" x14ac:dyDescent="0.2">
+      <c r="S96" t="s">
+        <v>186</v>
+      </c>
+      <c r="T96" t="s">
+        <v>164</v>
+      </c>
+      <c r="U96">
+        <v>2.4699634742740201E-2</v>
+      </c>
+      <c r="V96" t="s">
+        <v>183</v>
+      </c>
+      <c r="W96" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="97" spans="19:23" x14ac:dyDescent="0.2">
+      <c r="S97" t="s">
+        <v>171</v>
+      </c>
+      <c r="T97" t="s">
+        <v>180</v>
+      </c>
+      <c r="U97">
+        <v>2.5052551377114301E-2</v>
+      </c>
+      <c r="V97" t="s">
+        <v>167</v>
+      </c>
+      <c r="W97" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="98" spans="19:23" x14ac:dyDescent="0.2">
+      <c r="S98" t="s">
+        <v>221</v>
+      </c>
+      <c r="T98" t="s">
+        <v>158</v>
+      </c>
+      <c r="U98">
+        <v>2.6238702047542299E-2</v>
+      </c>
+      <c r="V98" t="s">
+        <v>185</v>
+      </c>
+      <c r="W98" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="99" spans="19:23" x14ac:dyDescent="0.2">
+      <c r="S99" t="s">
+        <v>170</v>
+      </c>
+      <c r="T99" t="s">
+        <v>153</v>
+      </c>
+      <c r="U99">
+        <v>3.1386363486935603E-2</v>
+      </c>
+      <c r="V99" t="s">
+        <v>167</v>
+      </c>
+      <c r="W99" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="100" spans="19:23" x14ac:dyDescent="0.2">
+      <c r="S100" t="s">
+        <v>171</v>
+      </c>
+      <c r="T100" t="s">
+        <v>153</v>
+      </c>
+      <c r="U100">
+        <v>3.5301633234049799E-2</v>
+      </c>
+      <c r="V100" t="s">
+        <v>167</v>
+      </c>
+      <c r="W100" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="101" spans="19:23" x14ac:dyDescent="0.2">
+      <c r="S101" t="s">
+        <v>162</v>
+      </c>
+      <c r="T101" t="s">
+        <v>206</v>
+      </c>
+      <c r="U101">
+        <v>3.5301633271287797E-2</v>
+      </c>
+      <c r="V101" t="s">
+        <v>163</v>
+      </c>
+      <c r="W101" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="102" spans="19:23" x14ac:dyDescent="0.2">
+      <c r="S102" t="s">
+        <v>162</v>
+      </c>
+      <c r="T102" t="s">
+        <v>207</v>
+      </c>
+      <c r="U102">
+        <v>3.53016332899109E-2</v>
+      </c>
+      <c r="V102" t="s">
+        <v>163</v>
+      </c>
+      <c r="W102" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="103" spans="19:23" x14ac:dyDescent="0.2">
+      <c r="S103" t="s">
+        <v>162</v>
+      </c>
+      <c r="T103" t="s">
+        <v>211</v>
+      </c>
+      <c r="U103">
+        <v>3.7417399720575603E-2</v>
+      </c>
+      <c r="V103" t="s">
+        <v>163</v>
+      </c>
+      <c r="W103" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="104" spans="19:23" x14ac:dyDescent="0.2">
+      <c r="S104" t="s">
+        <v>162</v>
+      </c>
+      <c r="T104" t="s">
+        <v>155</v>
+      </c>
+      <c r="U104">
+        <v>3.9644683838313099E-2</v>
+      </c>
+      <c r="V104" t="s">
+        <v>163</v>
+      </c>
+      <c r="W104" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="105" spans="19:23" x14ac:dyDescent="0.2">
+      <c r="S105" t="s">
+        <v>158</v>
+      </c>
+      <c r="T105" t="s">
+        <v>222</v>
+      </c>
+      <c r="U105">
+        <v>4.445279133321E-2</v>
+      </c>
+      <c r="V105" t="s">
+        <v>160</v>
+      </c>
+      <c r="W105" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="106" spans="19:23" x14ac:dyDescent="0.2">
+      <c r="S106" t="s">
+        <v>223</v>
+      </c>
+      <c r="T106" t="s">
+        <v>159</v>
+      </c>
+      <c r="U106">
+        <v>4.4452791333214899E-2</v>
+      </c>
+      <c r="V106" t="s">
+        <v>215</v>
+      </c>
+      <c r="W106" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="107" spans="19:23" x14ac:dyDescent="0.2">
+      <c r="S107" t="s">
+        <v>224</v>
+      </c>
+      <c r="T107" t="s">
+        <v>158</v>
+      </c>
+      <c r="U107">
+        <v>4.9765026710464601E-2</v>
+      </c>
+      <c r="V107" t="s">
+        <v>185</v>
+      </c>
+      <c r="W107" t="s">
+        <v>160</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB8DFD34-F077-8C42-9272-0EF6BC9716AF}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1537,4 +4757,376 @@
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAD607BF-197B-2147-AC05-4F3DD22E7F57}">
+  <dimension ref="A1:N12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H27" sqref="H27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="5" max="5" width="2.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>231</v>
+      </c>
+      <c r="F1" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="F2" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="5"/>
+      <c r="K2" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A3" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="K3" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="L3" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="M3" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="N3" s="7" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="B4" s="3">
+        <v>0.67987070000000005</v>
+      </c>
+      <c r="C4" s="3">
+        <v>-1.36986E-2</v>
+      </c>
+      <c r="D4" s="6">
+        <v>1.49E-22</v>
+      </c>
+      <c r="F4" t="s">
+        <v>127</v>
+      </c>
+      <c r="G4">
+        <v>0.40730099962976701</v>
+      </c>
+      <c r="H4">
+        <v>3.5414370771533898E-4</v>
+      </c>
+      <c r="K4" t="s">
+        <v>247</v>
+      </c>
+      <c r="L4">
+        <v>0.24583987508593899</v>
+      </c>
+      <c r="M4">
+        <v>-1.3698630136986301E-2</v>
+      </c>
+      <c r="N4">
+        <v>1.92797219198881E-4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="B5" s="3">
+        <v>0.60943897999999996</v>
+      </c>
+      <c r="C5" s="3">
+        <v>-1.36986E-2</v>
+      </c>
+      <c r="D5" s="6">
+        <v>3.8500000000000003E-18</v>
+      </c>
+      <c r="F5" t="s">
+        <v>258</v>
+      </c>
+      <c r="G5">
+        <v>0.33202763442327798</v>
+      </c>
+      <c r="H5">
+        <v>3.8517553155409702E-3</v>
+      </c>
+      <c r="K5" t="s">
+        <v>248</v>
+      </c>
+      <c r="L5">
+        <v>0.170447431082971</v>
+      </c>
+      <c r="M5">
+        <v>-1.3698630136986301E-2</v>
+      </c>
+      <c r="N5">
+        <v>5.2427385760590896E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="B6" s="3">
+        <v>0.48168482000000001</v>
+      </c>
+      <c r="C6" s="3">
+        <v>-1.36986E-2</v>
+      </c>
+      <c r="D6" s="6">
+        <v>4.1200000000000002E-12</v>
+      </c>
+      <c r="F6" t="s">
+        <v>125</v>
+      </c>
+      <c r="G6">
+        <v>-0.244948129944738</v>
+      </c>
+      <c r="H6">
+        <v>3.5430071064763202E-2</v>
+      </c>
+      <c r="K6" t="s">
+        <v>249</v>
+      </c>
+      <c r="L6">
+        <v>0.161177079209195</v>
+      </c>
+      <c r="M6">
+        <v>-1.3698630136986301E-2</v>
+      </c>
+      <c r="N6">
+        <v>7.8731176309350601E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="B7" s="3">
+        <v>0.46950112999999999</v>
+      </c>
+      <c r="C7" s="3">
+        <v>-1.36986E-2</v>
+      </c>
+      <c r="D7" s="6">
+        <v>1.27E-11</v>
+      </c>
+      <c r="F7" t="s">
+        <v>124</v>
+      </c>
+      <c r="G7">
+        <v>-0.23363717822524899</v>
+      </c>
+      <c r="H7">
+        <v>4.5131533014349502E-2</v>
+      </c>
+      <c r="K7" t="s">
+        <v>250</v>
+      </c>
+      <c r="L7">
+        <v>0.14045779554406099</v>
+      </c>
+      <c r="M7">
+        <v>-1.3698630136986301E-2</v>
+      </c>
+      <c r="N7">
+        <v>1.7893927900063E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A8" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="B8" s="3">
+        <v>0.25063133999999998</v>
+      </c>
+      <c r="C8" s="3">
+        <v>-1.36986E-2</v>
+      </c>
+      <c r="D8" s="6">
+        <v>7.1799999999999999E-6</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="G8" s="9">
+        <v>0.190344316919659</v>
+      </c>
+      <c r="H8" s="9">
+        <v>0.10423534325961099</v>
+      </c>
+      <c r="K8" s="9" t="s">
+        <v>251</v>
+      </c>
+      <c r="L8" s="9">
+        <v>1.5763568133341499E-3</v>
+      </c>
+      <c r="M8" s="9">
+        <v>-1.3698630136986301E-2</v>
+      </c>
+      <c r="N8" s="9">
+        <v>0.41707607148472298</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A9" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="B9" s="3">
+        <v>0.27441321000000002</v>
+      </c>
+      <c r="C9" s="3">
+        <v>-1.36986E-2</v>
+      </c>
+      <c r="D9" s="6">
+        <v>2.2799999999999999E-5</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="G9" s="9">
+        <v>-6.2170487537177299E-2</v>
+      </c>
+      <c r="H9" s="9">
+        <v>0.598738663095706</v>
+      </c>
+      <c r="K9" s="9" t="s">
+        <v>252</v>
+      </c>
+      <c r="L9" s="9">
+        <v>-3.00027146041216E-2</v>
+      </c>
+      <c r="M9" s="9">
+        <v>-1.3698630136986301E-2</v>
+      </c>
+      <c r="N9" s="9">
+        <v>0.590842070778272</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A10" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="B10" s="3">
+        <v>0.24124828000000001</v>
+      </c>
+      <c r="C10" s="3">
+        <v>-1.36986E-2</v>
+      </c>
+      <c r="D10" s="3">
+        <v>1.0724E-4</v>
+      </c>
+      <c r="K10" s="9" t="s">
+        <v>253</v>
+      </c>
+      <c r="L10" s="9">
+        <v>-5.5698022730761597E-2</v>
+      </c>
+      <c r="M10" s="9">
+        <v>-1.3698630136986301E-2</v>
+      </c>
+      <c r="N10" s="9">
+        <v>0.71645426212670604</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A11" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="B11" s="3">
+        <v>0.15044637999999999</v>
+      </c>
+      <c r="C11" s="3">
+        <v>-1.36986E-2</v>
+      </c>
+      <c r="D11" s="3">
+        <v>1.2754699999999999E-3</v>
+      </c>
+      <c r="K11" s="9" t="s">
+        <v>254</v>
+      </c>
+      <c r="L11" s="9">
+        <v>-5.6975599238977999E-2</v>
+      </c>
+      <c r="M11" s="9">
+        <v>-1.3698630136986301E-2</v>
+      </c>
+      <c r="N11" s="9">
+        <v>0.721964888477161</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A12" s="9" t="s">
+        <v>242</v>
+      </c>
+      <c r="B12" s="9">
+        <v>-3.5106400000000003E-2</v>
+      </c>
+      <c r="C12" s="9">
+        <v>-1.36986E-2</v>
+      </c>
+      <c r="D12" s="9">
+        <v>0.61665159000000003</v>
+      </c>
+      <c r="K12" s="9" t="s">
+        <v>255</v>
+      </c>
+      <c r="L12" s="9">
+        <v>-5.6533493498389202E-2</v>
+      </c>
+      <c r="M12" s="9">
+        <v>-1.3698630136986301E-2</v>
+      </c>
+      <c r="N12" s="9">
+        <v>0.72590024136241604</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:D12">
+    <sortCondition ref="D4:D12"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/output/supplementary tables.xlsx
+++ b/output/supplementary tables.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cmantegna/Documents/GitHub/WDFWmussels/output/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7F48409-F078-614A-AE80-999920BC1E65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{299DA75B-3EAF-654E-A2F9-C170CA57FF17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31080" yWindow="2840" windowWidth="35600" windowHeight="16940" activeTab="4" xr2:uid="{BE86B9F0-78FD-C044-9247-4161F6BEB5F3}"/>
+    <workbookView xWindow="1160" yWindow="760" windowWidth="29080" windowHeight="18880" activeTab="4" xr2:uid="{BE86B9F0-78FD-C044-9247-4161F6BEB5F3}"/>
   </bookViews>
   <sheets>
     <sheet name="analytes" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="789" uniqueCount="261">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="810" uniqueCount="266">
   <si>
     <t>Class</t>
   </si>
@@ -822,7 +822,22 @@
     <t>corr_long</t>
   </si>
   <si>
-    <t>Note the longitudinal correlation versus global corr</t>
+    <t>IBR Combined</t>
+  </si>
+  <si>
+    <t>Analytes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">analyte </t>
+  </si>
+  <si>
+    <t>No significant lat correlation</t>
+  </si>
+  <si>
+    <t>corr_lat</t>
+  </si>
+  <si>
+    <t>Spatial Autocorrelation w/ Spearman's</t>
   </si>
 </sst>
 </file>
@@ -898,19 +913,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="11" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1817,33 +1833,37 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DC38454-BABA-6748-BCE4-7657067C7BC4}">
-  <dimension ref="A1:R3"/>
+  <dimension ref="A1:X3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="U1" sqref="U1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.6640625" customWidth="1"/>
+    <col min="2" max="2" width="8.1640625" customWidth="1"/>
     <col min="3" max="3" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.83203125" customWidth="1"/>
+    <col min="5" max="5" width="10.83203125" style="9"/>
     <col min="6" max="6" width="4.83203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="7.1640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11.5" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="6.1640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.83203125" style="9"/>
     <col min="11" max="11" width="13.33203125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="7.1640625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="11.5" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="6.1640625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.83203125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="7.1640625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="6.1640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="6.1640625" style="9" customWidth="1"/>
+    <col min="16" max="16" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="7.1640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="6.1640625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="10.83203125" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>134</v>
       </c>
@@ -1853,11 +1873,14 @@
       <c r="K1" t="s">
         <v>136</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="U1" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>130</v>
       </c>
@@ -1894,20 +1917,33 @@
       <c r="N2" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="O2" s="3" t="s">
+      <c r="O2" s="10"/>
+      <c r="P2" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="P2" s="3" t="s">
+      <c r="Q2" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="Q2" s="3" t="s">
+      <c r="R2" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="R2" s="3" t="s">
+      <c r="S2" s="3" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="U2" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="V2" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="W2" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="X2" s="3" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>138</v>
       </c>
@@ -1921,7 +1957,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1164540B-E78A-5C4C-B904-DC87BC623030}">
   <dimension ref="A1:AC107"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="E1" workbookViewId="0">
       <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
@@ -1991,79 +2027,79 @@
       <c r="AC2" s="2"/>
     </row>
     <row r="3" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="E3" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="G3" s="8" t="s">
+      <c r="G3" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="H3" s="8" t="s">
+      <c r="H3" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="I3" s="8" t="s">
+      <c r="I3" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="J3" s="8" t="s">
+      <c r="J3" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="K3" s="8" t="s">
+      <c r="K3" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="M3" s="8" t="s">
+      <c r="M3" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="N3" s="8" t="s">
+      <c r="N3" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="O3" s="8" t="s">
+      <c r="O3" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="P3" s="8" t="s">
+      <c r="P3" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="Q3" s="8" t="s">
+      <c r="Q3" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="S3" s="8" t="s">
+      <c r="S3" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="T3" s="8" t="s">
+      <c r="T3" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="U3" s="8" t="s">
+      <c r="U3" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="V3" s="8" t="s">
+      <c r="V3" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="W3" s="8" t="s">
+      <c r="W3" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="Y3" s="8" t="s">
+      <c r="Y3" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="Z3" s="8" t="s">
+      <c r="Z3" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="AA3" s="8" t="s">
+      <c r="AA3" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="AB3" s="8" t="s">
+      <c r="AB3" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="AC3" s="8" t="s">
+      <c r="AC3" s="7" t="s">
         <v>143</v>
       </c>
     </row>
@@ -2550,19 +2586,19 @@
       <c r="W11" t="s">
         <v>167</v>
       </c>
-      <c r="Y11" s="8" t="s">
+      <c r="Y11" s="7" t="s">
         <v>229</v>
       </c>
-      <c r="Z11" s="8" t="s">
+      <c r="Z11" s="7" t="s">
         <v>230</v>
       </c>
-      <c r="AA11" s="8" t="s">
+      <c r="AA11" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="AB11" s="8" t="s">
+      <c r="AB11" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="AC11" s="8" t="s">
+      <c r="AC11" s="7" t="s">
         <v>143</v>
       </c>
     </row>
@@ -2691,19 +2727,19 @@
       <c r="E14" t="s">
         <v>145</v>
       </c>
-      <c r="M14" s="8" t="s">
+      <c r="M14" s="7" t="s">
         <v>229</v>
       </c>
-      <c r="N14" s="8" t="s">
+      <c r="N14" s="7" t="s">
         <v>230</v>
       </c>
-      <c r="O14" s="8" t="s">
+      <c r="O14" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="P14" s="8" t="s">
+      <c r="P14" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="Q14" s="8" t="s">
+      <c r="Q14" s="7" t="s">
         <v>143</v>
       </c>
       <c r="S14" t="s">
@@ -2785,19 +2821,19 @@
       </c>
     </row>
     <row r="16" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A16" s="8" t="s">
+      <c r="A16" s="7" t="s">
         <v>229</v>
       </c>
-      <c r="B16" s="8" t="s">
+      <c r="B16" s="7" t="s">
         <v>230</v>
       </c>
-      <c r="C16" s="8" t="s">
+      <c r="C16" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="D16" s="8" t="s">
+      <c r="D16" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="E16" s="8" t="s">
+      <c r="E16" s="7" t="s">
         <v>143</v>
       </c>
       <c r="M16">
@@ -3059,19 +3095,19 @@
       <c r="E22" t="s">
         <v>226</v>
       </c>
-      <c r="M22" s="8" t="s">
+      <c r="M22" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="N22" s="8" t="s">
+      <c r="N22" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="O22" s="8" t="s">
+      <c r="O22" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="P22" s="8" t="s">
+      <c r="P22" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="Q22" s="8" t="s">
+      <c r="Q22" s="7" t="s">
         <v>143</v>
       </c>
       <c r="S22" t="s">
@@ -3187,19 +3223,19 @@
       </c>
     </row>
     <row r="26" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="M26" s="8" t="s">
+      <c r="M26" s="7" t="s">
         <v>229</v>
       </c>
-      <c r="N26" s="8" t="s">
+      <c r="N26" s="7" t="s">
         <v>230</v>
       </c>
-      <c r="O26" s="8" t="s">
+      <c r="O26" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="P26" s="8" t="s">
+      <c r="P26" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="Q26" s="8" t="s">
+      <c r="Q26" s="7" t="s">
         <v>143</v>
       </c>
       <c r="S26" t="s">
@@ -3356,19 +3392,19 @@
       </c>
     </row>
     <row r="32" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="M32" s="8" t="s">
+      <c r="M32" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="N32" s="8" t="s">
+      <c r="N32" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="O32" s="8" t="s">
+      <c r="O32" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="P32" s="8" t="s">
+      <c r="P32" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="Q32" s="8" t="s">
+      <c r="Q32" s="7" t="s">
         <v>143</v>
       </c>
       <c r="S32" t="s">
@@ -3469,19 +3505,19 @@
       </c>
     </row>
     <row r="36" spans="13:23" x14ac:dyDescent="0.2">
-      <c r="M36" s="8" t="s">
+      <c r="M36" s="7" t="s">
         <v>229</v>
       </c>
-      <c r="N36" s="8" t="s">
+      <c r="N36" s="7" t="s">
         <v>230</v>
       </c>
-      <c r="O36" s="8" t="s">
+      <c r="O36" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="P36" s="8" t="s">
+      <c r="P36" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="Q36" s="8" t="s">
+      <c r="Q36" s="7" t="s">
         <v>143</v>
       </c>
       <c r="S36" t="s">
@@ -3565,11 +3601,6 @@
       </c>
     </row>
     <row r="39" spans="13:23" x14ac:dyDescent="0.2">
-      <c r="M39" s="5"/>
-      <c r="N39" s="5"/>
-      <c r="O39" s="5"/>
-      <c r="P39" s="5"/>
-      <c r="Q39" s="5"/>
       <c r="S39" t="s">
         <v>193</v>
       </c>
@@ -4761,10 +4792,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAD607BF-197B-2147-AC05-4F3DD22E7F57}">
-  <dimension ref="A1:N12"/>
+  <dimension ref="A1:R36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H27" sqref="H27"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4772,15 +4803,18 @@
     <col min="5" max="5" width="2.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>231</v>
       </c>
       <c r="F1" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+        <v>265</v>
+      </c>
+      <c r="L1" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>232</v>
       </c>
@@ -4788,54 +4822,72 @@
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="F2" s="2" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
-      <c r="I2" s="5"/>
-      <c r="K2" s="2" t="s">
-        <v>245</v>
-      </c>
-      <c r="L2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="9"/>
+      <c r="L2" s="2" t="s">
+        <v>256</v>
+      </c>
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A3" s="7" t="s">
+      <c r="P2" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="Q2" s="2"/>
+      <c r="R2" s="2"/>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A3" s="6" t="s">
         <v>233</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="6" t="s">
         <v>234</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="6" t="s">
         <v>235</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="6" t="s">
         <v>141</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="F3" s="6" t="s">
+        <v>262</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>264</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>259</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="K3" s="6"/>
+      <c r="L3" s="6" t="s">
         <v>257</v>
       </c>
-      <c r="G3" s="7" t="s">
+      <c r="M3" s="6" t="s">
         <v>259</v>
       </c>
-      <c r="H3" s="7" t="s">
+      <c r="N3" s="6" t="s">
         <v>141</v>
       </c>
-      <c r="K3" s="7" t="s">
+      <c r="P3" s="6" t="s">
         <v>246</v>
       </c>
-      <c r="L3" s="7" t="s">
-        <v>234</v>
-      </c>
-      <c r="M3" s="7" t="s">
-        <v>235</v>
-      </c>
-      <c r="N3" s="7" t="s">
+      <c r="Q3" s="6" t="s">
+        <v>259</v>
+      </c>
+      <c r="R3" s="6" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>237</v>
       </c>
@@ -4845,32 +4897,20 @@
       <c r="C4" s="3">
         <v>-1.36986E-2</v>
       </c>
-      <c r="D4" s="6">
+      <c r="D4" s="5">
         <v>1.49E-22</v>
       </c>
-      <c r="F4" t="s">
+      <c r="L4" t="s">
         <v>127</v>
       </c>
-      <c r="G4">
+      <c r="M4">
         <v>0.40730099962976701</v>
       </c>
-      <c r="H4">
+      <c r="N4">
         <v>3.5414370771533898E-4</v>
       </c>
-      <c r="K4" t="s">
-        <v>247</v>
-      </c>
-      <c r="L4">
-        <v>0.24583987508593899</v>
-      </c>
-      <c r="M4">
-        <v>-1.3698630136986301E-2</v>
-      </c>
-      <c r="N4">
-        <v>1.92797219198881E-4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>243</v>
       </c>
@@ -4880,32 +4920,20 @@
       <c r="C5" s="3">
         <v>-1.36986E-2</v>
       </c>
-      <c r="D5" s="6">
+      <c r="D5" s="5">
         <v>3.8500000000000003E-18</v>
       </c>
-      <c r="F5" t="s">
+      <c r="L5" t="s">
         <v>258</v>
       </c>
-      <c r="G5">
+      <c r="M5">
         <v>0.33202763442327798</v>
       </c>
-      <c r="H5">
+      <c r="N5">
         <v>3.8517553155409702E-3</v>
       </c>
-      <c r="K5" t="s">
-        <v>248</v>
-      </c>
-      <c r="L5">
-        <v>0.170447431082971</v>
-      </c>
-      <c r="M5">
-        <v>-1.3698630136986301E-2</v>
-      </c>
-      <c r="N5">
-        <v>5.2427385760590896E-3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>236</v>
       </c>
@@ -4915,32 +4943,20 @@
       <c r="C6" s="3">
         <v>-1.36986E-2</v>
       </c>
-      <c r="D6" s="6">
+      <c r="D6" s="5">
         <v>4.1200000000000002E-12</v>
       </c>
-      <c r="F6" t="s">
+      <c r="L6" t="s">
         <v>125</v>
       </c>
-      <c r="G6">
+      <c r="M6">
         <v>-0.244948129944738</v>
       </c>
-      <c r="H6">
+      <c r="N6">
         <v>3.5430071064763202E-2</v>
       </c>
-      <c r="K6" t="s">
-        <v>249</v>
-      </c>
-      <c r="L6">
-        <v>0.161177079209195</v>
-      </c>
-      <c r="M6">
-        <v>-1.3698630136986301E-2</v>
-      </c>
-      <c r="N6">
-        <v>7.8731176309350601E-3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>241</v>
       </c>
@@ -4950,32 +4966,20 @@
       <c r="C7" s="3">
         <v>-1.36986E-2</v>
       </c>
-      <c r="D7" s="6">
+      <c r="D7" s="5">
         <v>1.27E-11</v>
       </c>
-      <c r="F7" t="s">
+      <c r="L7" t="s">
         <v>124</v>
       </c>
-      <c r="G7">
+      <c r="M7">
         <v>-0.23363717822524899</v>
       </c>
-      <c r="H7">
+      <c r="N7">
         <v>4.5131533014349502E-2</v>
       </c>
-      <c r="K7" t="s">
-        <v>250</v>
-      </c>
-      <c r="L7">
-        <v>0.14045779554406099</v>
-      </c>
-      <c r="M7">
-        <v>-1.3698630136986301E-2</v>
-      </c>
-      <c r="N7">
-        <v>1.7893927900063E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>239</v>
       </c>
@@ -4985,32 +4989,24 @@
       <c r="C8" s="3">
         <v>-1.36986E-2</v>
       </c>
-      <c r="D8" s="6">
+      <c r="D8" s="5">
         <v>7.1799999999999999E-6</v>
       </c>
-      <c r="F8" s="9" t="s">
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
+      <c r="L8" s="8" t="s">
         <v>126</v>
       </c>
-      <c r="G8" s="9">
+      <c r="M8" s="8">
         <v>0.190344316919659</v>
       </c>
-      <c r="H8" s="9">
+      <c r="N8" s="8">
         <v>0.10423534325961099</v>
       </c>
-      <c r="K8" s="9" t="s">
-        <v>251</v>
-      </c>
-      <c r="L8" s="9">
-        <v>1.5763568133341499E-3</v>
-      </c>
-      <c r="M8" s="9">
-        <v>-1.3698630136986301E-2</v>
-      </c>
-      <c r="N8" s="9">
-        <v>0.41707607148472298</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>244</v>
       </c>
@@ -5020,32 +5016,24 @@
       <c r="C9" s="3">
         <v>-1.36986E-2</v>
       </c>
-      <c r="D9" s="6">
+      <c r="D9" s="5">
         <v>2.2799999999999999E-5</v>
       </c>
-      <c r="F9" s="9" t="s">
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
+      <c r="L9" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="G9" s="9">
+      <c r="M9" s="8">
         <v>-6.2170487537177299E-2</v>
       </c>
-      <c r="H9" s="9">
+      <c r="N9" s="8">
         <v>0.598738663095706</v>
       </c>
-      <c r="K9" s="9" t="s">
-        <v>252</v>
-      </c>
-      <c r="L9" s="9">
-        <v>-3.00027146041216E-2</v>
-      </c>
-      <c r="M9" s="9">
-        <v>-1.3698630136986301E-2</v>
-      </c>
-      <c r="N9" s="9">
-        <v>0.590842070778272</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>238</v>
       </c>
@@ -5058,20 +5046,8 @@
       <c r="D10" s="3">
         <v>1.0724E-4</v>
       </c>
-      <c r="K10" s="9" t="s">
-        <v>253</v>
-      </c>
-      <c r="L10" s="9">
-        <v>-5.5698022730761597E-2</v>
-      </c>
-      <c r="M10" s="9">
-        <v>-1.3698630136986301E-2</v>
-      </c>
-      <c r="N10" s="9">
-        <v>0.71645426212670604</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>240</v>
       </c>
@@ -5084,42 +5060,188 @@
       <c r="D11" s="3">
         <v>1.2754699999999999E-3</v>
       </c>
-      <c r="K11" s="9" t="s">
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A12" s="8" t="s">
+        <v>242</v>
+      </c>
+      <c r="B12" s="8">
+        <v>-3.5106400000000003E-2</v>
+      </c>
+      <c r="C12" s="8">
+        <v>-1.36986E-2</v>
+      </c>
+      <c r="D12" s="8">
+        <v>0.61665159000000003</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A15" s="6" t="s">
+        <v>257</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>234</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>235</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27" s="6" t="s">
+        <v>246</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>234</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>235</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>247</v>
+      </c>
+      <c r="B28">
+        <v>0.24583987508593899</v>
+      </c>
+      <c r="C28">
+        <v>-1.3698630136986301E-2</v>
+      </c>
+      <c r="D28">
+        <v>1.92797219198881E-4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>248</v>
+      </c>
+      <c r="B29">
+        <v>0.170447431082971</v>
+      </c>
+      <c r="C29">
+        <v>-1.3698630136986301E-2</v>
+      </c>
+      <c r="D29">
+        <v>5.2427385760590896E-3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>249</v>
+      </c>
+      <c r="B30">
+        <v>0.161177079209195</v>
+      </c>
+      <c r="C30">
+        <v>-1.3698630136986301E-2</v>
+      </c>
+      <c r="D30">
+        <v>7.8731176309350601E-3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>250</v>
+      </c>
+      <c r="B31">
+        <v>0.14045779554406099</v>
+      </c>
+      <c r="C31">
+        <v>-1.3698630136986301E-2</v>
+      </c>
+      <c r="D31">
+        <v>1.7893927900063E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32" s="8" t="s">
+        <v>251</v>
+      </c>
+      <c r="B32" s="8">
+        <v>1.5763568133341499E-3</v>
+      </c>
+      <c r="C32" s="8">
+        <v>-1.3698630136986301E-2</v>
+      </c>
+      <c r="D32" s="8">
+        <v>0.41707607148472298</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33" s="8" t="s">
+        <v>252</v>
+      </c>
+      <c r="B33" s="8">
+        <v>-3.00027146041216E-2</v>
+      </c>
+      <c r="C33" s="8">
+        <v>-1.3698630136986301E-2</v>
+      </c>
+      <c r="D33" s="8">
+        <v>0.590842070778272</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A34" s="8" t="s">
+        <v>253</v>
+      </c>
+      <c r="B34" s="8">
+        <v>-5.5698022730761597E-2</v>
+      </c>
+      <c r="C34" s="8">
+        <v>-1.3698630136986301E-2</v>
+      </c>
+      <c r="D34" s="8">
+        <v>0.71645426212670604</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A35" s="8" t="s">
         <v>254</v>
       </c>
-      <c r="L11" s="9">
+      <c r="B35" s="8">
         <v>-5.6975599238977999E-2</v>
       </c>
-      <c r="M11" s="9">
+      <c r="C35" s="8">
         <v>-1.3698630136986301E-2</v>
       </c>
-      <c r="N11" s="9">
+      <c r="D35" s="8">
         <v>0.721964888477161</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A12" s="9" t="s">
-        <v>242</v>
-      </c>
-      <c r="B12" s="9">
-        <v>-3.5106400000000003E-2</v>
-      </c>
-      <c r="C12" s="9">
-        <v>-1.36986E-2</v>
-      </c>
-      <c r="D12" s="9">
-        <v>0.61665159000000003</v>
-      </c>
-      <c r="K12" s="9" t="s">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A36" s="8" t="s">
         <v>255</v>
       </c>
-      <c r="L12" s="9">
+      <c r="B36" s="8">
         <v>-5.6533493498389202E-2</v>
       </c>
-      <c r="M12" s="9">
+      <c r="C36" s="8">
         <v>-1.3698630136986301E-2</v>
       </c>
-      <c r="N12" s="9">
+      <c r="D36" s="8">
         <v>0.72590024136241604</v>
       </c>
     </row>

--- a/output/supplementary tables.xlsx
+++ b/output/supplementary tables.xlsx
@@ -8,16 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cmantegna/Documents/GitHub/WDFWmussels/output/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{299DA75B-3EAF-654E-A2F9-C170CA57FF17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B80A36DC-BC3C-CC4D-9FA5-B4F75EF5C3C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1160" yWindow="760" windowWidth="29080" windowHeight="18880" activeTab="4" xr2:uid="{BE86B9F0-78FD-C044-9247-4161F6BEB5F3}"/>
+    <workbookView xWindow="1160" yWindow="760" windowWidth="29080" windowHeight="18880" activeTab="6" xr2:uid="{BE86B9F0-78FD-C044-9247-4161F6BEB5F3}"/>
   </bookViews>
   <sheets>
-    <sheet name="analytes" sheetId="1" r:id="rId1"/>
-    <sheet name="site-level data" sheetId="2" r:id="rId2"/>
-    <sheet name="kw pairwise comparisons" sheetId="3" r:id="rId3"/>
-    <sheet name="spearman &amp; kendalls corr" sheetId="4" r:id="rId4"/>
-    <sheet name="morans spatial autocorrelation" sheetId="5" r:id="rId5"/>
+    <sheet name="indentifiers" sheetId="6" r:id="rId1"/>
+    <sheet name="analytes &amp; metals assessed" sheetId="1" r:id="rId2"/>
+    <sheet name="metric summary" sheetId="2" r:id="rId3"/>
+    <sheet name="kw pairwise comparisons" sheetId="3" r:id="rId4"/>
+    <sheet name="spearman &amp; kendalls corr" sheetId="4" r:id="rId5"/>
+    <sheet name="morans spatial autocorrelation" sheetId="5" r:id="rId6"/>
+    <sheet name="POPs Timeline" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -40,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="810" uniqueCount="266">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="844" uniqueCount="274">
   <si>
     <t>Class</t>
   </si>
@@ -838,13 +840,37 @@
   </si>
   <si>
     <t>Spatial Autocorrelation w/ Spearman's</t>
+  </si>
+  <si>
+    <t>Condition Index 3</t>
+  </si>
+  <si>
+    <t>Site Name</t>
+  </si>
+  <si>
+    <t>Samples</t>
+  </si>
+  <si>
+    <t>Reporting Area</t>
+  </si>
+  <si>
+    <t>K-means Cluster</t>
+  </si>
+  <si>
+    <t>Begin</t>
+  </si>
+  <si>
+    <t>End</t>
+  </si>
+  <si>
+    <t>PAH</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -880,6 +906,19 @@
       <name val="Aptos Narrow"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -913,7 +952,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -927,6 +966,8 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1260,10 +1301,39 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23EF6288-0CE9-0E4A-963E-F22A33CC5774}">
+  <dimension ref="A1:D1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>267</v>
+      </c>
+      <c r="B1" t="s">
+        <v>268</v>
+      </c>
+      <c r="C1" t="s">
+        <v>269</v>
+      </c>
+      <c r="D1" t="s">
+        <v>270</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAC852F3-4C36-5244-AFD3-7C7A3D7A2244}">
   <dimension ref="A1:G68"/>
   <sheetViews>
-    <sheetView zoomScale="99" workbookViewId="0">
+    <sheetView topLeftCell="A46" zoomScale="99" workbookViewId="0">
       <selection activeCell="E55" sqref="E55:G55"/>
     </sheetView>
   </sheetViews>
@@ -1831,12 +1901,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DC38454-BABA-6748-BCE4-7657067C7BC4}">
   <dimension ref="A1:X3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="U1" sqref="U1"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1944,21 +2014,40 @@
       </c>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+      <c r="A3" s="9" t="s">
         <v>138</v>
       </c>
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
+      <c r="K3" s="9"/>
+      <c r="L3" s="9"/>
+      <c r="M3" s="9"/>
+      <c r="N3" s="9"/>
+      <c r="P3" s="9"/>
+      <c r="Q3" s="9"/>
+      <c r="R3" s="9"/>
+      <c r="S3" s="9"/>
+      <c r="U3" s="9"/>
+      <c r="V3" s="9"/>
+      <c r="W3" s="9"/>
+      <c r="X3" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1164540B-E78A-5C4C-B904-DC87BC623030}">
   <dimension ref="A1:AC107"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2323,6 +2412,13 @@
       <c r="E7" t="s">
         <v>145</v>
       </c>
+      <c r="G7" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
       <c r="M7">
         <v>10</v>
       </c>
@@ -2385,6 +2481,21 @@
       <c r="E8" t="s">
         <v>147</v>
       </c>
+      <c r="G8" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="H8" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="I8" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>143</v>
+      </c>
       <c r="M8">
         <v>10</v>
       </c>
@@ -2447,6 +2558,21 @@
       <c r="E9" t="s">
         <v>145</v>
       </c>
+      <c r="G9">
+        <v>6</v>
+      </c>
+      <c r="H9">
+        <v>7</v>
+      </c>
+      <c r="I9">
+        <v>3.0800000000000001E-2</v>
+      </c>
+      <c r="J9" t="s">
+        <v>147</v>
+      </c>
+      <c r="K9" t="s">
+        <v>145</v>
+      </c>
       <c r="M9">
         <v>12</v>
       </c>
@@ -2509,6 +2635,21 @@
       <c r="E10" t="s">
         <v>146</v>
       </c>
+      <c r="G10">
+        <v>6</v>
+      </c>
+      <c r="H10">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="I10">
+        <v>3.78E-2</v>
+      </c>
+      <c r="J10" t="s">
+        <v>147</v>
+      </c>
+      <c r="K10" t="s">
+        <v>145</v>
+      </c>
       <c r="M10">
         <v>13</v>
       </c>
@@ -2618,6 +2759,21 @@
       <c r="E12" t="s">
         <v>147</v>
       </c>
+      <c r="G12" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="H12" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="I12" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="J12" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>143</v>
+      </c>
       <c r="M12">
         <v>12</v>
       </c>
@@ -2680,6 +2836,21 @@
       <c r="E13" t="s">
         <v>146</v>
       </c>
+      <c r="G13">
+        <v>4</v>
+      </c>
+      <c r="H13">
+        <v>6</v>
+      </c>
+      <c r="I13">
+        <v>4.4999999999999997E-3</v>
+      </c>
+      <c r="J13" t="s">
+        <v>145</v>
+      </c>
+      <c r="K13" t="s">
+        <v>147</v>
+      </c>
       <c r="S13" t="s">
         <v>162</v>
       </c>
@@ -2727,6 +2898,21 @@
       <c r="E14" t="s">
         <v>145</v>
       </c>
+      <c r="G14">
+        <v>3</v>
+      </c>
+      <c r="H14">
+        <v>4</v>
+      </c>
+      <c r="I14">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="J14" t="s">
+        <v>147</v>
+      </c>
+      <c r="K14" t="s">
+        <v>145</v>
+      </c>
       <c r="M14" s="7" t="s">
         <v>229</v>
       </c>
@@ -2774,6 +2960,21 @@
       </c>
     </row>
     <row r="15" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="G15">
+        <v>1</v>
+      </c>
+      <c r="H15">
+        <v>4</v>
+      </c>
+      <c r="I15">
+        <v>2.87E-2</v>
+      </c>
+      <c r="J15" t="s">
+        <v>147</v>
+      </c>
+      <c r="K15" t="s">
+        <v>145</v>
+      </c>
       <c r="M15">
         <v>3</v>
       </c>
@@ -4778,7 +4979,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB8DFD34-F077-8C42-9272-0EF6BC9716AF}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -4790,11 +4991,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAD607BF-197B-2147-AC05-4F3DD22E7F57}">
   <dimension ref="A1:R36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
@@ -5251,4 +5452,96 @@
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8663229F-DEE5-8044-ADEF-EE06FE251561}">
+  <dimension ref="A1:C7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>271</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="12">
+        <v>1948</v>
+      </c>
+      <c r="C2" s="12">
+        <v>1988</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="12">
+        <v>1939</v>
+      </c>
+      <c r="C3" s="12">
+        <v>1972</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" s="12">
+        <v>1948</v>
+      </c>
+      <c r="C4" s="12">
+        <v>1997</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="12" t="s">
+        <v>273</v>
+      </c>
+      <c r="B5" s="12">
+        <v>1914</v>
+      </c>
+      <c r="C5" s="12">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="B6" s="12">
+        <v>1973</v>
+      </c>
+      <c r="C6" s="12">
+        <v>2004</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="B7" s="12">
+        <v>1929</v>
+      </c>
+      <c r="C7" s="12">
+        <v>1979</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/output/supplementary tables.xlsx
+++ b/output/supplementary tables.xlsx
@@ -8,20 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cmantegna/Documents/GitHub/WDFWmussels/output/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B80A36DC-BC3C-CC4D-9FA5-B4F75EF5C3C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F59E8DA1-B079-9A48-8AFB-B2637C70C077}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1160" yWindow="760" windowWidth="29080" windowHeight="18880" activeTab="6" xr2:uid="{BE86B9F0-78FD-C044-9247-4161F6BEB5F3}"/>
+    <workbookView xWindow="32800" yWindow="620" windowWidth="37280" windowHeight="20680" activeTab="2" xr2:uid="{BE86B9F0-78FD-C044-9247-4161F6BEB5F3}"/>
   </bookViews>
   <sheets>
-    <sheet name="indentifiers" sheetId="6" r:id="rId1"/>
-    <sheet name="analytes &amp; metals assessed" sheetId="1" r:id="rId2"/>
-    <sheet name="metric summary" sheetId="2" r:id="rId3"/>
-    <sheet name="kw pairwise comparisons" sheetId="3" r:id="rId4"/>
-    <sheet name="spearman &amp; kendalls corr" sheetId="4" r:id="rId5"/>
-    <sheet name="morans spatial autocorrelation" sheetId="5" r:id="rId6"/>
-    <sheet name="POPs Timeline" sheetId="7" r:id="rId7"/>
+    <sheet name="notes" sheetId="8" r:id="rId1"/>
+    <sheet name="indentifiers" sheetId="6" r:id="rId2"/>
+    <sheet name="analytes &amp; metals assessed" sheetId="1" r:id="rId3"/>
+    <sheet name="metric summary" sheetId="2" r:id="rId4"/>
+    <sheet name="kw pairwise comparisons" sheetId="3" r:id="rId5"/>
+    <sheet name="spearman &amp; kendalls corr" sheetId="4" r:id="rId6"/>
+    <sheet name="morans spatial autocorrelation" sheetId="5" r:id="rId7"/>
+    <sheet name="POPs Timeline" sheetId="7" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -42,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="844" uniqueCount="274">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1037" uniqueCount="361">
   <si>
     <t>Class</t>
   </si>
@@ -50,9 +51,6 @@
     <t>Analyte</t>
   </si>
   <si>
-    <t>Source</t>
-  </si>
-  <si>
     <t>alpha hexachlorocyclohexane</t>
   </si>
   <si>
@@ -113,9 +111,6 @@
     <t>HCH</t>
   </si>
   <si>
-    <t>PAH, LMW</t>
-  </si>
-  <si>
     <t>naphthalene (NPH)</t>
   </si>
   <si>
@@ -182,9 +177,6 @@
     <t>C4-phenanthrenes/anthracenes</t>
   </si>
   <si>
-    <t>PAH, HMW</t>
-  </si>
-  <si>
     <t>fluoranthene (FLA)</t>
   </si>
   <si>
@@ -245,15 +237,6 @@
     <t>benzo[g,h,i]perylene (BZP)</t>
   </si>
   <si>
-    <t>chrysene (CHR)Pa</t>
-  </si>
-  <si>
-    <t>benzo[k]fluoranthene (BKF)Pb</t>
-  </si>
-  <si>
-    <t>dibenz[a,h]anthracene (DBA)Pc</t>
-  </si>
-  <si>
     <t>PBDE</t>
   </si>
   <si>
@@ -413,9 +396,6 @@
     <t>PCB209</t>
   </si>
   <si>
-    <t>Metal</t>
-  </si>
-  <si>
     <t>arsenic</t>
   </si>
   <si>
@@ -848,9 +828,6 @@
     <t>Site Name</t>
   </si>
   <si>
-    <t>Samples</t>
-  </si>
-  <si>
     <t>Reporting Area</t>
   </si>
   <si>
@@ -864,13 +841,298 @@
   </si>
   <si>
     <t>PAH</t>
+  </si>
+  <si>
+    <t>Latitude</t>
+  </si>
+  <si>
+    <t>Longitude</t>
+  </si>
+  <si>
+    <t>ng/g</t>
+  </si>
+  <si>
+    <t>Chlordane (8)</t>
+  </si>
+  <si>
+    <t>DDT (6)</t>
+  </si>
+  <si>
+    <t>HCH (3)</t>
+  </si>
+  <si>
+    <t>PAH, LMW (22)</t>
+  </si>
+  <si>
+    <t>PAH, HMW (20)</t>
+  </si>
+  <si>
+    <t>Metal (6)</t>
+  </si>
+  <si>
+    <t>PCB (40)</t>
+  </si>
+  <si>
+    <t>PBDE (11)</t>
+  </si>
+  <si>
+    <t>Br PBDE (4)</t>
+  </si>
+  <si>
+    <t>PAH, additional (9)</t>
+  </si>
+  <si>
+    <t>Organochlorine Pesticides (5)</t>
+  </si>
+  <si>
+    <t>aldrin</t>
+  </si>
+  <si>
+    <t>dieldrin</t>
+  </si>
+  <si>
+    <t>endosulfan_1</t>
+  </si>
+  <si>
+    <t>hexachlorobenzene</t>
+  </si>
+  <si>
+    <t>mirex</t>
+  </si>
+  <si>
+    <t>retene</t>
+  </si>
+  <si>
+    <t>Br5DE04</t>
+  </si>
+  <si>
+    <t>Br5DE05</t>
+  </si>
+  <si>
+    <t>Br6DE01</t>
+  </si>
+  <si>
+    <t>Br7DE01</t>
+  </si>
+  <si>
+    <t>9-methylphenanthrene</t>
+  </si>
+  <si>
+    <t>3-methylphenanthrene</t>
+  </si>
+  <si>
+    <t>2,6-dimethylnaphthalene</t>
+  </si>
+  <si>
+    <t>2,3,5-trimethylnaphthalene</t>
+  </si>
+  <si>
+    <t>2-methylnaphthalene</t>
+  </si>
+  <si>
+    <t>1,7-dimethylphenanthrene</t>
+  </si>
+  <si>
+    <t>1-methylphenanthrene</t>
+  </si>
+  <si>
+    <t>1-methylnaphthalene</t>
+  </si>
+  <si>
+    <t>Detected at baseline?</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>Sheet</t>
+  </si>
+  <si>
+    <t>Note</t>
+  </si>
+  <si>
+    <t>analytes &amp; metals assessed</t>
+  </si>
+  <si>
+    <t>will create a table that captures which sites are missing analyte data per individual analyte</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Number of sites missing analyte value</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>Concentration Range (high-&gt;low, wet value)</t>
+  </si>
+  <si>
+    <t>150 - 0.95</t>
+  </si>
+  <si>
+    <t>note that the sites not listed may have had a flat 0 value before testing; those marked undetected are all with negative values</t>
+  </si>
+  <si>
+    <t>18 - 0.51</t>
+  </si>
+  <si>
+    <t>14 - 0.55</t>
+  </si>
+  <si>
+    <t>17 - 0.65</t>
+  </si>
+  <si>
+    <t>10 - 0.5</t>
+  </si>
+  <si>
+    <t>16 - 0.43</t>
+  </si>
+  <si>
+    <t>0.33 - 0.19</t>
+  </si>
+  <si>
+    <t>Number of sites undetected</t>
+  </si>
+  <si>
+    <t>Number of site detected</t>
+  </si>
+  <si>
+    <t>0.37 - 0.2</t>
+  </si>
+  <si>
+    <t>0.36 - 0.22</t>
+  </si>
+  <si>
+    <t>1.1 - 0.27</t>
+  </si>
+  <si>
+    <t>Qualifier</t>
+  </si>
+  <si>
+    <t>Definition</t>
+  </si>
+  <si>
+    <t>i</t>
+  </si>
+  <si>
+    <t>Value is suspect because of interference (PAHs only). It includes peaks with retention times that do not match those of known alkylPAHs.</t>
+  </si>
+  <si>
+    <t>U</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Analyte was not detected.  </t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>Analyte was detected</t>
+  </si>
+  <si>
+    <t>LOQ</t>
+  </si>
+  <si>
+    <t>Analyte was detected at a level near the level of quantitation (within 95% confidence interval of the mean LOQ for that analyte)</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Analyte was detected at a concentration less than or equal to 1X the concentration measured in the method blank and was subsequently changed to not detected in the QC'd data  </t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>The concentration is an estimate because the analyte area exceeded the response of the highest calibration standard analyzed with the set.</t>
+  </si>
+  <si>
+    <t>These chems are not part of the OG table from WDFW but are present in the full dataset</t>
+  </si>
+  <si>
+    <t>0.45 - 0.23</t>
+  </si>
+  <si>
+    <t>2.0 - 0.14</t>
+  </si>
+  <si>
+    <t>1.8 - 0.18</t>
+  </si>
+  <si>
+    <t>1.3 - 0.16</t>
+  </si>
+  <si>
+    <t>0.39 - 0.15</t>
+  </si>
+  <si>
+    <t>0.33 - 0.1</t>
+  </si>
+  <si>
+    <t>0.26 - 0.26</t>
+  </si>
+  <si>
+    <t>42 - 0.44</t>
+  </si>
+  <si>
+    <t>0.83 - 0.54</t>
+  </si>
+  <si>
+    <t>15 - 0.43</t>
+  </si>
+  <si>
+    <t>5.9 - 0.9</t>
+  </si>
+  <si>
+    <t>red text means to remove from the analysis</t>
+  </si>
+  <si>
+    <t>red highlight means 'non-detected sites' have an INTERFERENCE value - PAHs only</t>
+  </si>
+  <si>
+    <t>110 - 0.67</t>
+  </si>
+  <si>
+    <t>11 - 0.54</t>
+  </si>
+  <si>
+    <t>55 - 1.1</t>
+  </si>
+  <si>
+    <t>59 - 0.84</t>
+  </si>
+  <si>
+    <t>5.6 - 0.49</t>
+  </si>
+  <si>
+    <t>32 - 0.52</t>
+  </si>
+  <si>
+    <t>23 - 0.68</t>
+  </si>
+  <si>
+    <t>23 - 0.8</t>
+  </si>
+  <si>
+    <t>60 - 0.47</t>
+  </si>
+  <si>
+    <t>1.2 - 0.57</t>
+  </si>
+  <si>
+    <t>8 - 1.9</t>
+  </si>
+  <si>
+    <t>des moines marina is at an estimate of 290 ng/g - this exceeds the max value found by 2 orders of magnitude</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -919,8 +1181,36 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -939,6 +1229,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -949,10 +1251,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -968,9 +1272,52 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{CECA93FF-23E9-3040-A15E-47B1772B2496}"/>
+    <cellStyle name="Normal 3" xfId="2" xr:uid="{F07FCDDB-3689-1C44-B0F0-9FA98EDB5F77}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1301,27 +1648,128 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23EF6288-0CE9-0E4A-963E-F22A33CC5774}">
-  <dimension ref="A1:D1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BFC29D2-7EC9-BB48-96F3-EF9853024977}">
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="23.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="75.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="80.6640625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>267</v>
+        <v>304</v>
       </c>
       <c r="B1" t="s">
-        <v>268</v>
+        <v>300</v>
       </c>
       <c r="C1" t="s">
-        <v>269</v>
-      </c>
-      <c r="D1" t="s">
-        <v>270</v>
+        <v>301</v>
+      </c>
+      <c r="F1" s="20" t="s">
+        <v>321</v>
+      </c>
+      <c r="G1" s="20" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="A2" s="16">
+        <v>45782</v>
+      </c>
+      <c r="B2" t="s">
+        <v>302</v>
+      </c>
+      <c r="C2" t="s">
+        <v>303</v>
+      </c>
+      <c r="F2" s="21" t="s">
+        <v>323</v>
+      </c>
+      <c r="G2" s="22" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" s="16">
+        <v>45782</v>
+      </c>
+      <c r="B3" t="s">
+        <v>302</v>
+      </c>
+      <c r="C3" t="s">
+        <v>309</v>
+      </c>
+      <c r="F3" s="23" t="s">
+        <v>325</v>
+      </c>
+      <c r="G3" s="24" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A4" s="16">
+        <v>45782</v>
+      </c>
+      <c r="B4" t="s">
+        <v>302</v>
+      </c>
+      <c r="C4" t="s">
+        <v>347</v>
+      </c>
+      <c r="F4" s="23" t="s">
+        <v>327</v>
+      </c>
+      <c r="G4" s="25" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="A5" s="16">
+        <v>45782</v>
+      </c>
+      <c r="B5" t="s">
+        <v>302</v>
+      </c>
+      <c r="C5" t="s">
+        <v>348</v>
+      </c>
+      <c r="F5" s="23" t="s">
+        <v>329</v>
+      </c>
+      <c r="G5" s="25" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="A6" s="16">
+        <v>45782</v>
+      </c>
+      <c r="B6" t="s">
+        <v>302</v>
+      </c>
+      <c r="C6" s="29" t="s">
+        <v>360</v>
+      </c>
+      <c r="F6" s="23" t="s">
+        <v>331</v>
+      </c>
+      <c r="G6" s="25" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="F7" s="21" t="s">
+        <v>333</v>
+      </c>
+      <c r="G7" s="26" t="s">
+        <v>334</v>
       </c>
     </row>
   </sheetData>
@@ -1330,19 +1778,65 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23EF6288-0CE9-0E4A-963E-F22A33CC5774}">
+  <dimension ref="A1:E1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>260</v>
+      </c>
+      <c r="B1" t="s">
+        <v>261</v>
+      </c>
+      <c r="C1" t="s">
+        <v>262</v>
+      </c>
+      <c r="D1" t="s">
+        <v>266</v>
+      </c>
+      <c r="E1" t="s">
+        <v>267</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAC852F3-4C36-5244-AFD3-7C7A3D7A2244}">
-  <dimension ref="A1:G68"/>
+  <dimension ref="A1:W69"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" zoomScale="99" workbookViewId="0">
-      <selection activeCell="E55" sqref="E55:G55"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C50" sqref="C50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="35.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="37.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="38.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="38.6640625" customWidth="1"/>
+    <col min="11" max="11" width="37.5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="38.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="15" width="38.6640625" customWidth="1"/>
+    <col min="18" max="18" width="22" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="38.6640625" bestFit="1" customWidth="1"/>
+    <col min="20" max="22" width="38.6640625" customWidth="1"/>
+    <col min="23" max="23" width="19.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1350,558 +1844,1813 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>307</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>317</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="K1" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>15</v>
+        <v>269</v>
       </c>
       <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="E2" s="2" t="s">
-        <v>70</v>
-      </c>
+      <c r="C2" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I2" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2"/>
+      <c r="Q2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="W2" s="1" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>315</v>
+      </c>
+      <c r="D3" s="13">
+        <v>11</v>
+      </c>
+      <c r="E3" s="13">
+        <v>63</v>
+      </c>
+      <c r="F3" s="13">
+        <v>0</v>
+      </c>
+      <c r="G3" s="13" t="s">
+        <v>299</v>
+      </c>
+      <c r="J3" t="s">
+        <v>65</v>
+      </c>
+      <c r="L3" s="13"/>
+      <c r="M3" s="13"/>
+      <c r="N3" s="13"/>
+      <c r="O3" s="13"/>
+      <c r="Q3" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="R3" s="2"/>
+      <c r="S3" s="2"/>
+      <c r="T3" s="2"/>
+      <c r="U3" s="2"/>
+      <c r="V3" s="2"/>
+      <c r="W3" s="2"/>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
         <v>6</v>
       </c>
-      <c r="F3" t="s">
+      <c r="C4" s="13" t="s">
+        <v>318</v>
+      </c>
+      <c r="D4" s="13">
+        <v>8</v>
+      </c>
+      <c r="E4" s="13">
+        <v>66</v>
+      </c>
+      <c r="F4" s="13">
+        <v>0</v>
+      </c>
+      <c r="G4" s="13" t="s">
+        <v>299</v>
+      </c>
+      <c r="J4" t="s">
+        <v>66</v>
+      </c>
+      <c r="L4" s="13"/>
+      <c r="M4" s="13"/>
+      <c r="N4" s="13"/>
+      <c r="O4" s="13"/>
+      <c r="R4" s="15" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="13">
+        <v>0</v>
+      </c>
+      <c r="D5" s="13">
+        <v>0</v>
+      </c>
+      <c r="E5" s="13">
+        <v>74</v>
+      </c>
+      <c r="F5" s="13">
+        <v>0</v>
+      </c>
+      <c r="G5" s="13" t="s">
+        <v>299</v>
+      </c>
+      <c r="J5" t="s">
+        <v>67</v>
+      </c>
+      <c r="L5" s="13"/>
+      <c r="M5" s="13"/>
+      <c r="N5" s="13"/>
+      <c r="O5" s="13"/>
+      <c r="R5" s="15" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="13">
+        <v>0</v>
+      </c>
+      <c r="D6" s="13">
+        <v>0</v>
+      </c>
+      <c r="E6" s="13">
+        <v>74</v>
+      </c>
+      <c r="F6" s="13">
+        <v>0</v>
+      </c>
+      <c r="G6" s="13" t="s">
+        <v>299</v>
+      </c>
+      <c r="J6" t="s">
+        <v>68</v>
+      </c>
+      <c r="L6" s="13"/>
+      <c r="M6" s="13"/>
+      <c r="N6" s="13"/>
+      <c r="O6" s="13"/>
+      <c r="R6" s="15" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="13">
+        <v>0</v>
+      </c>
+      <c r="D7" s="13">
+        <v>0</v>
+      </c>
+      <c r="E7" s="13">
+        <v>74</v>
+      </c>
+      <c r="F7" s="13">
+        <v>0</v>
+      </c>
+      <c r="G7" s="13" t="s">
+        <v>299</v>
+      </c>
+      <c r="J7" t="s">
+        <v>69</v>
+      </c>
+      <c r="L7" s="13"/>
+      <c r="M7" s="13"/>
+      <c r="N7" s="13"/>
+      <c r="O7" s="13"/>
+      <c r="R7" s="15" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="13">
+        <v>0</v>
+      </c>
+      <c r="D8" s="13">
+        <v>0</v>
+      </c>
+      <c r="E8" s="13">
+        <v>74</v>
+      </c>
+      <c r="F8" s="13">
+        <v>0</v>
+      </c>
+      <c r="G8" s="13" t="s">
+        <v>299</v>
+      </c>
+      <c r="J8" t="s">
+        <v>70</v>
+      </c>
+      <c r="L8" s="13"/>
+      <c r="M8" s="13"/>
+      <c r="N8" s="13"/>
+      <c r="O8" s="13"/>
+      <c r="Q8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="R8" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="S8" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="T8" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="U8" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="V8" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="W8" s="1" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="B9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="13">
+        <v>0</v>
+      </c>
+      <c r="D9" s="13">
+        <v>0</v>
+      </c>
+      <c r="E9" s="13">
+        <v>74</v>
+      </c>
+      <c r="F9" s="13">
+        <v>0</v>
+      </c>
+      <c r="G9" s="13" t="s">
+        <v>299</v>
+      </c>
+      <c r="J9" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F4" t="s">
+      <c r="L9" s="13"/>
+      <c r="M9" s="13"/>
+      <c r="N9" s="13"/>
+      <c r="O9" s="13"/>
+      <c r="Q9" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="R9" s="2"/>
+      <c r="S9" s="2"/>
+      <c r="T9" s="2"/>
+      <c r="U9" s="2"/>
+      <c r="V9" s="2"/>
+      <c r="W9" s="2"/>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="B10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>319</v>
+      </c>
+      <c r="D10" s="13">
+        <v>11</v>
+      </c>
+      <c r="E10" s="13">
+        <v>63</v>
+      </c>
+      <c r="F10" s="13">
+        <v>0</v>
+      </c>
+      <c r="G10" s="13" t="s">
+        <v>299</v>
+      </c>
+      <c r="J10" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B5" t="s">
+      <c r="L10" s="13"/>
+      <c r="M10" s="13"/>
+      <c r="N10" s="13"/>
+      <c r="O10" s="13"/>
+      <c r="R10" s="15" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="J11" t="s">
+        <v>73</v>
+      </c>
+      <c r="L11" s="13"/>
+      <c r="M11" s="13"/>
+      <c r="N11" s="13"/>
+      <c r="O11" s="13"/>
+      <c r="R11" s="15" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="B12" s="2"/>
+      <c r="C12" s="17" t="s">
+        <v>268</v>
+      </c>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="14"/>
+      <c r="J12" t="s">
+        <v>74</v>
+      </c>
+      <c r="L12" s="13"/>
+      <c r="M12" s="13"/>
+      <c r="N12" s="13"/>
+      <c r="O12" s="13"/>
+      <c r="R12" s="15" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="B13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>320</v>
+      </c>
+      <c r="D13" s="13">
+        <v>15</v>
+      </c>
+      <c r="E13" s="13">
+        <v>59</v>
+      </c>
+      <c r="F13" s="13">
+        <v>0</v>
+      </c>
+      <c r="G13" s="27" t="s">
+        <v>299</v>
+      </c>
+      <c r="J13" t="s">
+        <v>75</v>
+      </c>
+      <c r="L13" s="13"/>
+      <c r="M13" s="13"/>
+      <c r="N13" s="13"/>
+      <c r="O13" s="13"/>
+      <c r="R13" s="15" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="B14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" s="13">
+        <v>0</v>
+      </c>
+      <c r="D14" s="13">
+        <v>0</v>
+      </c>
+      <c r="E14" s="13">
+        <v>74</v>
+      </c>
+      <c r="F14" s="13">
+        <v>0</v>
+      </c>
+      <c r="G14" s="27" t="s">
+        <v>299</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="L14" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="M14" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="N14" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="O14" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="R14" s="15" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="B15" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15" s="13" t="s">
+        <v>336</v>
+      </c>
+      <c r="D15" s="13">
+        <v>4</v>
+      </c>
+      <c r="E15" s="13">
+        <v>70</v>
+      </c>
+      <c r="F15" s="13">
+        <v>0</v>
+      </c>
+      <c r="G15" s="27" t="s">
+        <v>299</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="J15" s="2"/>
+      <c r="K15" s="2"/>
+      <c r="L15" s="2"/>
+      <c r="M15" s="2"/>
+      <c r="N15" s="2"/>
+      <c r="O15" s="2"/>
+      <c r="R15" s="15" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="B16" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>337</v>
+      </c>
+      <c r="D16" s="13">
+        <v>26</v>
+      </c>
+      <c r="E16" s="13">
+        <v>48</v>
+      </c>
+      <c r="F16" s="13">
+        <v>0</v>
+      </c>
+      <c r="G16" s="27" t="s">
+        <v>299</v>
+      </c>
+      <c r="J16" t="s">
+        <v>77</v>
+      </c>
+      <c r="L16" s="13"/>
+      <c r="M16" s="13"/>
+      <c r="N16" s="13"/>
+      <c r="O16" s="13"/>
+      <c r="R16" s="15" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="B17" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" s="13" t="s">
+        <v>338</v>
+      </c>
+      <c r="D17" s="13">
+        <v>69</v>
+      </c>
+      <c r="E17" s="13">
+        <v>5</v>
+      </c>
+      <c r="F17" s="13">
+        <v>0</v>
+      </c>
+      <c r="G17" s="27" t="s">
+        <v>299</v>
+      </c>
+      <c r="J17" t="s">
+        <v>78</v>
+      </c>
+      <c r="L17" s="13"/>
+      <c r="M17" s="13"/>
+      <c r="N17" s="13"/>
+      <c r="O17" s="13"/>
+      <c r="R17" s="15" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="B18" t="s">
+        <v>17</v>
+      </c>
+      <c r="C18" s="13" t="s">
+        <v>339</v>
+      </c>
+      <c r="D18" s="13">
+        <v>15</v>
+      </c>
+      <c r="E18" s="13">
+        <v>59</v>
+      </c>
+      <c r="F18" s="13">
+        <v>0</v>
+      </c>
+      <c r="G18" s="27" t="s">
+        <v>299</v>
+      </c>
+      <c r="J18" t="s">
+        <v>79</v>
+      </c>
+      <c r="L18" s="13"/>
+      <c r="M18" s="13"/>
+      <c r="N18" s="13"/>
+      <c r="O18" s="13"/>
+      <c r="R18" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="J19" t="s">
+        <v>80</v>
+      </c>
+      <c r="L19" s="13"/>
+      <c r="M19" s="13"/>
+      <c r="N19" s="13"/>
+      <c r="O19" s="13"/>
+      <c r="Q19" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="R19" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="S19" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="T19" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="U19" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="V19" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="W19" s="1" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A20" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="B20" s="2"/>
+      <c r="C20" s="17" t="s">
+        <v>268</v>
+      </c>
+      <c r="D20" s="14"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="14"/>
+      <c r="G20" s="14"/>
+      <c r="J20" t="s">
+        <v>81</v>
+      </c>
+      <c r="L20" s="13"/>
+      <c r="M20" s="13"/>
+      <c r="N20" s="13"/>
+      <c r="O20" s="13"/>
+      <c r="Q20" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="R20" s="2"/>
+      <c r="S20" s="2"/>
+      <c r="T20" s="2"/>
+      <c r="U20" s="2"/>
+      <c r="V20" s="2"/>
+      <c r="W20" s="2"/>
+    </row>
+    <row r="21" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="B21" t="s">
+        <v>2</v>
+      </c>
+      <c r="C21" s="13" t="s">
+        <v>340</v>
+      </c>
+      <c r="D21" s="13">
+        <v>2</v>
+      </c>
+      <c r="E21" s="13">
+        <v>72</v>
+      </c>
+      <c r="F21" s="13">
+        <v>0</v>
+      </c>
+      <c r="G21" s="13" t="s">
+        <v>306</v>
+      </c>
+      <c r="J21" t="s">
+        <v>82</v>
+      </c>
+      <c r="L21" s="13"/>
+      <c r="M21" s="13"/>
+      <c r="N21" s="13"/>
+      <c r="O21" s="13"/>
+      <c r="R21" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="B22" t="s">
+        <v>3</v>
+      </c>
+      <c r="C22" s="13" t="s">
+        <v>341</v>
+      </c>
+      <c r="D22" s="13">
+        <v>14</v>
+      </c>
+      <c r="E22" s="13">
+        <v>60</v>
+      </c>
+      <c r="F22" s="13">
+        <v>0</v>
+      </c>
+      <c r="G22" s="13" t="s">
+        <v>306</v>
+      </c>
+      <c r="J22" t="s">
+        <v>83</v>
+      </c>
+      <c r="L22" s="13"/>
+      <c r="M22" s="13"/>
+      <c r="N22" s="13"/>
+      <c r="O22" s="13"/>
+      <c r="R22" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="B23" t="s">
+        <v>4</v>
+      </c>
+      <c r="C23" s="13" t="s">
+        <v>342</v>
+      </c>
+      <c r="D23" s="13">
+        <v>1</v>
+      </c>
+      <c r="E23" s="13">
+        <v>73</v>
+      </c>
+      <c r="F23" s="13">
+        <v>0</v>
+      </c>
+      <c r="G23" s="13" t="s">
+        <v>306</v>
+      </c>
+      <c r="J23" t="s">
+        <v>84</v>
+      </c>
+      <c r="L23" s="13"/>
+      <c r="M23" s="13"/>
+      <c r="N23" s="13"/>
+      <c r="O23" s="13"/>
+      <c r="R23" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="J24" t="s">
+        <v>85</v>
+      </c>
+      <c r="L24" s="13"/>
+      <c r="M24" s="13"/>
+      <c r="N24" s="13"/>
+      <c r="O24" s="13"/>
+      <c r="R24" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A25" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="B25" s="2"/>
+      <c r="C25" s="17" t="s">
+        <v>268</v>
+      </c>
+      <c r="D25" s="14"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="14"/>
+      <c r="G25" s="14"/>
+      <c r="J25" t="s">
+        <v>86</v>
+      </c>
+      <c r="L25" s="13"/>
+      <c r="M25" s="13"/>
+      <c r="N25" s="13"/>
+      <c r="O25" s="13"/>
+      <c r="R25" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="B26" t="s">
+        <v>28</v>
+      </c>
+      <c r="C26" s="13" t="s">
+        <v>343</v>
+      </c>
+      <c r="D26" s="13">
+        <v>23</v>
+      </c>
+      <c r="E26" s="13">
+        <v>51</v>
+      </c>
+      <c r="F26" s="13">
+        <v>0</v>
+      </c>
+      <c r="G26" s="13" t="s">
+        <v>299</v>
+      </c>
+      <c r="J26" t="s">
+        <v>87</v>
+      </c>
+      <c r="L26" s="13"/>
+      <c r="M26" s="13"/>
+      <c r="N26" s="13"/>
+      <c r="O26" s="13"/>
+    </row>
+    <row r="27" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="B27" t="s">
+        <v>27</v>
+      </c>
+      <c r="C27" s="13" t="s">
+        <v>344</v>
+      </c>
+      <c r="D27" s="13">
+        <v>2</v>
+      </c>
+      <c r="E27" s="13">
+        <v>72</v>
+      </c>
+      <c r="F27" s="13">
+        <v>0</v>
+      </c>
+      <c r="G27" s="13" t="s">
+        <v>299</v>
+      </c>
+      <c r="J27" t="s">
+        <v>88</v>
+      </c>
+      <c r="L27" s="13"/>
+      <c r="M27" s="13"/>
+      <c r="N27" s="13"/>
+      <c r="O27" s="13"/>
+    </row>
+    <row r="28" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="B28" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C28" s="13">
+        <v>0</v>
+      </c>
+      <c r="D28" s="13">
+        <v>0</v>
+      </c>
+      <c r="E28" s="13">
+        <v>0</v>
+      </c>
+      <c r="F28" s="13">
+        <v>74</v>
+      </c>
+      <c r="G28" s="13" t="s">
+        <v>299</v>
+      </c>
+      <c r="J28" t="s">
+        <v>89</v>
+      </c>
+      <c r="L28" s="13"/>
+      <c r="M28" s="13"/>
+      <c r="N28" s="13"/>
+      <c r="O28" s="13"/>
+    </row>
+    <row r="29" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="B29" t="s">
+        <v>34</v>
+      </c>
+      <c r="C29" s="13" t="s">
+        <v>311</v>
+      </c>
+      <c r="D29" s="13">
+        <v>11</v>
+      </c>
+      <c r="E29" s="13">
+        <v>63</v>
+      </c>
+      <c r="F29" s="13">
+        <v>0</v>
+      </c>
+      <c r="G29" s="13" t="s">
+        <v>299</v>
+      </c>
+      <c r="J29" t="s">
+        <v>90</v>
+      </c>
+      <c r="L29" s="13"/>
+      <c r="M29" s="13"/>
+      <c r="N29" s="13"/>
+      <c r="O29" s="13"/>
+    </row>
+    <row r="30" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="B30" t="s">
+        <v>30</v>
+      </c>
+      <c r="C30" s="13" t="s">
+        <v>312</v>
+      </c>
+      <c r="D30" s="13">
+        <v>19</v>
+      </c>
+      <c r="E30" s="13">
+        <v>55</v>
+      </c>
+      <c r="F30" s="13">
+        <v>0</v>
+      </c>
+      <c r="G30" s="13" t="s">
+        <v>299</v>
+      </c>
+      <c r="J30" t="s">
+        <v>91</v>
+      </c>
+      <c r="L30" s="13"/>
+      <c r="M30" s="13"/>
+      <c r="N30" s="13"/>
+      <c r="O30" s="13"/>
+    </row>
+    <row r="31" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="B31" t="s">
+        <v>23</v>
+      </c>
+      <c r="C31" s="19" t="s">
+        <v>313</v>
+      </c>
+      <c r="D31" s="13">
+        <v>21</v>
+      </c>
+      <c r="E31" s="13">
+        <v>53</v>
+      </c>
+      <c r="F31" s="13">
+        <v>0</v>
+      </c>
+      <c r="G31" s="13" t="s">
+        <v>306</v>
+      </c>
+      <c r="J31" t="s">
+        <v>92</v>
+      </c>
+      <c r="L31" s="13"/>
+      <c r="M31" s="13"/>
+      <c r="N31" s="13"/>
+      <c r="O31" s="13"/>
+    </row>
+    <row r="32" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="B32" t="s">
+        <v>40</v>
+      </c>
+      <c r="C32" s="13" t="s">
+        <v>308</v>
+      </c>
+      <c r="D32" s="13">
+        <v>74</v>
+      </c>
+      <c r="E32" s="13">
+        <v>0</v>
+      </c>
+      <c r="F32" s="13">
+        <v>0</v>
+      </c>
+      <c r="G32" s="13" t="s">
+        <v>306</v>
+      </c>
+      <c r="J32" t="s">
+        <v>93</v>
+      </c>
+      <c r="L32" s="13"/>
+      <c r="M32" s="13"/>
+      <c r="N32" s="13"/>
+      <c r="O32" s="13"/>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B33" t="s">
+        <v>35</v>
+      </c>
+      <c r="C33" s="13" t="s">
+        <v>345</v>
+      </c>
+      <c r="D33" s="13">
+        <v>23</v>
+      </c>
+      <c r="E33" s="13">
+        <v>51</v>
+      </c>
+      <c r="F33" s="13">
+        <v>0</v>
+      </c>
+      <c r="G33" s="13" t="s">
+        <v>299</v>
+      </c>
+      <c r="J33" t="s">
+        <v>94</v>
+      </c>
+      <c r="L33" s="13"/>
+      <c r="M33" s="13"/>
+      <c r="N33" s="13"/>
+      <c r="O33" s="13"/>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B34" t="s">
+        <v>31</v>
+      </c>
+      <c r="C34" s="13" t="s">
+        <v>314</v>
+      </c>
+      <c r="D34" s="13">
+        <v>40</v>
+      </c>
+      <c r="E34" s="13">
+        <v>34</v>
+      </c>
+      <c r="F34" s="13">
+        <v>0</v>
+      </c>
+      <c r="G34" s="13" t="s">
+        <v>299</v>
+      </c>
+      <c r="J34" t="s">
+        <v>95</v>
+      </c>
+      <c r="L34" s="13"/>
+      <c r="M34" s="13"/>
+      <c r="N34" s="13"/>
+      <c r="O34" s="13"/>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B35" t="s">
+        <v>24</v>
+      </c>
+      <c r="C35" s="13" t="s">
+        <v>346</v>
+      </c>
+      <c r="D35" s="13">
+        <v>72</v>
+      </c>
+      <c r="E35" s="13">
+        <v>2</v>
+      </c>
+      <c r="F35" s="13">
+        <v>0</v>
+      </c>
+      <c r="G35" s="13" t="s">
+        <v>306</v>
+      </c>
+      <c r="J35" t="s">
+        <v>96</v>
+      </c>
+      <c r="L35" s="13"/>
+      <c r="M35" s="13"/>
+      <c r="N35" s="13"/>
+      <c r="O35" s="13"/>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B36" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="C36" s="13" t="s">
+        <v>349</v>
+      </c>
+      <c r="D36" s="13">
+        <v>60</v>
+      </c>
+      <c r="E36" s="13">
+        <v>14</v>
+      </c>
+      <c r="F36" s="13">
+        <v>0</v>
+      </c>
+      <c r="G36" s="13" t="s">
+        <v>306</v>
+      </c>
+      <c r="J36" t="s">
+        <v>97</v>
+      </c>
+      <c r="L36" s="13"/>
+      <c r="M36" s="13"/>
+      <c r="N36" s="13"/>
+      <c r="O36" s="13"/>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B37" t="s">
+        <v>36</v>
+      </c>
+      <c r="C37" s="18" t="s">
+        <v>350</v>
+      </c>
+      <c r="D37" s="13">
+        <v>27</v>
+      </c>
+      <c r="E37" s="13">
+        <v>47</v>
+      </c>
+      <c r="F37" s="13">
+        <v>0</v>
+      </c>
+      <c r="G37" s="13" t="s">
+        <v>299</v>
+      </c>
+      <c r="J37" t="s">
+        <v>98</v>
+      </c>
+      <c r="L37" s="13"/>
+      <c r="M37" s="13"/>
+      <c r="N37" s="13"/>
+      <c r="O37" s="13"/>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B38" t="s">
+        <v>32</v>
+      </c>
+      <c r="C38" s="13" t="s">
+        <v>310</v>
+      </c>
+      <c r="D38" s="13">
+        <v>46</v>
+      </c>
+      <c r="E38" s="13">
+        <v>28</v>
+      </c>
+      <c r="F38" s="13">
+        <v>0</v>
+      </c>
+      <c r="G38" s="13" t="s">
+        <v>299</v>
+      </c>
+      <c r="J38" t="s">
+        <v>99</v>
+      </c>
+      <c r="L38" s="13"/>
+      <c r="M38" s="13"/>
+      <c r="N38" s="13"/>
+      <c r="O38" s="13"/>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B39" t="s">
+        <v>25</v>
+      </c>
+      <c r="C39" s="13" t="s">
+        <v>351</v>
+      </c>
+      <c r="D39" s="13">
+        <v>23</v>
+      </c>
+      <c r="E39" s="13">
+        <v>51</v>
+      </c>
+      <c r="F39" s="13">
+        <v>0</v>
+      </c>
+      <c r="G39" s="13" t="s">
+        <v>306</v>
+      </c>
+      <c r="J39" t="s">
+        <v>100</v>
+      </c>
+      <c r="L39" s="13"/>
+      <c r="M39" s="13"/>
+      <c r="N39" s="13"/>
+      <c r="O39" s="13"/>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B40" t="s">
+        <v>42</v>
+      </c>
+      <c r="C40" s="13" t="s">
+        <v>352</v>
+      </c>
+      <c r="D40" s="13">
+        <v>73</v>
+      </c>
+      <c r="E40" s="13">
+        <v>1</v>
+      </c>
+      <c r="F40" s="13">
+        <v>0</v>
+      </c>
+      <c r="G40" s="13" t="s">
+        <v>306</v>
+      </c>
+      <c r="J40" t="s">
+        <v>101</v>
+      </c>
+      <c r="L40" s="13"/>
+      <c r="M40" s="13"/>
+      <c r="N40" s="13"/>
+      <c r="O40" s="13"/>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B41" t="s">
+        <v>37</v>
+      </c>
+      <c r="C41" s="13" t="s">
+        <v>353</v>
+      </c>
+      <c r="D41" s="13">
+        <v>19</v>
+      </c>
+      <c r="E41" s="13">
+        <v>55</v>
+      </c>
+      <c r="F41" s="13">
+        <v>0</v>
+      </c>
+      <c r="G41" s="13" t="s">
+        <v>299</v>
+      </c>
+      <c r="J41" t="s">
+        <v>102</v>
+      </c>
+      <c r="L41" s="13"/>
+      <c r="M41" s="13"/>
+      <c r="N41" s="13"/>
+      <c r="O41" s="13"/>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B42" t="s">
+        <v>26</v>
+      </c>
+      <c r="C42" s="13" t="s">
+        <v>354</v>
+      </c>
+      <c r="D42" s="13">
+        <v>48</v>
+      </c>
+      <c r="E42" s="13">
+        <v>25</v>
+      </c>
+      <c r="F42" s="13">
+        <v>1</v>
+      </c>
+      <c r="G42" s="13" t="s">
+        <v>306</v>
+      </c>
+      <c r="J42" t="s">
+        <v>103</v>
+      </c>
+      <c r="L42" s="13"/>
+      <c r="M42" s="13"/>
+      <c r="N42" s="13"/>
+      <c r="O42" s="13"/>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B43" t="s">
+        <v>43</v>
+      </c>
+      <c r="C43" s="13" t="s">
+        <v>355</v>
+      </c>
+      <c r="D43" s="13">
+        <v>73</v>
+      </c>
+      <c r="E43" s="13">
+        <v>1</v>
+      </c>
+      <c r="F43" s="13">
+        <v>0</v>
+      </c>
+      <c r="G43" s="13" t="s">
+        <v>306</v>
+      </c>
+      <c r="J43" t="s">
+        <v>104</v>
+      </c>
+      <c r="L43" s="13"/>
+      <c r="M43" s="13"/>
+      <c r="N43" s="13"/>
+      <c r="O43" s="13"/>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B44" t="s">
+        <v>33</v>
+      </c>
+      <c r="C44" s="13" t="s">
+        <v>356</v>
+      </c>
+      <c r="D44" s="13">
         <v>8</v>
       </c>
-      <c r="F5" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F6" t="s">
+      <c r="E44" s="13">
+        <v>66</v>
+      </c>
+      <c r="F44" s="13">
+        <v>0</v>
+      </c>
+      <c r="G44" s="13" t="s">
+        <v>299</v>
+      </c>
+      <c r="J44" t="s">
+        <v>105</v>
+      </c>
+      <c r="L44" s="13"/>
+      <c r="M44" s="13"/>
+      <c r="N44" s="13"/>
+      <c r="O44" s="13"/>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B45" t="s">
+        <v>29</v>
+      </c>
+      <c r="C45" s="13" t="s">
+        <v>357</v>
+      </c>
+      <c r="D45" s="13">
+        <v>31</v>
+      </c>
+      <c r="E45" s="13">
+        <v>43</v>
+      </c>
+      <c r="F45" s="13">
+        <v>0</v>
+      </c>
+      <c r="G45" s="13" t="s">
+        <v>299</v>
+      </c>
+      <c r="J45" t="s">
+        <v>106</v>
+      </c>
+      <c r="L45" s="13"/>
+      <c r="M45" s="13"/>
+      <c r="N45" s="13"/>
+      <c r="O45" s="13"/>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B46" t="s">
+        <v>22</v>
+      </c>
+      <c r="C46" s="13" t="s">
+        <v>358</v>
+      </c>
+      <c r="D46" s="13">
+        <v>10</v>
+      </c>
+      <c r="E46" s="13">
+        <v>64</v>
+      </c>
+      <c r="F46" s="13">
+        <v>0</v>
+      </c>
+      <c r="G46" s="13" t="s">
+        <v>299</v>
+      </c>
+      <c r="J46" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B47" s="29" t="s">
+        <v>38</v>
+      </c>
+      <c r="C47" s="13" t="s">
+        <v>359</v>
+      </c>
+      <c r="D47" s="13">
         <v>74</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F7" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B8" t="s">
-        <v>11</v>
-      </c>
-      <c r="F8" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F9" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B10" t="s">
-        <v>13</v>
-      </c>
-      <c r="F10" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="F11" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B12" t="s">
-        <v>16</v>
-      </c>
-      <c r="F12" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B13" t="s">
-        <v>17</v>
-      </c>
-      <c r="F13" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B14" t="s">
-        <v>18</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B15" t="s">
-        <v>19</v>
-      </c>
-      <c r="F15" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B16" t="s">
-        <v>20</v>
-      </c>
-      <c r="F16" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B17" t="s">
-        <v>21</v>
-      </c>
-      <c r="F17" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A18" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="F18" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B19" t="s">
-        <v>3</v>
-      </c>
-      <c r="F19" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B20" t="s">
-        <v>4</v>
-      </c>
-      <c r="F20" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B21" t="s">
-        <v>5</v>
-      </c>
-      <c r="F21" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A22" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="F22" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B23" t="s">
-        <v>30</v>
-      </c>
-      <c r="F23" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B24" t="s">
-        <v>29</v>
-      </c>
-      <c r="F24" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B25" t="s">
-        <v>41</v>
-      </c>
-      <c r="F25" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B26" t="s">
-        <v>36</v>
-      </c>
-      <c r="F26" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B27" t="s">
-        <v>32</v>
-      </c>
-      <c r="F27" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B28" t="s">
-        <v>25</v>
-      </c>
-      <c r="F28" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B29" t="s">
-        <v>42</v>
-      </c>
-      <c r="F29" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B30" t="s">
-        <v>37</v>
-      </c>
-      <c r="F30" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B31" t="s">
-        <v>33</v>
-      </c>
-      <c r="F31" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B32" t="s">
-        <v>26</v>
-      </c>
-      <c r="F32" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B33" t="s">
-        <v>43</v>
-      </c>
-      <c r="F33" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B34" t="s">
-        <v>38</v>
-      </c>
-      <c r="F34" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B35" t="s">
-        <v>34</v>
-      </c>
-      <c r="F35" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B36" t="s">
-        <v>27</v>
-      </c>
-      <c r="F36" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B37" t="s">
+      <c r="E47" s="13">
+        <v>0</v>
+      </c>
+      <c r="F47" s="13">
+        <v>0</v>
+      </c>
+      <c r="G47" s="13" t="s">
+        <v>306</v>
+      </c>
+      <c r="J47" t="s">
+        <v>108</v>
+      </c>
+      <c r="L47" s="13"/>
+      <c r="M47" s="13"/>
+      <c r="N47" s="13"/>
+      <c r="O47" s="13"/>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A48" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="J48" t="s">
+        <v>109</v>
+      </c>
+      <c r="L48" s="13"/>
+      <c r="M48" s="13"/>
+      <c r="N48" s="13"/>
+      <c r="O48" s="13"/>
+    </row>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A49" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="B49" s="2"/>
+      <c r="C49" s="14"/>
+      <c r="D49" s="14"/>
+      <c r="E49" s="14"/>
+      <c r="F49" s="14"/>
+      <c r="G49" s="14"/>
+      <c r="J49" t="s">
+        <v>110</v>
+      </c>
+      <c r="L49" s="13"/>
+      <c r="M49" s="13"/>
+      <c r="N49" s="13"/>
+      <c r="O49" s="13"/>
+    </row>
+    <row r="50" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B50" t="s">
+        <v>50</v>
+      </c>
+      <c r="C50" s="13"/>
+      <c r="D50" s="13"/>
+      <c r="E50" s="13"/>
+      <c r="F50" s="13"/>
+      <c r="G50" s="13"/>
+      <c r="J50" t="s">
+        <v>111</v>
+      </c>
+      <c r="L50" s="13"/>
+      <c r="M50" s="13"/>
+      <c r="N50" s="13"/>
+      <c r="O50" s="13"/>
+    </row>
+    <row r="51" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B51" t="s">
+        <v>59</v>
+      </c>
+      <c r="C51" s="13"/>
+      <c r="D51" s="13"/>
+      <c r="E51" s="13"/>
+      <c r="F51" s="13"/>
+      <c r="G51" s="13"/>
+      <c r="J51" t="s">
+        <v>112</v>
+      </c>
+      <c r="L51" s="13"/>
+      <c r="M51" s="13"/>
+      <c r="N51" s="13"/>
+      <c r="O51" s="13"/>
+    </row>
+    <row r="52" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B52" t="s">
+        <v>56</v>
+      </c>
+      <c r="C52" s="13"/>
+      <c r="D52" s="13"/>
+      <c r="E52" s="13"/>
+      <c r="F52" s="13"/>
+      <c r="G52" s="13"/>
+      <c r="J52" t="s">
+        <v>113</v>
+      </c>
+      <c r="L52" s="13"/>
+      <c r="M52" s="13"/>
+      <c r="N52" s="13"/>
+      <c r="O52" s="13"/>
+    </row>
+    <row r="53" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B53" t="s">
+        <v>58</v>
+      </c>
+      <c r="C53" s="13"/>
+      <c r="D53" s="13"/>
+      <c r="E53" s="13"/>
+      <c r="F53" s="13"/>
+      <c r="G53" s="13"/>
+      <c r="J53" t="s">
+        <v>114</v>
+      </c>
+      <c r="L53" s="13"/>
+      <c r="M53" s="13"/>
+      <c r="N53" s="13"/>
+      <c r="O53" s="13"/>
+    </row>
+    <row r="54" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B54" t="s">
+        <v>63</v>
+      </c>
+      <c r="C54" s="13"/>
+      <c r="D54" s="13"/>
+      <c r="E54" s="13"/>
+      <c r="F54" s="13"/>
+      <c r="G54" s="13"/>
+      <c r="J54" t="s">
+        <v>115</v>
+      </c>
+      <c r="L54" s="13"/>
+      <c r="M54" s="13"/>
+      <c r="N54" s="13"/>
+      <c r="O54" s="13"/>
+    </row>
+    <row r="55" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B55" t="s">
+        <v>57</v>
+      </c>
+      <c r="C55" s="13"/>
+      <c r="D55" s="13"/>
+      <c r="E55" s="13"/>
+      <c r="F55" s="13"/>
+      <c r="G55" s="13"/>
+      <c r="J55" t="s">
+        <v>116</v>
+      </c>
+      <c r="L55" s="13"/>
+      <c r="M55" s="13"/>
+      <c r="N55" s="13"/>
+      <c r="O55" s="13"/>
+    </row>
+    <row r="56" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B56" t="s">
+        <v>52</v>
+      </c>
+      <c r="C56" s="13"/>
+      <c r="D56" s="13"/>
+      <c r="E56" s="13"/>
+      <c r="F56" s="13"/>
+      <c r="G56" s="13"/>
+      <c r="I56" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J56" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="K56" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="L56" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="M56" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="N56" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="O56" s="1" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B57" t="s">
+        <v>46</v>
+      </c>
+      <c r="C57" s="13"/>
+      <c r="D57" s="13"/>
+      <c r="E57" s="13"/>
+      <c r="F57" s="13"/>
+      <c r="G57" s="13"/>
+      <c r="I57" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="J57" s="2"/>
+      <c r="K57" s="2"/>
+      <c r="L57" s="14"/>
+      <c r="M57" s="14"/>
+      <c r="N57" s="14"/>
+      <c r="O57" s="14"/>
+    </row>
+    <row r="58" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B58" t="s">
+        <v>53</v>
+      </c>
+      <c r="C58" s="13"/>
+      <c r="D58" s="13"/>
+      <c r="E58" s="13"/>
+      <c r="F58" s="13"/>
+      <c r="G58" s="13"/>
+      <c r="J58" t="s">
+        <v>117</v>
+      </c>
+      <c r="L58" s="13"/>
+      <c r="M58" s="13"/>
+      <c r="N58" s="13"/>
+      <c r="O58" s="13"/>
+    </row>
+    <row r="59" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B59" t="s">
+        <v>47</v>
+      </c>
+      <c r="C59" s="13"/>
+      <c r="D59" s="13"/>
+      <c r="E59" s="13"/>
+      <c r="F59" s="13"/>
+      <c r="G59" s="13"/>
+      <c r="J59" t="s">
+        <v>118</v>
+      </c>
+      <c r="L59" s="13"/>
+      <c r="M59" s="13"/>
+      <c r="N59" s="13"/>
+      <c r="O59" s="13"/>
+    </row>
+    <row r="60" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B60" t="s">
+        <v>54</v>
+      </c>
+      <c r="C60" s="13"/>
+      <c r="D60" s="13"/>
+      <c r="E60" s="13"/>
+      <c r="F60" s="13"/>
+      <c r="G60" s="13"/>
+      <c r="J60" t="s">
+        <v>119</v>
+      </c>
+      <c r="L60" s="13"/>
+      <c r="M60" s="13"/>
+      <c r="N60" s="13"/>
+      <c r="O60" s="13"/>
+    </row>
+    <row r="61" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B61" t="s">
+        <v>48</v>
+      </c>
+      <c r="C61" s="13"/>
+      <c r="D61" s="13"/>
+      <c r="E61" s="13"/>
+      <c r="F61" s="13"/>
+      <c r="G61" s="13"/>
+      <c r="J61" t="s">
+        <v>120</v>
+      </c>
+      <c r="L61" s="13"/>
+      <c r="M61" s="13"/>
+      <c r="N61" s="13"/>
+      <c r="O61" s="13"/>
+    </row>
+    <row r="62" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B62" t="s">
+        <v>55</v>
+      </c>
+      <c r="C62" s="13"/>
+      <c r="D62" s="13"/>
+      <c r="E62" s="13"/>
+      <c r="F62" s="13"/>
+      <c r="G62" s="13"/>
+      <c r="J62" t="s">
+        <v>121</v>
+      </c>
+      <c r="L62" s="13"/>
+      <c r="M62" s="13"/>
+      <c r="N62" s="13"/>
+      <c r="O62" s="13"/>
+    </row>
+    <row r="63" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B63" t="s">
+        <v>49</v>
+      </c>
+      <c r="C63" s="13"/>
+      <c r="D63" s="13"/>
+      <c r="E63" s="13"/>
+      <c r="F63" s="13"/>
+      <c r="G63" s="13"/>
+      <c r="J63" t="s">
+        <v>122</v>
+      </c>
+      <c r="L63" s="13"/>
+      <c r="M63" s="13"/>
+      <c r="N63" s="13"/>
+      <c r="O63" s="13"/>
+    </row>
+    <row r="64" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B64" t="s">
+        <v>51</v>
+      </c>
+      <c r="C64" s="13"/>
+      <c r="D64" s="13"/>
+      <c r="E64" s="13"/>
+      <c r="F64" s="13"/>
+      <c r="G64" s="13"/>
+      <c r="L64" s="13"/>
+      <c r="M64" s="13"/>
+      <c r="N64" s="13"/>
+      <c r="O64" s="13"/>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B65" t="s">
+        <v>62</v>
+      </c>
+      <c r="C65" s="13"/>
+      <c r="D65" s="13"/>
+      <c r="E65" s="13"/>
+      <c r="F65" s="13"/>
+      <c r="G65" s="13"/>
+      <c r="L65" s="13"/>
+      <c r="M65" s="13"/>
+      <c r="N65" s="13"/>
+      <c r="O65" s="13"/>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B66" t="s">
         <v>44</v>
       </c>
-      <c r="F37" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B38" t="s">
-        <v>39</v>
-      </c>
-      <c r="F38" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B39" t="s">
-        <v>28</v>
-      </c>
-      <c r="F39" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B40" t="s">
+      <c r="C66" s="13"/>
+      <c r="D66" s="13"/>
+      <c r="E66" s="13"/>
+      <c r="F66" s="13"/>
+      <c r="G66" s="13"/>
+      <c r="L66" s="13"/>
+      <c r="M66" s="13"/>
+      <c r="N66" s="13"/>
+      <c r="O66" s="13"/>
+    </row>
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B67" t="s">
+        <v>61</v>
+      </c>
+      <c r="C67" s="13"/>
+      <c r="D67" s="13"/>
+      <c r="E67" s="13"/>
+      <c r="F67" s="13"/>
+      <c r="G67" s="13"/>
+      <c r="L67" s="13"/>
+      <c r="M67" s="13"/>
+      <c r="N67" s="13"/>
+      <c r="O67" s="13"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B68" t="s">
+        <v>60</v>
+      </c>
+      <c r="C68" s="13"/>
+      <c r="D68" s="13"/>
+      <c r="E68" s="13"/>
+      <c r="F68" s="13"/>
+      <c r="G68" s="13"/>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B69" t="s">
         <v>45</v>
       </c>
-      <c r="F40" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B41" t="s">
-        <v>35</v>
-      </c>
-      <c r="F41" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B42" t="s">
-        <v>31</v>
-      </c>
-      <c r="F42" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B43" t="s">
-        <v>24</v>
-      </c>
-      <c r="F43" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B44" t="s">
-        <v>40</v>
-      </c>
-      <c r="F44" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A45" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B45" s="2"/>
-      <c r="C45" s="2"/>
-      <c r="F45" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B46" t="s">
-        <v>53</v>
-      </c>
-      <c r="F46" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B47" t="s">
-        <v>62</v>
-      </c>
-      <c r="F47" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B48" t="s">
-        <v>59</v>
-      </c>
-      <c r="F48" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="49" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B49" t="s">
-        <v>61</v>
-      </c>
-      <c r="F49" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="50" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B50" t="s">
-        <v>66</v>
-      </c>
-      <c r="F50" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="51" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B51" t="s">
-        <v>60</v>
-      </c>
-      <c r="F51" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="52" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B52" t="s">
-        <v>68</v>
-      </c>
-      <c r="F52" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="53" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B53" t="s">
-        <v>55</v>
-      </c>
-      <c r="F53" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="54" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B54" t="s">
-        <v>49</v>
-      </c>
-      <c r="F54" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="55" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B55" t="s">
-        <v>56</v>
-      </c>
-      <c r="E55" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="F55" s="2"/>
-      <c r="G55" s="2"/>
-    </row>
-    <row r="56" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B56" t="s">
-        <v>50</v>
-      </c>
-      <c r="F56" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="57" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B57" t="s">
-        <v>57</v>
-      </c>
-      <c r="F57" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="58" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B58" t="s">
-        <v>51</v>
-      </c>
-      <c r="F58" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="59" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B59" t="s">
-        <v>58</v>
-      </c>
-      <c r="F59" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="60" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B60" t="s">
-        <v>52</v>
-      </c>
-      <c r="F60" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="61" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B61" t="s">
-        <v>54</v>
-      </c>
-      <c r="F61" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="62" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B62" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="63" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B63" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="64" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B64" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="65" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B65" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="66" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B66" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="67" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B67" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="68" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B68" t="s">
-        <v>48</v>
-      </c>
+      <c r="C69" s="13"/>
+      <c r="D69" s="13"/>
+      <c r="E69" s="13"/>
+      <c r="F69" s="13"/>
+      <c r="G69" s="13"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B46:B68">
-    <sortCondition ref="B46:B68"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B50:B69">
+    <sortCondition ref="B50:B69"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DC38454-BABA-6748-BCE4-7657067C7BC4}">
   <dimension ref="A1:X3"/>
   <sheetViews>
@@ -1935,87 +3684,87 @@
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="F1" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="K1" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="P1" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="U1" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="B2" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="C2" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="D2" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="F2" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="G2" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="H2" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="I2" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="N2" s="3" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="O2" s="10"/>
       <c r="P2" s="3" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="Q2" s="3" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="R2" s="3" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="S2" s="3" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="U2" s="3" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="V2" s="3" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="W2" s="3" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="X2" s="3" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A3" s="9" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="B3" s="9"/>
       <c r="C3" s="9"/>
@@ -2042,7 +3791,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1164540B-E78A-5C4C-B904-DC87BC623030}">
   <dimension ref="A1:AC107"/>
   <sheetViews>
@@ -2060,55 +3809,55 @@
   <sheetData>
     <row r="1" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="B1" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="G1" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="M1" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="S1" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="Y1" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
     </row>
     <row r="2" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
       <c r="G2" s="2" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
       <c r="M2" s="2" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
       <c r="P2" s="2"/>
       <c r="Q2" s="2"/>
       <c r="S2" s="2" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="T2" s="2"/>
       <c r="U2" s="2"/>
       <c r="V2" s="2"/>
       <c r="W2" s="2"/>
       <c r="Y2" s="2" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="Z2" s="2"/>
       <c r="AA2" s="2"/>
@@ -2117,79 +3866,79 @@
     </row>
     <row r="3" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="I3" s="7" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="J3" s="7" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="K3" s="7" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="M3" s="7" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="N3" s="7" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="O3" s="7" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="P3" s="7" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="Q3" s="7" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="S3" s="7" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="T3" s="7" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="U3" s="7" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="V3" s="7" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="W3" s="7" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="Y3" s="7" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="Z3" s="7" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="AA3" s="7" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="AB3" s="7" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="AC3" s="7" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
     </row>
     <row r="4" spans="1:29" x14ac:dyDescent="0.2">
@@ -2203,16 +3952,16 @@
         <v>2.9999999999999997E-4</v>
       </c>
       <c r="D4" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="E4" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="G4" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="H4" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="I4">
         <v>3.1800000000000002E-2</v>
@@ -2227,25 +3976,25 @@
         <v>2.0000000000000001E-4</v>
       </c>
       <c r="P4" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="Q4" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="S4" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="T4" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="U4" s="4">
         <v>1.11170284089468E-9</v>
       </c>
       <c r="V4" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="W4" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="Y4" s="3">
         <v>11</v>
@@ -2257,10 +4006,10 @@
         <v>1.08759E-3</v>
       </c>
       <c r="AB4" s="3" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="AC4" s="3" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
     </row>
     <row r="5" spans="1:29" x14ac:dyDescent="0.2">
@@ -2274,16 +4023,16 @@
         <v>5.9999999999999995E-4</v>
       </c>
       <c r="D5" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="E5" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="G5" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="H5" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="I5">
         <v>4.9000000000000002E-2</v>
@@ -2298,25 +4047,25 @@
         <v>1.1000000000000001E-3</v>
       </c>
       <c r="P5" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="Q5" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="S5" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="T5" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="U5" s="4">
         <v>1.8098114451525799E-8</v>
       </c>
       <c r="V5" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="W5" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="Y5" s="3">
         <v>12</v>
@@ -2328,10 +4077,10 @@
         <v>3.3052799999999999E-3</v>
       </c>
       <c r="AB5" s="3" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="AC5" s="3" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
     </row>
     <row r="6" spans="1:29" x14ac:dyDescent="0.2">
@@ -2345,10 +4094,10 @@
         <v>2.2000000000000001E-3</v>
       </c>
       <c r="D6" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="E6" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="M6">
         <v>11</v>
@@ -2360,25 +4109,25 @@
         <v>1.5E-3</v>
       </c>
       <c r="P6" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="Q6" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="S6" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="T6" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="U6" s="4">
         <v>1.3669200882304701E-7</v>
       </c>
       <c r="V6" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="W6" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="Y6" s="3">
         <v>11</v>
@@ -2390,10 +4139,10 @@
         <v>3.79701E-3</v>
       </c>
       <c r="AB6" s="3" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="AC6" s="3" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
     </row>
     <row r="7" spans="1:29" x14ac:dyDescent="0.2">
@@ -2407,13 +4156,13 @@
         <v>2.7000000000000001E-3</v>
       </c>
       <c r="D7" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="E7" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
@@ -2429,25 +4178,25 @@
         <v>1.67E-2</v>
       </c>
       <c r="P7" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="Q7" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="S7" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="T7" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="U7" s="4">
         <v>1.4735145625888201E-7</v>
       </c>
       <c r="V7" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="W7" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="Y7" s="3">
         <v>11</v>
@@ -2459,10 +4208,10 @@
         <v>9.0221999999999993E-3</v>
       </c>
       <c r="AB7" s="3" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="AC7" s="3" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
     </row>
     <row r="8" spans="1:29" x14ac:dyDescent="0.2">
@@ -2476,25 +4225,25 @@
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="D8" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="E8" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="I8" s="7" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="M8">
         <v>10</v>
@@ -2506,25 +4255,25 @@
         <v>1.6799999999999999E-2</v>
       </c>
       <c r="P8" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="Q8" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="S8" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="T8" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="U8" s="4">
         <v>1.27025597673747E-6</v>
       </c>
       <c r="V8" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="W8" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="Y8" s="3">
         <v>13</v>
@@ -2536,10 +4285,10 @@
         <v>2.7012109999999999E-2</v>
       </c>
       <c r="AB8" s="3" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="AC8" s="3" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
     </row>
     <row r="9" spans="1:29" x14ac:dyDescent="0.2">
@@ -2553,10 +4302,10 @@
         <v>2.7400000000000001E-2</v>
       </c>
       <c r="D9" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="E9" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="G9">
         <v>6</v>
@@ -2568,10 +4317,10 @@
         <v>3.0800000000000001E-2</v>
       </c>
       <c r="J9" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="K9" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="M9">
         <v>12</v>
@@ -2583,25 +4332,25 @@
         <v>2.7400000000000001E-2</v>
       </c>
       <c r="P9" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="Q9" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="S9" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="T9" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="U9" s="4">
         <v>1.2702559769595099E-6</v>
       </c>
       <c r="V9" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="W9" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="Y9" s="3">
         <v>11</v>
@@ -2613,10 +4362,10 @@
         <v>3.3340689999999999E-2</v>
       </c>
       <c r="AB9" s="3" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="AC9" s="3" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
     </row>
     <row r="10" spans="1:29" x14ac:dyDescent="0.2">
@@ -2630,10 +4379,10 @@
         <v>3.1399999999999997E-2</v>
       </c>
       <c r="D10" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="E10" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="G10">
         <v>6</v>
@@ -2645,10 +4394,10 @@
         <v>3.78E-2</v>
       </c>
       <c r="J10" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="K10" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="M10">
         <v>13</v>
@@ -2660,25 +4409,25 @@
         <v>2.92E-2</v>
       </c>
       <c r="P10" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="Q10" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="S10" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="T10" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="U10" s="4">
         <v>1.5231958298000901E-6</v>
       </c>
       <c r="V10" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="W10" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
     </row>
     <row r="11" spans="1:29" x14ac:dyDescent="0.2">
@@ -2692,10 +4441,10 @@
         <v>3.3099999999999997E-2</v>
       </c>
       <c r="D11" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="E11" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="M11">
         <v>12</v>
@@ -2707,40 +4456,40 @@
         <v>2.9899999999999999E-2</v>
       </c>
       <c r="P11" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="Q11" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="S11" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="T11" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="U11" s="4">
         <v>2.4933619541256399E-6</v>
       </c>
       <c r="V11" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="W11" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="Y11" s="7" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="Z11" s="7" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="AA11" s="7" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="AB11" s="7" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="AC11" s="7" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
     </row>
     <row r="12" spans="1:29" x14ac:dyDescent="0.2">
@@ -2754,25 +4503,25 @@
         <v>4.02E-2</v>
       </c>
       <c r="D12" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="E12" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="H12" s="7" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="I12" s="7" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="M12">
         <v>12</v>
@@ -2784,25 +4533,25 @@
         <v>3.7400000000000003E-2</v>
       </c>
       <c r="P12" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="Q12" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="S12" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="T12" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="U12" s="4">
         <v>1.51575491591505E-5</v>
       </c>
       <c r="V12" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="W12" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="Y12">
         <v>4</v>
@@ -2814,10 +4563,10 @@
         <v>5.6344151406762E-6</v>
       </c>
       <c r="AB12" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="AC12" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
     </row>
     <row r="13" spans="1:29" x14ac:dyDescent="0.2">
@@ -2831,10 +4580,10 @@
         <v>4.1799999999999997E-2</v>
       </c>
       <c r="D13" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="E13" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="G13">
         <v>4</v>
@@ -2846,25 +4595,25 @@
         <v>4.4999999999999997E-3</v>
       </c>
       <c r="J13" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="K13" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="S13" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="T13" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="U13" s="4">
         <v>1.7996393042785101E-5</v>
       </c>
       <c r="V13" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="W13" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="Y13">
         <v>5</v>
@@ -2876,10 +4625,10 @@
         <v>9.2330487887703997E-5</v>
       </c>
       <c r="AB13" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="AC13" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
     </row>
     <row r="14" spans="1:29" x14ac:dyDescent="0.2">
@@ -2893,10 +4642,10 @@
         <v>4.2900000000000001E-2</v>
       </c>
       <c r="D14" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="E14" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="G14">
         <v>3</v>
@@ -2908,40 +4657,40 @@
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="J14" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="K14" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="M14" s="7" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="N14" s="7" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="S14" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="T14" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="U14" s="4">
         <v>1.87349634145351E-5</v>
       </c>
       <c r="V14" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="W14" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="Y14">
         <v>6</v>
@@ -2953,10 +4702,10 @@
         <v>1.9981706250138401E-4</v>
       </c>
       <c r="AB14" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="AC14" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
     </row>
     <row r="15" spans="1:29" x14ac:dyDescent="0.2">
@@ -2970,10 +4719,10 @@
         <v>2.87E-2</v>
       </c>
       <c r="J15" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="K15" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="M15">
         <v>3</v>
@@ -2985,25 +4734,25 @@
         <v>1.26E-2</v>
       </c>
       <c r="P15" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="Q15" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="S15" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="T15" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="U15" s="4">
         <v>2.92453696609796E-5</v>
       </c>
       <c r="V15" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="W15" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="Y15">
         <v>2</v>
@@ -3015,27 +4764,27 @@
         <v>1.06200416421028E-2</v>
       </c>
       <c r="AB15" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="AC15" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
     </row>
     <row r="16" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A16" s="7" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="M16">
         <v>2</v>
@@ -3047,25 +4796,25 @@
         <v>1.9099999999999999E-2</v>
       </c>
       <c r="P16" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="Q16" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="S16" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="T16" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="U16" s="4">
         <v>3.5487911469234101E-5</v>
       </c>
       <c r="V16" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="W16" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
     </row>
     <row r="17" spans="1:23" x14ac:dyDescent="0.2">
@@ -3079,10 +4828,10 @@
         <v>5.0000000000000001E-4</v>
       </c>
       <c r="D17" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="E17" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="M17">
         <v>1</v>
@@ -3094,25 +4843,25 @@
         <v>3.0499999999999999E-2</v>
       </c>
       <c r="P17" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="Q17" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="S17" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="T17" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="U17" s="4">
         <v>4.1971514050498398E-5</v>
       </c>
       <c r="V17" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="W17" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
     </row>
     <row r="18" spans="1:23" x14ac:dyDescent="0.2">
@@ -3126,10 +4875,10 @@
         <v>1.6000000000000001E-3</v>
       </c>
       <c r="D18" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="E18" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="M18">
         <v>3</v>
@@ -3141,25 +4890,25 @@
         <v>3.09E-2</v>
       </c>
       <c r="P18" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="Q18" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="S18" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="T18" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="U18" s="4">
         <v>4.1971514050720402E-5</v>
       </c>
       <c r="V18" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="W18" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
     </row>
     <row r="19" spans="1:23" x14ac:dyDescent="0.2">
@@ -3173,10 +4922,10 @@
         <v>4.7999999999999996E-3</v>
       </c>
       <c r="D19" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="E19" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="M19">
         <v>3</v>
@@ -3188,25 +4937,25 @@
         <v>4.0500000000000001E-2</v>
       </c>
       <c r="P19" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="Q19" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="S19" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="T19" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="U19" s="4">
         <v>4.1971514178063003E-5</v>
       </c>
       <c r="V19" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="W19" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
     </row>
     <row r="20" spans="1:23" x14ac:dyDescent="0.2">
@@ -3220,25 +4969,25 @@
         <v>4.7999999999999996E-3</v>
       </c>
       <c r="D20" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="E20" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="S20" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="T20" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="U20" s="4">
         <v>4.72760023618735E-5</v>
       </c>
       <c r="V20" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="W20" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
     </row>
     <row r="21" spans="1:23" x14ac:dyDescent="0.2">
@@ -3252,32 +5001,32 @@
         <v>1.34E-2</v>
       </c>
       <c r="D21" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="E21" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="M21" s="2" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
       <c r="P21" s="2"/>
       <c r="Q21" s="2"/>
       <c r="S21" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="T21" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="U21" s="4">
         <v>6.4023026579040896E-5</v>
       </c>
       <c r="V21" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="W21" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
     </row>
     <row r="22" spans="1:23" x14ac:dyDescent="0.2">
@@ -3291,40 +5040,40 @@
         <v>1.4800000000000001E-2</v>
       </c>
       <c r="D22" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="E22" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="M22" s="7" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="N22" s="7" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="S22" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="T22" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="U22" s="4">
         <v>8.8418687683500306E-5</v>
       </c>
       <c r="V22" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="W22" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
     </row>
     <row r="23" spans="1:23" x14ac:dyDescent="0.2">
@@ -3338,10 +5087,10 @@
         <v>4.8399999999999999E-2</v>
       </c>
       <c r="D23" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="E23" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="M23">
         <v>11</v>
@@ -3353,25 +5102,25 @@
         <v>2.5899999999999999E-2</v>
       </c>
       <c r="P23" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="Q23" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="S23" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="T23" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="U23" s="4">
         <v>8.8418688075964105E-5</v>
       </c>
       <c r="V23" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="W23" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
     </row>
     <row r="24" spans="1:23" x14ac:dyDescent="0.2">
@@ -3385,74 +5134,74 @@
         <v>2.6700000000000002E-2</v>
       </c>
       <c r="P24" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="Q24" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="S24" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="T24" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="U24">
         <v>1.04103425343727E-4</v>
       </c>
       <c r="V24" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="W24" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
     </row>
     <row r="25" spans="1:23" x14ac:dyDescent="0.2">
       <c r="S25" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="T25" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="U25">
         <v>1.65831566107499E-4</v>
       </c>
       <c r="V25" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="W25" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
     </row>
     <row r="26" spans="1:23" x14ac:dyDescent="0.2">
       <c r="M26" s="7" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="N26" s="7" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="S26" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="T26" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="U26">
         <v>1.83132698287181E-4</v>
       </c>
       <c r="V26" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="W26" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
     </row>
     <row r="27" spans="1:23" x14ac:dyDescent="0.2">
@@ -3466,25 +5215,25 @@
         <v>9.4999999999999998E-3</v>
       </c>
       <c r="P27" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="Q27" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="S27" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="T27" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="U27">
         <v>3.8288649192885798E-4</v>
       </c>
       <c r="V27" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="W27" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
     </row>
     <row r="28" spans="1:23" x14ac:dyDescent="0.2">
@@ -3498,25 +5247,25 @@
         <v>1.2699999999999999E-2</v>
       </c>
       <c r="P28" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="Q28" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="S28" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="T28" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="U28">
         <v>4.02736125371006E-4</v>
       </c>
       <c r="V28" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="W28" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
     </row>
     <row r="29" spans="1:23" x14ac:dyDescent="0.2">
@@ -3530,98 +5279,98 @@
         <v>4.9299999999999997E-2</v>
       </c>
       <c r="P29" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="Q29" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="S29" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="T29" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="U29">
         <v>4.0273612537111703E-4</v>
       </c>
       <c r="V29" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="W29" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
     </row>
     <row r="30" spans="1:23" x14ac:dyDescent="0.2">
       <c r="S30" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="T30" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="U30">
         <v>5.9208322503467902E-4</v>
       </c>
       <c r="V30" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="W30" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
     </row>
     <row r="31" spans="1:23" x14ac:dyDescent="0.2">
       <c r="M31" s="2" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
       <c r="P31" s="2"/>
       <c r="Q31" s="2"/>
       <c r="S31" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="T31" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="U31">
         <v>6.8960471787038501E-4</v>
       </c>
       <c r="V31" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="W31" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
     </row>
     <row r="32" spans="1:23" x14ac:dyDescent="0.2">
       <c r="M32" s="7" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="N32" s="7" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="S32" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="T32" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="U32">
         <v>8.0240597463954199E-4</v>
       </c>
       <c r="V32" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="W32" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
     </row>
     <row r="33" spans="13:23" x14ac:dyDescent="0.2">
@@ -3635,25 +5384,25 @@
         <v>1.2999999999999999E-3</v>
       </c>
       <c r="P33" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="Q33" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="S33" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="T33" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="U33">
         <v>8.6522806239064398E-4</v>
       </c>
       <c r="V33" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="W33" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
     </row>
     <row r="34" spans="13:23" x14ac:dyDescent="0.2">
@@ -3667,74 +5416,74 @@
         <v>1.5699999999999999E-2</v>
       </c>
       <c r="P34" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="Q34" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="S34" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="T34" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="U34">
         <v>8.7328633276906298E-4</v>
       </c>
       <c r="V34" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="W34" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
     </row>
     <row r="35" spans="13:23" x14ac:dyDescent="0.2">
       <c r="S35" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="T35" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="U35">
         <v>1.0831522205368999E-3</v>
       </c>
       <c r="V35" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="W35" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
     </row>
     <row r="36" spans="13:23" x14ac:dyDescent="0.2">
       <c r="M36" s="7" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="N36" s="7" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="S36" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="T36" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="U36">
         <v>1.56702634865014E-3</v>
       </c>
       <c r="V36" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="W36" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
     </row>
     <row r="37" spans="13:23" x14ac:dyDescent="0.2">
@@ -3748,25 +5497,25 @@
         <v>4.4999999999999997E-3</v>
       </c>
       <c r="P37" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="Q37" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="S37" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="T37" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="U37">
         <v>1.56702634968864E-3</v>
       </c>
       <c r="V37" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="W37" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
     </row>
     <row r="38" spans="13:23" x14ac:dyDescent="0.2">
@@ -3780,1198 +5529,1198 @@
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="P38" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="Q38" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="S38" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="T38" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="U38">
         <v>1.68583571024561E-3</v>
       </c>
       <c r="V38" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="W38" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
     </row>
     <row r="39" spans="13:23" x14ac:dyDescent="0.2">
       <c r="S39" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="T39" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="U39">
         <v>1.6858357113544999E-3</v>
       </c>
       <c r="V39" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="W39" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
     </row>
     <row r="40" spans="13:23" x14ac:dyDescent="0.2">
       <c r="S40" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="T40" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="U40">
         <v>1.6858357124656101E-3</v>
       </c>
       <c r="V40" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="W40" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
     </row>
     <row r="41" spans="13:23" x14ac:dyDescent="0.2">
       <c r="S41" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="T41" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="U41">
         <v>1.69419911751811E-3</v>
       </c>
       <c r="V41" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="W41" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
     </row>
     <row r="42" spans="13:23" x14ac:dyDescent="0.2">
       <c r="S42" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="T42" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="U42">
         <v>1.9496136349282901E-3</v>
       </c>
       <c r="V42" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="W42" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
     </row>
     <row r="43" spans="13:23" x14ac:dyDescent="0.2">
       <c r="S43" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="T43" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="U43">
         <v>1.9496136349296299E-3</v>
       </c>
       <c r="V43" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="W43" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
     </row>
     <row r="44" spans="13:23" x14ac:dyDescent="0.2">
       <c r="S44" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="T44" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="U44">
         <v>2.4197750131560399E-3</v>
       </c>
       <c r="V44" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="W44" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
     </row>
     <row r="45" spans="13:23" x14ac:dyDescent="0.2">
       <c r="S45" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="T45" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="U45">
         <v>2.41977501315738E-3</v>
       </c>
       <c r="V45" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="W45" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
     </row>
     <row r="46" spans="13:23" x14ac:dyDescent="0.2">
       <c r="S46" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="T46" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="U46">
         <v>2.59904762547436E-3</v>
       </c>
       <c r="V46" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="W46" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
     </row>
     <row r="47" spans="13:23" x14ac:dyDescent="0.2">
       <c r="S47" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="T47" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="U47">
         <v>3.4495893648821599E-3</v>
       </c>
       <c r="V47" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="W47" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
     </row>
     <row r="48" spans="13:23" x14ac:dyDescent="0.2">
       <c r="S48" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="T48" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="U48">
         <v>3.51424901660913E-3</v>
       </c>
       <c r="V48" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="W48" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
     </row>
     <row r="49" spans="19:23" x14ac:dyDescent="0.2">
       <c r="S49" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="T49" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="U49">
         <v>3.6056641560834302E-3</v>
       </c>
       <c r="V49" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="W49" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
     </row>
     <row r="50" spans="19:23" x14ac:dyDescent="0.2">
       <c r="S50" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="T50" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="U50">
         <v>3.6999882041188802E-3</v>
       </c>
       <c r="V50" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="W50" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
     </row>
     <row r="51" spans="19:23" x14ac:dyDescent="0.2">
       <c r="S51" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="T51" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="U51">
         <v>3.70576165320902E-3</v>
       </c>
       <c r="V51" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="W51" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
     </row>
     <row r="52" spans="19:23" x14ac:dyDescent="0.2">
       <c r="S52" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="T52" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="U52">
         <v>3.8015277646730201E-3</v>
       </c>
       <c r="V52" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="W52" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
     </row>
     <row r="53" spans="19:23" x14ac:dyDescent="0.2">
       <c r="S53" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="T53" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="U53">
         <v>4.1927511450138297E-3</v>
       </c>
       <c r="V53" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="W53" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
     </row>
     <row r="54" spans="19:23" x14ac:dyDescent="0.2">
       <c r="S54" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="T54" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="U54">
         <v>4.4268281728420096E-3</v>
       </c>
       <c r="V54" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="W54" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
     </row>
     <row r="55" spans="19:23" x14ac:dyDescent="0.2">
       <c r="S55" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="T55" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="U55">
         <v>4.5577636859716001E-3</v>
       </c>
       <c r="V55" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="W55" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
     </row>
     <row r="56" spans="19:23" x14ac:dyDescent="0.2">
       <c r="S56" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="T56" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="U56">
         <v>4.5577636916573896E-3</v>
       </c>
       <c r="V56" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="W56" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
     </row>
     <row r="57" spans="19:23" x14ac:dyDescent="0.2">
       <c r="S57" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="T57" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="U57">
         <v>5.61732492768241E-3</v>
       </c>
       <c r="V57" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="W57" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
     </row>
     <row r="58" spans="19:23" x14ac:dyDescent="0.2">
       <c r="S58" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="T58" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="U58">
         <v>5.9938782066703E-3</v>
       </c>
       <c r="V58" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="W58" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
     </row>
     <row r="59" spans="19:23" x14ac:dyDescent="0.2">
       <c r="S59" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="T59" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="U59">
         <v>5.9938782103459197E-3</v>
       </c>
       <c r="V59" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="W59" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
     </row>
     <row r="60" spans="19:23" x14ac:dyDescent="0.2">
       <c r="S60" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="T60" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="U60">
         <v>6.0942299975218503E-3</v>
       </c>
       <c r="V60" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="W60" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
     </row>
     <row r="61" spans="19:23" x14ac:dyDescent="0.2">
       <c r="S61" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="T61" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="U61">
         <v>6.2810215492624701E-3</v>
       </c>
       <c r="V61" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="W61" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
     </row>
     <row r="62" spans="19:23" x14ac:dyDescent="0.2">
       <c r="S62" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="T62" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="U62">
         <v>6.4139077573951396E-3</v>
       </c>
       <c r="V62" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="W62" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
     </row>
     <row r="63" spans="19:23" x14ac:dyDescent="0.2">
       <c r="S63" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="T63" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="U63">
         <v>6.4139077573956999E-3</v>
       </c>
       <c r="V63" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="W63" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
     </row>
     <row r="64" spans="19:23" x14ac:dyDescent="0.2">
       <c r="S64" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="T64" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="U64">
         <v>6.4139077613091199E-3</v>
       </c>
       <c r="V64" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="W64" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
     </row>
     <row r="65" spans="19:23" x14ac:dyDescent="0.2">
       <c r="S65" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="T65" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="U65">
         <v>6.41390776914408E-3</v>
       </c>
       <c r="V65" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="W65" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
     </row>
     <row r="66" spans="19:23" x14ac:dyDescent="0.2">
       <c r="S66" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="T66" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="U66">
         <v>6.8612902456063303E-3</v>
       </c>
       <c r="V66" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="W66" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
     </row>
     <row r="67" spans="19:23" x14ac:dyDescent="0.2">
       <c r="S67" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="T67" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="U67">
         <v>8.0174843222197093E-3</v>
       </c>
       <c r="V67" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="W67" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
     </row>
     <row r="68" spans="19:23" x14ac:dyDescent="0.2">
       <c r="S68" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="T68" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="U68">
         <v>8.6306354695675509E-3</v>
       </c>
       <c r="V68" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="W68" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
     </row>
     <row r="69" spans="19:23" x14ac:dyDescent="0.2">
       <c r="S69" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="T69" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="U69">
         <v>8.9577718896062305E-3</v>
       </c>
       <c r="V69" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="W69" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
     </row>
     <row r="70" spans="19:23" x14ac:dyDescent="0.2">
       <c r="S70" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="T70" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="U70">
         <v>9.9874485832181E-3</v>
       </c>
       <c r="V70" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="W70" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
     </row>
     <row r="71" spans="19:23" x14ac:dyDescent="0.2">
       <c r="S71" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="T71" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="U71">
         <v>1.02159582639959E-2</v>
       </c>
       <c r="V71" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="W71" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
     </row>
     <row r="72" spans="19:23" x14ac:dyDescent="0.2">
       <c r="S72" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="T72" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="U72">
         <v>1.0215958263995999E-2</v>
       </c>
       <c r="V72" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="W72" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
     </row>
     <row r="73" spans="19:23" x14ac:dyDescent="0.2">
       <c r="S73" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="T73" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="U73">
         <v>1.02159582700281E-2</v>
       </c>
       <c r="V73" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="W73" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
     </row>
     <row r="74" spans="19:23" x14ac:dyDescent="0.2">
       <c r="S74" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="T74" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="U74">
         <v>1.0215958300202501E-2</v>
       </c>
       <c r="V74" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="W74" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
     </row>
     <row r="75" spans="19:23" x14ac:dyDescent="0.2">
       <c r="S75" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="T75" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="U75">
         <v>1.09046134067058E-2</v>
       </c>
       <c r="V75" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="W75" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
     </row>
     <row r="76" spans="19:23" x14ac:dyDescent="0.2">
       <c r="S76" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="T76" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="U76">
         <v>1.1458295439051899E-2</v>
       </c>
       <c r="V76" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="W76" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
     </row>
     <row r="77" spans="19:23" x14ac:dyDescent="0.2">
       <c r="S77" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="T77" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="U77">
         <v>1.1635926752725401E-2</v>
       </c>
       <c r="V77" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="W77" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
     </row>
     <row r="78" spans="19:23" x14ac:dyDescent="0.2">
       <c r="S78" t="s">
+        <v>164</v>
+      </c>
+      <c r="T78" t="s">
         <v>171</v>
-      </c>
-      <c r="T78" t="s">
-        <v>178</v>
       </c>
       <c r="U78">
         <v>1.16359267731418E-2</v>
       </c>
       <c r="V78" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="W78" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
     </row>
     <row r="79" spans="19:23" x14ac:dyDescent="0.2">
       <c r="S79" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="T79" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="U79">
         <v>1.3877872065973899E-2</v>
       </c>
       <c r="V79" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="W79" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
     </row>
     <row r="80" spans="19:23" x14ac:dyDescent="0.2">
       <c r="S80" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="T80" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="U80">
         <v>1.60179211041763E-2</v>
       </c>
       <c r="V80" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="W80" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
     </row>
     <row r="81" spans="19:23" x14ac:dyDescent="0.2">
       <c r="S81" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="T81" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="U81">
         <v>1.60179211041773E-2</v>
       </c>
       <c r="V81" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="W81" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
     </row>
     <row r="82" spans="19:23" x14ac:dyDescent="0.2">
       <c r="S82" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="T82" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="U82">
         <v>1.63199435226308E-2</v>
       </c>
       <c r="V82" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="W82" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
     </row>
     <row r="83" spans="19:23" x14ac:dyDescent="0.2">
       <c r="S83" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="T83" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="U83">
         <v>1.7058033441290199E-2</v>
       </c>
       <c r="V83" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="W83" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
     </row>
     <row r="84" spans="19:23" x14ac:dyDescent="0.2">
       <c r="S84" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="T84" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="U84">
         <v>1.7058033441293401E-2</v>
       </c>
       <c r="V84" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="W84" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
     </row>
     <row r="85" spans="19:23" x14ac:dyDescent="0.2">
       <c r="S85" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="T85" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="U85">
         <v>1.7086571105509301E-2</v>
       </c>
       <c r="V85" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="W85" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
     </row>
     <row r="86" spans="19:23" x14ac:dyDescent="0.2">
       <c r="S86" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="T86" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="U86">
         <v>1.74820869320499E-2</v>
       </c>
       <c r="V86" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="W86" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
     </row>
     <row r="87" spans="19:23" x14ac:dyDescent="0.2">
       <c r="S87" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="T87" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="U87">
         <v>1.8159452973116399E-2</v>
       </c>
       <c r="V87" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="W87" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
     </row>
     <row r="88" spans="19:23" x14ac:dyDescent="0.2">
       <c r="S88" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="T88" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="U88">
         <v>1.8159452993586699E-2</v>
       </c>
       <c r="V88" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="W88" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
     </row>
     <row r="89" spans="19:23" x14ac:dyDescent="0.2">
       <c r="S89" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="T89" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="U89">
         <v>1.9325300460549599E-2</v>
       </c>
       <c r="V89" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="W89" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
     </row>
     <row r="90" spans="19:23" x14ac:dyDescent="0.2">
       <c r="S90" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="T90" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="U90">
         <v>1.9325300471382499E-2</v>
       </c>
       <c r="V90" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="W90" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
     </row>
     <row r="91" spans="19:23" x14ac:dyDescent="0.2">
       <c r="S91" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="T91" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="U91">
         <v>1.9919086416145902E-2</v>
       </c>
       <c r="V91" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="W91" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
     </row>
     <row r="92" spans="19:23" x14ac:dyDescent="0.2">
       <c r="S92" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="T92" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="U92">
         <v>2.0035608959591798E-2</v>
       </c>
       <c r="V92" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="W92" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
     </row>
     <row r="93" spans="19:23" x14ac:dyDescent="0.2">
       <c r="S93" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="T93" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="U93">
         <v>2.0558817165552499E-2</v>
       </c>
       <c r="V93" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="W93" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
     </row>
     <row r="94" spans="19:23" x14ac:dyDescent="0.2">
       <c r="S94" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="T94" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="U94">
         <v>2.055881717701E-2</v>
       </c>
       <c r="V94" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="W94" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
     </row>
     <row r="95" spans="19:23" x14ac:dyDescent="0.2">
       <c r="S95" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="T95" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="U95">
         <v>2.1921478951254299E-2</v>
       </c>
       <c r="V95" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="W95" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
     </row>
     <row r="96" spans="19:23" x14ac:dyDescent="0.2">
       <c r="S96" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="T96" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="U96">
         <v>2.4699634742740201E-2</v>
       </c>
       <c r="V96" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="W96" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
     </row>
     <row r="97" spans="19:23" x14ac:dyDescent="0.2">
       <c r="S97" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="T97" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="U97">
         <v>2.5052551377114301E-2</v>
       </c>
       <c r="V97" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="W97" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
     </row>
     <row r="98" spans="19:23" x14ac:dyDescent="0.2">
       <c r="S98" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="T98" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="U98">
         <v>2.6238702047542299E-2</v>
       </c>
       <c r="V98" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="W98" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
     </row>
     <row r="99" spans="19:23" x14ac:dyDescent="0.2">
       <c r="S99" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="T99" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="U99">
         <v>3.1386363486935603E-2</v>
       </c>
       <c r="V99" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="W99" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
     </row>
     <row r="100" spans="19:23" x14ac:dyDescent="0.2">
       <c r="S100" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="T100" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="U100">
         <v>3.5301633234049799E-2</v>
       </c>
       <c r="V100" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="W100" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
     </row>
     <row r="101" spans="19:23" x14ac:dyDescent="0.2">
       <c r="S101" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="T101" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="U101">
         <v>3.5301633271287797E-2</v>
       </c>
       <c r="V101" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="W101" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
     </row>
     <row r="102" spans="19:23" x14ac:dyDescent="0.2">
       <c r="S102" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="T102" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="U102">
         <v>3.53016332899109E-2</v>
       </c>
       <c r="V102" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="W102" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
     </row>
     <row r="103" spans="19:23" x14ac:dyDescent="0.2">
       <c r="S103" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="T103" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="U103">
         <v>3.7417399720575603E-2</v>
       </c>
       <c r="V103" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="W103" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
     </row>
     <row r="104" spans="19:23" x14ac:dyDescent="0.2">
       <c r="S104" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="T104" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="U104">
         <v>3.9644683838313099E-2</v>
       </c>
       <c r="V104" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="W104" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
     </row>
     <row r="105" spans="19:23" x14ac:dyDescent="0.2">
       <c r="S105" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="T105" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="U105">
         <v>4.445279133321E-2</v>
       </c>
       <c r="V105" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="W105" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
     </row>
     <row r="106" spans="19:23" x14ac:dyDescent="0.2">
       <c r="S106" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="T106" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="U106">
         <v>4.4452791333214899E-2</v>
       </c>
       <c r="V106" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="W106" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
     </row>
     <row r="107" spans="19:23" x14ac:dyDescent="0.2">
       <c r="S107" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="T107" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="U107">
         <v>4.9765026710464601E-2</v>
       </c>
       <c r="V107" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="W107" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
     </row>
   </sheetData>
@@ -4979,7 +6728,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB8DFD34-F077-8C42-9272-0EF6BC9716AF}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -4991,7 +6740,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAD607BF-197B-2147-AC05-4F3DD22E7F57}">
   <dimension ref="A1:R36"/>
   <sheetViews>
@@ -5006,91 +6755,91 @@
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="F1" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="L1" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="F2" s="2" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
       <c r="J2" s="9"/>
       <c r="L2" s="2" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
       <c r="P2" s="2" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="Q2" s="2"/>
       <c r="R2" s="2"/>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="J3" s="6" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="K3" s="6"/>
       <c r="L3" s="6" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="M3" s="6" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="N3" s="6" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="P3" s="6" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="Q3" s="6" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="R3" s="6" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="B4" s="3">
         <v>0.67987070000000005</v>
@@ -5102,7 +6851,7 @@
         <v>1.49E-22</v>
       </c>
       <c r="L4" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="M4">
         <v>0.40730099962976701</v>
@@ -5113,7 +6862,7 @@
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="B5" s="3">
         <v>0.60943897999999996</v>
@@ -5125,7 +6874,7 @@
         <v>3.8500000000000003E-18</v>
       </c>
       <c r="L5" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="M5">
         <v>0.33202763442327798</v>
@@ -5136,7 +6885,7 @@
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="B6" s="3">
         <v>0.48168482000000001</v>
@@ -5148,7 +6897,7 @@
         <v>4.1200000000000002E-12</v>
       </c>
       <c r="L6" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="M6">
         <v>-0.244948129944738</v>
@@ -5159,7 +6908,7 @@
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="B7" s="3">
         <v>0.46950112999999999</v>
@@ -5171,7 +6920,7 @@
         <v>1.27E-11</v>
       </c>
       <c r="L7" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="M7">
         <v>-0.23363717822524899</v>
@@ -5182,7 +6931,7 @@
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="B8" s="3">
         <v>0.25063133999999998</v>
@@ -5198,7 +6947,7 @@
       <c r="H8" s="8"/>
       <c r="I8" s="8"/>
       <c r="L8" s="8" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="M8" s="8">
         <v>0.190344316919659</v>
@@ -5209,7 +6958,7 @@
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="B9" s="3">
         <v>0.27441321000000002</v>
@@ -5225,7 +6974,7 @@
       <c r="H9" s="8"/>
       <c r="I9" s="8"/>
       <c r="L9" s="8" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="M9" s="8">
         <v>-6.2170487537177299E-2</v>
@@ -5236,7 +6985,7 @@
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="B10" s="3">
         <v>0.24124828000000001</v>
@@ -5250,7 +6999,7 @@
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="B11" s="3">
         <v>0.15044637999999999</v>
@@ -5264,7 +7013,7 @@
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A12" s="8" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="B12" s="8">
         <v>-3.5106400000000003E-2</v>
@@ -5278,7 +7027,7 @@
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -5286,21 +7035,21 @@
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A15" s="6" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
@@ -5308,21 +7057,21 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" s="6" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="B28">
         <v>0.24583987508593899</v>
@@ -5336,7 +7085,7 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="B29">
         <v>0.170447431082971</v>
@@ -5350,7 +7099,7 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="B30">
         <v>0.161177079209195</v>
@@ -5364,7 +7113,7 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="B31">
         <v>0.14045779554406099</v>
@@ -5378,7 +7127,7 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" s="8" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="B32" s="8">
         <v>1.5763568133341499E-3</v>
@@ -5392,7 +7141,7 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" s="8" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="B33" s="8">
         <v>-3.00027146041216E-2</v>
@@ -5406,7 +7155,7 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" s="8" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="B34" s="8">
         <v>-5.5698022730761597E-2</v>
@@ -5420,7 +7169,7 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" s="8" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="B35" s="8">
         <v>-5.6975599238977999E-2</v>
@@ -5434,7 +7183,7 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" s="8" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="B36" s="8">
         <v>-5.6533493498389202E-2</v>
@@ -5454,11 +7203,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8663229F-DEE5-8044-ADEF-EE06FE251561}">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
@@ -5469,15 +7218,15 @@
         <v>0</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>272</v>
+        <v>264</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B2" s="12">
         <v>1948</v>
@@ -5488,7 +7237,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B3" s="12">
         <v>1939</v>
@@ -5499,7 +7248,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B4" s="12">
         <v>1948</v>
@@ -5510,7 +7259,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="12" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
       <c r="B5" s="12">
         <v>1914</v>
@@ -5521,7 +7270,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="12" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="B6" s="12">
         <v>1973</v>
@@ -5532,7 +7281,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="12" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="B7" s="12">
         <v>1929</v>

--- a/output/supplementary tables.xlsx
+++ b/output/supplementary tables.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cmantegna/Documents/GitHub/WDFWmussels/output/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F59E8DA1-B079-9A48-8AFB-B2637C70C077}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38327A7B-9BF4-0849-98A1-FC9BB1391822}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="32800" yWindow="620" windowWidth="37280" windowHeight="20680" activeTab="2" xr2:uid="{BE86B9F0-78FD-C044-9247-4161F6BEB5F3}"/>
   </bookViews>
@@ -876,9 +876,6 @@
     <t>PBDE (11)</t>
   </si>
   <si>
-    <t>Br PBDE (4)</t>
-  </si>
-  <si>
     <t>PAH, additional (9)</t>
   </si>
   <si>
@@ -1126,6 +1123,9 @@
   </si>
   <si>
     <t>des moines marina is at an estimate of 290 ng/g - this exceeds the max value found by 2 orders of magnitude</t>
+  </si>
+  <si>
+    <t>Br PBDE (4) - joined with the other PBDEs</t>
   </si>
 </sst>
 </file>
@@ -1664,19 +1664,19 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B1" t="s">
+        <v>299</v>
+      </c>
+      <c r="C1" t="s">
         <v>300</v>
       </c>
-      <c r="C1" t="s">
-        <v>301</v>
-      </c>
       <c r="F1" s="20" t="s">
+        <v>320</v>
+      </c>
+      <c r="G1" s="20" t="s">
         <v>321</v>
-      </c>
-      <c r="G1" s="20" t="s">
-        <v>322</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="34" x14ac:dyDescent="0.2">
@@ -1684,16 +1684,16 @@
         <v>45782</v>
       </c>
       <c r="B2" t="s">
+        <v>301</v>
+      </c>
+      <c r="C2" t="s">
         <v>302</v>
       </c>
-      <c r="C2" t="s">
-        <v>303</v>
-      </c>
       <c r="F2" s="21" t="s">
+        <v>322</v>
+      </c>
+      <c r="G2" s="22" t="s">
         <v>323</v>
-      </c>
-      <c r="G2" s="22" t="s">
-        <v>324</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
@@ -1701,16 +1701,16 @@
         <v>45782</v>
       </c>
       <c r="B3" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C3" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="F3" s="23" t="s">
+        <v>324</v>
+      </c>
+      <c r="G3" s="24" t="s">
         <v>325</v>
-      </c>
-      <c r="G3" s="24" t="s">
-        <v>326</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="17" x14ac:dyDescent="0.2">
@@ -1718,16 +1718,16 @@
         <v>45782</v>
       </c>
       <c r="B4" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C4" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="F4" s="23" t="s">
+        <v>326</v>
+      </c>
+      <c r="G4" s="25" t="s">
         <v>327</v>
-      </c>
-      <c r="G4" s="25" t="s">
-        <v>328</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="34" x14ac:dyDescent="0.2">
@@ -1735,16 +1735,16 @@
         <v>45782</v>
       </c>
       <c r="B5" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C5" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="F5" s="23" t="s">
+        <v>328</v>
+      </c>
+      <c r="G5" s="25" t="s">
         <v>329</v>
-      </c>
-      <c r="G5" s="25" t="s">
-        <v>330</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="34" x14ac:dyDescent="0.2">
@@ -1752,24 +1752,24 @@
         <v>45782</v>
       </c>
       <c r="B6" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C6" s="29" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="F6" s="23" t="s">
+        <v>330</v>
+      </c>
+      <c r="G6" s="25" t="s">
         <v>331</v>
-      </c>
-      <c r="G6" s="25" t="s">
-        <v>332</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="F7" s="21" t="s">
+        <v>332</v>
+      </c>
+      <c r="G7" s="26" t="s">
         <v>333</v>
-      </c>
-      <c r="G7" s="26" t="s">
-        <v>334</v>
       </c>
     </row>
   </sheetData>
@@ -1817,8 +1817,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAC852F3-4C36-5244-AFD3-7C7A3D7A2244}">
   <dimension ref="A1:W69"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C50" sqref="C50"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Q4" sqref="Q4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1844,19 +1844,19 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>0</v>
@@ -1865,22 +1865,22 @@
         <v>1</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.2">
@@ -1911,19 +1911,19 @@
         <v>1</v>
       </c>
       <c r="S2" s="1" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="T2" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="U2" s="1" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="V2" s="1" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="W2" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.2">
@@ -1931,7 +1931,7 @@
         <v>5</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D3" s="13">
         <v>11</v>
@@ -1943,7 +1943,7 @@
         <v>0</v>
       </c>
       <c r="G3" s="13" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="J3" t="s">
         <v>65</v>
@@ -1953,7 +1953,7 @@
       <c r="N3" s="13"/>
       <c r="O3" s="13"/>
       <c r="Q3" s="2" t="s">
-        <v>277</v>
+        <v>360</v>
       </c>
       <c r="R3" s="2"/>
       <c r="S3" s="2"/>
@@ -1967,7 +1967,7 @@
         <v>6</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D4" s="13">
         <v>8</v>
@@ -1979,7 +1979,7 @@
         <v>0</v>
       </c>
       <c r="G4" s="13" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="J4" t="s">
         <v>66</v>
@@ -1989,7 +1989,7 @@
       <c r="N4" s="13"/>
       <c r="O4" s="13"/>
       <c r="R4" s="15" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.2">
@@ -2009,7 +2009,7 @@
         <v>0</v>
       </c>
       <c r="G5" s="13" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="J5" t="s">
         <v>67</v>
@@ -2019,7 +2019,7 @@
       <c r="N5" s="13"/>
       <c r="O5" s="13"/>
       <c r="R5" s="15" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.2">
@@ -2039,7 +2039,7 @@
         <v>0</v>
       </c>
       <c r="G6" s="13" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="J6" t="s">
         <v>68</v>
@@ -2049,7 +2049,7 @@
       <c r="N6" s="13"/>
       <c r="O6" s="13"/>
       <c r="R6" s="15" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.2">
@@ -2069,7 +2069,7 @@
         <v>0</v>
       </c>
       <c r="G7" s="13" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="J7" t="s">
         <v>69</v>
@@ -2079,7 +2079,7 @@
       <c r="N7" s="13"/>
       <c r="O7" s="13"/>
       <c r="R7" s="15" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.2">
@@ -2099,7 +2099,7 @@
         <v>0</v>
       </c>
       <c r="G8" s="13" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="J8" t="s">
         <v>70</v>
@@ -2115,19 +2115,19 @@
         <v>1</v>
       </c>
       <c r="S8" s="1" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="T8" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="U8" s="1" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="V8" s="1" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="W8" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.2">
@@ -2147,7 +2147,7 @@
         <v>0</v>
       </c>
       <c r="G9" s="13" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="J9" t="s">
         <v>71</v>
@@ -2157,7 +2157,7 @@
       <c r="N9" s="13"/>
       <c r="O9" s="13"/>
       <c r="Q9" s="2" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="R9" s="2"/>
       <c r="S9" s="2"/>
@@ -2171,7 +2171,7 @@
         <v>12</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D10" s="13">
         <v>11</v>
@@ -2183,7 +2183,7 @@
         <v>0</v>
       </c>
       <c r="G10" s="13" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="J10" t="s">
         <v>72</v>
@@ -2193,7 +2193,7 @@
       <c r="N10" s="13"/>
       <c r="O10" s="13"/>
       <c r="R10" s="15" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.2">
@@ -2204,19 +2204,19 @@
         <v>1</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="J11" t="s">
         <v>73</v>
@@ -2226,7 +2226,7 @@
       <c r="N11" s="13"/>
       <c r="O11" s="13"/>
       <c r="R11" s="15" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.2">
@@ -2249,7 +2249,7 @@
       <c r="N12" s="13"/>
       <c r="O12" s="13"/>
       <c r="R12" s="15" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.2">
@@ -2257,7 +2257,7 @@
         <v>18</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D13" s="13">
         <v>15</v>
@@ -2269,7 +2269,7 @@
         <v>0</v>
       </c>
       <c r="G13" s="27" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="J13" t="s">
         <v>75</v>
@@ -2279,7 +2279,7 @@
       <c r="N13" s="13"/>
       <c r="O13" s="13"/>
       <c r="R13" s="15" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.2">
@@ -2299,7 +2299,7 @@
         <v>0</v>
       </c>
       <c r="G14" s="27" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="I14" s="1" t="s">
         <v>0</v>
@@ -2308,22 +2308,22 @@
         <v>1</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="M14" s="1" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="N14" s="1" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="O14" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="R14" s="15" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.2">
@@ -2331,7 +2331,7 @@
         <v>20</v>
       </c>
       <c r="C15" s="13" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D15" s="13">
         <v>4</v>
@@ -2343,7 +2343,7 @@
         <v>0</v>
       </c>
       <c r="G15" s="27" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="I15" s="2" t="s">
         <v>275</v>
@@ -2355,7 +2355,7 @@
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
       <c r="R15" s="15" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.2">
@@ -2363,7 +2363,7 @@
         <v>15</v>
       </c>
       <c r="C16" s="13" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D16" s="13">
         <v>26</v>
@@ -2375,7 +2375,7 @@
         <v>0</v>
       </c>
       <c r="G16" s="27" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="J16" t="s">
         <v>77</v>
@@ -2385,7 +2385,7 @@
       <c r="N16" s="13"/>
       <c r="O16" s="13"/>
       <c r="R16" s="15" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="17" spans="1:23" x14ac:dyDescent="0.2">
@@ -2393,7 +2393,7 @@
         <v>16</v>
       </c>
       <c r="C17" s="13" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D17" s="13">
         <v>69</v>
@@ -2405,7 +2405,7 @@
         <v>0</v>
       </c>
       <c r="G17" s="27" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="J17" t="s">
         <v>78</v>
@@ -2415,7 +2415,7 @@
       <c r="N17" s="13"/>
       <c r="O17" s="13"/>
       <c r="R17" s="15" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="18" spans="1:23" x14ac:dyDescent="0.2">
@@ -2423,7 +2423,7 @@
         <v>17</v>
       </c>
       <c r="C18" s="13" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D18" s="13">
         <v>15</v>
@@ -2435,7 +2435,7 @@
         <v>0</v>
       </c>
       <c r="G18" s="27" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="J18" t="s">
         <v>79</v>
@@ -2445,7 +2445,7 @@
       <c r="N18" s="13"/>
       <c r="O18" s="13"/>
       <c r="R18" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="19" spans="1:23" x14ac:dyDescent="0.2">
@@ -2456,19 +2456,19 @@
         <v>1</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="J19" t="s">
         <v>80</v>
@@ -2484,19 +2484,19 @@
         <v>1</v>
       </c>
       <c r="S19" s="1" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="T19" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="U19" s="1" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="V19" s="1" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="W19" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="20" spans="1:23" x14ac:dyDescent="0.2">
@@ -2519,7 +2519,7 @@
       <c r="N20" s="13"/>
       <c r="O20" s="13"/>
       <c r="Q20" s="2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="R20" s="2"/>
       <c r="S20" s="2"/>
@@ -2533,7 +2533,7 @@
         <v>2</v>
       </c>
       <c r="C21" s="13" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D21" s="13">
         <v>2</v>
@@ -2545,7 +2545,7 @@
         <v>0</v>
       </c>
       <c r="G21" s="13" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="J21" t="s">
         <v>82</v>
@@ -2555,7 +2555,7 @@
       <c r="N21" s="13"/>
       <c r="O21" s="13"/>
       <c r="R21" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="22" spans="1:23" x14ac:dyDescent="0.2">
@@ -2563,7 +2563,7 @@
         <v>3</v>
       </c>
       <c r="C22" s="13" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D22" s="13">
         <v>14</v>
@@ -2575,7 +2575,7 @@
         <v>0</v>
       </c>
       <c r="G22" s="13" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="J22" t="s">
         <v>83</v>
@@ -2585,7 +2585,7 @@
       <c r="N22" s="13"/>
       <c r="O22" s="13"/>
       <c r="R22" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="23" spans="1:23" x14ac:dyDescent="0.2">
@@ -2593,7 +2593,7 @@
         <v>4</v>
       </c>
       <c r="C23" s="13" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D23" s="13">
         <v>1</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="G23" s="13" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="J23" t="s">
         <v>84</v>
@@ -2615,7 +2615,7 @@
       <c r="N23" s="13"/>
       <c r="O23" s="13"/>
       <c r="R23" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="24" spans="1:23" x14ac:dyDescent="0.2">
@@ -2626,19 +2626,19 @@
         <v>1</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="J24" t="s">
         <v>85</v>
@@ -2648,7 +2648,7 @@
       <c r="N24" s="13"/>
       <c r="O24" s="13"/>
       <c r="R24" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="25" spans="1:23" x14ac:dyDescent="0.2">
@@ -2671,7 +2671,7 @@
       <c r="N25" s="13"/>
       <c r="O25" s="13"/>
       <c r="R25" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="26" spans="1:23" x14ac:dyDescent="0.2">
@@ -2679,7 +2679,7 @@
         <v>28</v>
       </c>
       <c r="C26" s="13" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D26" s="13">
         <v>23</v>
@@ -2691,7 +2691,7 @@
         <v>0</v>
       </c>
       <c r="G26" s="13" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="J26" t="s">
         <v>87</v>
@@ -2706,7 +2706,7 @@
         <v>27</v>
       </c>
       <c r="C27" s="13" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D27" s="13">
         <v>2</v>
@@ -2718,7 +2718,7 @@
         <v>0</v>
       </c>
       <c r="G27" s="13" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="J27" t="s">
         <v>88</v>
@@ -2745,7 +2745,7 @@
         <v>74</v>
       </c>
       <c r="G28" s="13" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="J28" t="s">
         <v>89</v>
@@ -2760,7 +2760,7 @@
         <v>34</v>
       </c>
       <c r="C29" s="13" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D29" s="13">
         <v>11</v>
@@ -2772,7 +2772,7 @@
         <v>0</v>
       </c>
       <c r="G29" s="13" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="J29" t="s">
         <v>90</v>
@@ -2787,7 +2787,7 @@
         <v>30</v>
       </c>
       <c r="C30" s="13" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D30" s="13">
         <v>19</v>
@@ -2799,7 +2799,7 @@
         <v>0</v>
       </c>
       <c r="G30" s="13" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="J30" t="s">
         <v>91</v>
@@ -2814,7 +2814,7 @@
         <v>23</v>
       </c>
       <c r="C31" s="19" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D31" s="13">
         <v>21</v>
@@ -2826,7 +2826,7 @@
         <v>0</v>
       </c>
       <c r="G31" s="13" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="J31" t="s">
         <v>92</v>
@@ -2841,7 +2841,7 @@
         <v>40</v>
       </c>
       <c r="C32" s="13" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D32" s="13">
         <v>74</v>
@@ -2853,7 +2853,7 @@
         <v>0</v>
       </c>
       <c r="G32" s="13" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="J32" t="s">
         <v>93</v>
@@ -2868,7 +2868,7 @@
         <v>35</v>
       </c>
       <c r="C33" s="13" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D33" s="13">
         <v>23</v>
@@ -2880,7 +2880,7 @@
         <v>0</v>
       </c>
       <c r="G33" s="13" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="J33" t="s">
         <v>94</v>
@@ -2895,7 +2895,7 @@
         <v>31</v>
       </c>
       <c r="C34" s="13" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D34" s="13">
         <v>40</v>
@@ -2907,7 +2907,7 @@
         <v>0</v>
       </c>
       <c r="G34" s="13" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="J34" t="s">
         <v>95</v>
@@ -2922,7 +2922,7 @@
         <v>24</v>
       </c>
       <c r="C35" s="13" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D35" s="13">
         <v>72</v>
@@ -2934,7 +2934,7 @@
         <v>0</v>
       </c>
       <c r="G35" s="13" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="J35" t="s">
         <v>96</v>
@@ -2949,7 +2949,7 @@
         <v>41</v>
       </c>
       <c r="C36" s="13" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D36" s="13">
         <v>60</v>
@@ -2961,7 +2961,7 @@
         <v>0</v>
       </c>
       <c r="G36" s="13" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="J36" t="s">
         <v>97</v>
@@ -2976,7 +2976,7 @@
         <v>36</v>
       </c>
       <c r="C37" s="18" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D37" s="13">
         <v>27</v>
@@ -2988,7 +2988,7 @@
         <v>0</v>
       </c>
       <c r="G37" s="13" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="J37" t="s">
         <v>98</v>
@@ -3003,7 +3003,7 @@
         <v>32</v>
       </c>
       <c r="C38" s="13" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D38" s="13">
         <v>46</v>
@@ -3015,7 +3015,7 @@
         <v>0</v>
       </c>
       <c r="G38" s="13" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="J38" t="s">
         <v>99</v>
@@ -3030,7 +3030,7 @@
         <v>25</v>
       </c>
       <c r="C39" s="13" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D39" s="13">
         <v>23</v>
@@ -3042,7 +3042,7 @@
         <v>0</v>
       </c>
       <c r="G39" s="13" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="J39" t="s">
         <v>100</v>
@@ -3057,7 +3057,7 @@
         <v>42</v>
       </c>
       <c r="C40" s="13" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="D40" s="13">
         <v>73</v>
@@ -3069,7 +3069,7 @@
         <v>0</v>
       </c>
       <c r="G40" s="13" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="J40" t="s">
         <v>101</v>
@@ -3084,7 +3084,7 @@
         <v>37</v>
       </c>
       <c r="C41" s="13" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="D41" s="13">
         <v>19</v>
@@ -3096,7 +3096,7 @@
         <v>0</v>
       </c>
       <c r="G41" s="13" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="J41" t="s">
         <v>102</v>
@@ -3111,7 +3111,7 @@
         <v>26</v>
       </c>
       <c r="C42" s="13" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="D42" s="13">
         <v>48</v>
@@ -3123,7 +3123,7 @@
         <v>1</v>
       </c>
       <c r="G42" s="13" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="J42" t="s">
         <v>103</v>
@@ -3138,7 +3138,7 @@
         <v>43</v>
       </c>
       <c r="C43" s="13" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D43" s="13">
         <v>73</v>
@@ -3150,7 +3150,7 @@
         <v>0</v>
       </c>
       <c r="G43" s="13" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="J43" t="s">
         <v>104</v>
@@ -3165,7 +3165,7 @@
         <v>33</v>
       </c>
       <c r="C44" s="13" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D44" s="13">
         <v>8</v>
@@ -3177,7 +3177,7 @@
         <v>0</v>
       </c>
       <c r="G44" s="13" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="J44" t="s">
         <v>105</v>
@@ -3192,7 +3192,7 @@
         <v>29</v>
       </c>
       <c r="C45" s="13" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D45" s="13">
         <v>31</v>
@@ -3204,7 +3204,7 @@
         <v>0</v>
       </c>
       <c r="G45" s="13" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="J45" t="s">
         <v>106</v>
@@ -3219,7 +3219,7 @@
         <v>22</v>
       </c>
       <c r="C46" s="13" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D46" s="13">
         <v>10</v>
@@ -3231,7 +3231,7 @@
         <v>0</v>
       </c>
       <c r="G46" s="13" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="J46" t="s">
         <v>107</v>
@@ -3242,7 +3242,7 @@
         <v>38</v>
       </c>
       <c r="C47" s="13" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D47" s="13">
         <v>74</v>
@@ -3254,7 +3254,7 @@
         <v>0</v>
       </c>
       <c r="G47" s="13" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="J47" t="s">
         <v>108</v>
@@ -3272,19 +3272,19 @@
         <v>1</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="J48" t="s">
         <v>109</v>
@@ -3430,19 +3430,19 @@
         <v>1</v>
       </c>
       <c r="K56" s="1" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="L56" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="M56" s="1" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="N56" s="1" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="O56" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="57" spans="1:15" x14ac:dyDescent="0.2">

--- a/output/supplementary tables.xlsx
+++ b/output/supplementary tables.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cmantegna/Documents/GitHub/WDFWmussels/output/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38327A7B-9BF4-0849-98A1-FC9BB1391822}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB9FE04F-A971-9F42-89D4-375AB414B741}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32800" yWindow="620" windowWidth="37280" windowHeight="20680" activeTab="2" xr2:uid="{BE86B9F0-78FD-C044-9247-4161F6BEB5F3}"/>
+    <workbookView xWindow="31360" yWindow="620" windowWidth="37280" windowHeight="20680" activeTab="2" xr2:uid="{BE86B9F0-78FD-C044-9247-4161F6BEB5F3}"/>
   </bookViews>
   <sheets>
     <sheet name="notes" sheetId="8" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1037" uniqueCount="361">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1065" uniqueCount="361">
   <si>
     <t>Class</t>
   </si>
@@ -1308,11 +1308,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1754,7 +1752,7 @@
       <c r="B6" t="s">
         <v>301</v>
       </c>
-      <c r="C6" s="29" t="s">
+      <c r="C6" s="28" t="s">
         <v>359</v>
       </c>
       <c r="F6" s="23" t="s">
@@ -1815,10 +1813,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAC852F3-4C36-5244-AFD3-7C7A3D7A2244}">
-  <dimension ref="A1:W69"/>
+  <dimension ref="A1:W81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q4" sqref="Q4"/>
+    <sheetView tabSelected="1" topLeftCell="F41" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I83" sqref="I83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2108,27 +2106,6 @@
       <c r="M8" s="13"/>
       <c r="N8" s="13"/>
       <c r="O8" s="13"/>
-      <c r="Q8" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="R8" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="S8" s="1" t="s">
-        <v>306</v>
-      </c>
-      <c r="T8" s="1" t="s">
-        <v>316</v>
-      </c>
-      <c r="U8" s="1" t="s">
-        <v>315</v>
-      </c>
-      <c r="V8" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="W8" s="1" t="s">
-        <v>297</v>
-      </c>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
@@ -2156,15 +2133,6 @@
       <c r="M9" s="13"/>
       <c r="N9" s="13"/>
       <c r="O9" s="13"/>
-      <c r="Q9" s="2" t="s">
-        <v>277</v>
-      </c>
-      <c r="R9" s="2"/>
-      <c r="S9" s="2"/>
-      <c r="T9" s="2"/>
-      <c r="U9" s="2"/>
-      <c r="V9" s="2"/>
-      <c r="W9" s="2"/>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
@@ -2192,9 +2160,6 @@
       <c r="M10" s="13"/>
       <c r="N10" s="13"/>
       <c r="O10" s="13"/>
-      <c r="R10" s="15" t="s">
-        <v>296</v>
-      </c>
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
@@ -2225,9 +2190,6 @@
       <c r="M11" s="13"/>
       <c r="N11" s="13"/>
       <c r="O11" s="13"/>
-      <c r="R11" s="15" t="s">
-        <v>295</v>
-      </c>
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
@@ -2248,9 +2210,6 @@
       <c r="M12" s="13"/>
       <c r="N12" s="13"/>
       <c r="O12" s="13"/>
-      <c r="R12" s="15" t="s">
-        <v>294</v>
-      </c>
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
@@ -2268,7 +2227,7 @@
       <c r="F13" s="13">
         <v>0</v>
       </c>
-      <c r="G13" s="27" t="s">
+      <c r="G13" s="13" t="s">
         <v>298</v>
       </c>
       <c r="J13" t="s">
@@ -2278,9 +2237,6 @@
       <c r="M13" s="13"/>
       <c r="N13" s="13"/>
       <c r="O13" s="13"/>
-      <c r="R13" s="15" t="s">
-        <v>293</v>
-      </c>
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
@@ -2298,7 +2254,7 @@
       <c r="F14" s="13">
         <v>0</v>
       </c>
-      <c r="G14" s="27" t="s">
+      <c r="G14" s="13" t="s">
         <v>298</v>
       </c>
       <c r="I14" s="1" t="s">
@@ -2321,9 +2277,6 @@
       </c>
       <c r="O14" s="1" t="s">
         <v>297</v>
-      </c>
-      <c r="R14" s="15" t="s">
-        <v>292</v>
       </c>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.2">
@@ -2342,7 +2295,7 @@
       <c r="F15" s="13">
         <v>0</v>
       </c>
-      <c r="G15" s="27" t="s">
+      <c r="G15" s="13" t="s">
         <v>298</v>
       </c>
       <c r="I15" s="2" t="s">
@@ -2354,9 +2307,6 @@
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
-      <c r="R15" s="15" t="s">
-        <v>291</v>
-      </c>
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
@@ -2374,7 +2324,7 @@
       <c r="F16" s="13">
         <v>0</v>
       </c>
-      <c r="G16" s="27" t="s">
+      <c r="G16" s="13" t="s">
         <v>298</v>
       </c>
       <c r="J16" t="s">
@@ -2384,9 +2334,6 @@
       <c r="M16" s="13"/>
       <c r="N16" s="13"/>
       <c r="O16" s="13"/>
-      <c r="R16" s="15" t="s">
-        <v>290</v>
-      </c>
     </row>
     <row r="17" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
@@ -2404,7 +2351,7 @@
       <c r="F17" s="13">
         <v>0</v>
       </c>
-      <c r="G17" s="27" t="s">
+      <c r="G17" s="13" t="s">
         <v>298</v>
       </c>
       <c r="J17" t="s">
@@ -2414,9 +2361,6 @@
       <c r="M17" s="13"/>
       <c r="N17" s="13"/>
       <c r="O17" s="13"/>
-      <c r="R17" s="15" t="s">
-        <v>289</v>
-      </c>
     </row>
     <row r="18" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
@@ -2434,7 +2378,7 @@
       <c r="F18" s="13">
         <v>0</v>
       </c>
-      <c r="G18" s="27" t="s">
+      <c r="G18" s="13" t="s">
         <v>298</v>
       </c>
       <c r="J18" t="s">
@@ -2444,9 +2388,6 @@
       <c r="M18" s="13"/>
       <c r="N18" s="13"/>
       <c r="O18" s="13"/>
-      <c r="R18" t="s">
-        <v>284</v>
-      </c>
     </row>
     <row r="19" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
@@ -2945,7 +2886,7 @@
       <c r="O35" s="13"/>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="B36" s="28" t="s">
+      <c r="B36" s="27" t="s">
         <v>41</v>
       </c>
       <c r="C36" s="13" t="s">
@@ -3238,7 +3179,7 @@
       </c>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="B47" s="29" t="s">
+      <c r="B47" s="28" t="s">
         <v>38</v>
       </c>
       <c r="C47" s="13" t="s">
@@ -3580,7 +3521,7 @@
       <c r="N64" s="13"/>
       <c r="O64" s="13"/>
     </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B65" t="s">
         <v>62</v>
       </c>
@@ -3589,12 +3530,11 @@
       <c r="E65" s="13"/>
       <c r="F65" s="13"/>
       <c r="G65" s="13"/>
-      <c r="L65" s="13"/>
-      <c r="M65" s="13"/>
-      <c r="N65" s="13"/>
-      <c r="O65" s="13"/>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="I65" s="29" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="66" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B66" t="s">
         <v>44</v>
       </c>
@@ -3603,12 +3543,29 @@
       <c r="E66" s="13"/>
       <c r="F66" s="13"/>
       <c r="G66" s="13"/>
-      <c r="L66" s="13"/>
-      <c r="M66" s="13"/>
-      <c r="N66" s="13"/>
-      <c r="O66" s="13"/>
-    </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="I66" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J66" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="K66" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="L66" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="M66" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="N66" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="O66" s="1" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="67" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B67" t="s">
         <v>61</v>
       </c>
@@ -3617,12 +3574,17 @@
       <c r="E67" s="13"/>
       <c r="F67" s="13"/>
       <c r="G67" s="13"/>
-      <c r="L67" s="13"/>
-      <c r="M67" s="13"/>
-      <c r="N67" s="13"/>
-      <c r="O67" s="13"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="I67" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="J67" s="2"/>
+      <c r="K67" s="2"/>
+      <c r="L67" s="2"/>
+      <c r="M67" s="2"/>
+      <c r="N67" s="2"/>
+      <c r="O67" s="2"/>
+    </row>
+    <row r="68" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B68" t="s">
         <v>60</v>
       </c>
@@ -3631,8 +3593,11 @@
       <c r="E68" s="13"/>
       <c r="F68" s="13"/>
       <c r="G68" s="13"/>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="J68" s="15" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="69" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B69" t="s">
         <v>45</v>
       </c>
@@ -3641,6 +3606,153 @@
       <c r="E69" s="13"/>
       <c r="F69" s="13"/>
       <c r="G69" s="13"/>
+      <c r="J69" s="15" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="70" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A70" s="29" t="s">
+        <v>334</v>
+      </c>
+      <c r="C70" s="13"/>
+      <c r="D70" s="13"/>
+      <c r="E70" s="13"/>
+      <c r="F70" s="13"/>
+      <c r="G70" s="13"/>
+      <c r="J70" s="15" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="71" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A71" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="F71" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="G71" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="J71" s="15" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="72" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A72" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="B72" s="2"/>
+      <c r="C72" s="2"/>
+      <c r="D72" s="2"/>
+      <c r="E72" s="2"/>
+      <c r="F72" s="2"/>
+      <c r="G72" s="2"/>
+      <c r="I72" s="29" t="s">
+        <v>334</v>
+      </c>
+      <c r="J72" s="15"/>
+    </row>
+    <row r="73" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B73" s="15" t="s">
+        <v>296</v>
+      </c>
+      <c r="I73" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J73" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="K73" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="L73" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="M73" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="N73" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="O73" s="1" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="74" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B74" s="15" t="s">
+        <v>295</v>
+      </c>
+      <c r="I74" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="J74" s="2"/>
+      <c r="K74" s="2"/>
+      <c r="L74" s="2"/>
+      <c r="M74" s="2"/>
+      <c r="N74" s="2"/>
+      <c r="O74" s="2"/>
+    </row>
+    <row r="75" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B75" s="15" t="s">
+        <v>294</v>
+      </c>
+      <c r="J75" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="76" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B76" s="15" t="s">
+        <v>293</v>
+      </c>
+      <c r="J76" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="77" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B77" s="15" t="s">
+        <v>292</v>
+      </c>
+      <c r="J77" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="78" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B78" s="15" t="s">
+        <v>291</v>
+      </c>
+      <c r="J78" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="79" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B79" s="15" t="s">
+        <v>290</v>
+      </c>
+      <c r="J79" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="80" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B80" s="15" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="81" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B81" t="s">
+        <v>284</v>
+      </c>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B50:B69">
